--- a/database/industries/shoyande/kimiatec/product/monthly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC4B82D-944A-46BA-9680-8D982824FBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -184,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>دارویی (مراقبت پوست)</t>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +443,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -454,7 +455,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -501,6 +502,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -536,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,17 +722,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,7 +787,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,7 +844,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,7 +901,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -921,7 +956,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -978,7 +1013,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1070,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1090,7 +1125,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1302,7 +1337,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1394,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1418,107 +1453,107 @@
       <c r="U11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>57</v>
+      <c r="V11" s="11">
+        <v>574685</v>
       </c>
       <c r="W11" s="11">
-        <v>574685</v>
+        <v>1685115</v>
       </c>
       <c r="X11" s="11">
-        <v>1685115</v>
+        <v>1365965</v>
       </c>
       <c r="Y11" s="11">
-        <v>1365965</v>
+        <v>1559672</v>
       </c>
       <c r="Z11" s="11">
-        <v>1559672</v>
+        <v>1233540</v>
       </c>
       <c r="AA11" s="11">
-        <v>1233540</v>
+        <v>1364889</v>
       </c>
       <c r="AB11" s="11">
-        <v>1364889</v>
+        <v>1274647</v>
       </c>
       <c r="AC11" s="11">
-        <v>1274647</v>
+        <v>1651508</v>
       </c>
       <c r="AD11" s="11">
-        <v>1651508</v>
+        <v>1873263</v>
       </c>
       <c r="AE11" s="11">
-        <v>1873263</v>
+        <v>1308329</v>
       </c>
       <c r="AF11" s="11">
-        <v>1308329</v>
+        <v>1875732</v>
       </c>
       <c r="AG11" s="11">
-        <v>1875732</v>
+        <v>1077736</v>
       </c>
       <c r="AH11" s="11">
-        <v>1077736</v>
+        <v>107160</v>
       </c>
       <c r="AI11" s="11">
-        <v>107160</v>
+        <v>1464968</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1464968</v>
+        <v>2164824</v>
       </c>
       <c r="AK11" s="11">
-        <v>2164824</v>
+        <v>951533</v>
       </c>
       <c r="AL11" s="11">
-        <v>951533</v>
+        <v>604440</v>
       </c>
       <c r="AM11" s="11">
-        <v>604440</v>
+        <v>1062495</v>
       </c>
       <c r="AN11" s="11">
-        <v>1062495</v>
+        <v>1539501</v>
       </c>
       <c r="AO11" s="11">
-        <v>1539501</v>
+        <v>944733</v>
       </c>
       <c r="AP11" s="11">
-        <v>944733</v>
+        <v>1294565</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1294565</v>
+        <v>1034399</v>
       </c>
       <c r="AR11" s="11">
-        <v>1034399</v>
+        <v>1049813</v>
       </c>
       <c r="AS11" s="11">
-        <v>1049813</v>
+        <v>425599</v>
       </c>
       <c r="AT11" s="11">
-        <v>425599</v>
+        <v>978365</v>
       </c>
       <c r="AU11" s="11">
-        <v>978365</v>
+        <v>2088784</v>
       </c>
       <c r="AV11" s="11">
-        <v>2088784</v>
+        <v>2208362</v>
       </c>
       <c r="AW11" s="11">
-        <v>2208362</v>
+        <v>1484782</v>
       </c>
       <c r="AX11" s="11">
-        <v>1484782</v>
+        <v>1307987</v>
       </c>
       <c r="AY11" s="11">
-        <v>1307987</v>
+        <v>1881955</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1881955</v>
+        <v>943499</v>
       </c>
       <c r="BA11" s="11">
-        <v>943499</v>
+        <v>1624282</v>
       </c>
       <c r="BB11" s="11">
-        <v>1624282</v>
+        <v>1789750</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1577,107 +1612,107 @@
       <c r="U12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
+      <c r="V12" s="13">
+        <v>2195795</v>
       </c>
       <c r="W12" s="13">
-        <v>2195795</v>
+        <v>3816697</v>
       </c>
       <c r="X12" s="13">
-        <v>3816697</v>
+        <v>823357</v>
       </c>
       <c r="Y12" s="13">
-        <v>823357</v>
+        <v>3393806</v>
       </c>
       <c r="Z12" s="13">
-        <v>3393806</v>
+        <v>2798099</v>
       </c>
       <c r="AA12" s="13">
-        <v>2798099</v>
+        <v>3097213</v>
       </c>
       <c r="AB12" s="13">
-        <v>3097213</v>
+        <v>3220843</v>
       </c>
       <c r="AC12" s="13">
-        <v>3220843</v>
+        <v>3366608</v>
       </c>
       <c r="AD12" s="13">
-        <v>3366608</v>
+        <v>4403965</v>
       </c>
       <c r="AE12" s="13">
-        <v>4403965</v>
+        <v>2907633</v>
       </c>
       <c r="AF12" s="13">
-        <v>2907633</v>
+        <v>4566369</v>
       </c>
       <c r="AG12" s="13">
-        <v>4566369</v>
+        <v>2705390</v>
       </c>
       <c r="AH12" s="13">
-        <v>2705390</v>
+        <v>1642770</v>
       </c>
       <c r="AI12" s="13">
-        <v>1642770</v>
+        <v>2447633</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2447633</v>
+        <v>2036103</v>
       </c>
       <c r="AK12" s="13">
-        <v>2036103</v>
+        <v>2979924</v>
       </c>
       <c r="AL12" s="13">
-        <v>2979924</v>
+        <v>3557736</v>
       </c>
       <c r="AM12" s="13">
-        <v>3557736</v>
+        <v>3443086</v>
       </c>
       <c r="AN12" s="13">
-        <v>3443086</v>
+        <v>2757778</v>
       </c>
       <c r="AO12" s="13">
-        <v>2757778</v>
+        <v>2537086</v>
       </c>
       <c r="AP12" s="13">
-        <v>2537086</v>
+        <v>2988597</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2988597</v>
+        <v>2540486</v>
       </c>
       <c r="AR12" s="13">
-        <v>2540486</v>
+        <v>3224988</v>
       </c>
       <c r="AS12" s="13">
-        <v>3224988</v>
+        <v>2778131</v>
       </c>
       <c r="AT12" s="13">
-        <v>2778131</v>
+        <v>1932134</v>
       </c>
       <c r="AU12" s="13">
-        <v>1932134</v>
+        <v>3794614</v>
       </c>
       <c r="AV12" s="13">
-        <v>3794614</v>
+        <v>3971390</v>
       </c>
       <c r="AW12" s="13">
-        <v>3971390</v>
+        <v>3676123</v>
       </c>
       <c r="AX12" s="13">
-        <v>3676123</v>
+        <v>3596987</v>
       </c>
       <c r="AY12" s="13">
-        <v>3596987</v>
+        <v>3462625</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3462625</v>
+        <v>3016636</v>
       </c>
       <c r="BA12" s="13">
-        <v>3016636</v>
+        <v>3415167</v>
       </c>
       <c r="BB12" s="13">
-        <v>3415167</v>
+        <v>3671469</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1736,107 +1771,107 @@
       <c r="U13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>57</v>
+      <c r="V13" s="11">
+        <v>421040</v>
       </c>
       <c r="W13" s="11">
-        <v>421040</v>
+        <v>342775</v>
       </c>
       <c r="X13" s="11">
-        <v>342775</v>
+        <v>354951</v>
       </c>
       <c r="Y13" s="11">
-        <v>354951</v>
+        <v>853232</v>
       </c>
       <c r="Z13" s="11">
-        <v>853232</v>
+        <v>845689</v>
       </c>
       <c r="AA13" s="11">
-        <v>845689</v>
+        <v>477805</v>
       </c>
       <c r="AB13" s="11">
-        <v>477805</v>
+        <v>1049837</v>
       </c>
       <c r="AC13" s="11">
-        <v>1049837</v>
+        <v>874960</v>
       </c>
       <c r="AD13" s="11">
-        <v>874960</v>
+        <v>839661</v>
       </c>
       <c r="AE13" s="11">
-        <v>839661</v>
+        <v>786573</v>
       </c>
       <c r="AF13" s="11">
-        <v>786573</v>
+        <v>1454086</v>
       </c>
       <c r="AG13" s="11">
-        <v>1454086</v>
+        <v>355611</v>
       </c>
       <c r="AH13" s="11">
-        <v>355611</v>
+        <v>302700</v>
       </c>
       <c r="AI13" s="11">
-        <v>302700</v>
+        <v>576123</v>
       </c>
       <c r="AJ13" s="11">
-        <v>576123</v>
+        <v>577501</v>
       </c>
       <c r="AK13" s="11">
-        <v>577501</v>
+        <v>812736</v>
       </c>
       <c r="AL13" s="11">
-        <v>812736</v>
+        <v>574197</v>
       </c>
       <c r="AM13" s="11">
-        <v>574197</v>
+        <v>679456</v>
       </c>
       <c r="AN13" s="11">
-        <v>679456</v>
+        <v>341164</v>
       </c>
       <c r="AO13" s="11">
-        <v>341164</v>
+        <v>717583</v>
       </c>
       <c r="AP13" s="11">
-        <v>717583</v>
+        <v>877199</v>
       </c>
       <c r="AQ13" s="11">
-        <v>877199</v>
+        <v>864518</v>
       </c>
       <c r="AR13" s="11">
-        <v>864518</v>
+        <v>685468</v>
       </c>
       <c r="AS13" s="11">
-        <v>685468</v>
+        <v>923051</v>
       </c>
       <c r="AT13" s="11">
-        <v>923051</v>
+        <v>442941</v>
       </c>
       <c r="AU13" s="11">
-        <v>442941</v>
+        <v>477046</v>
       </c>
       <c r="AV13" s="11">
-        <v>477046</v>
+        <v>577460</v>
       </c>
       <c r="AW13" s="11">
-        <v>577460</v>
+        <v>1047589</v>
       </c>
       <c r="AX13" s="11">
-        <v>1047589</v>
+        <v>878119</v>
       </c>
       <c r="AY13" s="11">
-        <v>878119</v>
+        <v>580397</v>
       </c>
       <c r="AZ13" s="11">
-        <v>580397</v>
+        <v>601962</v>
       </c>
       <c r="BA13" s="11">
-        <v>601962</v>
+        <v>833950</v>
       </c>
       <c r="BB13" s="11">
-        <v>833950</v>
+        <v>1098866</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
@@ -1893,7 +1928,7 @@
       <c r="BA14" s="15"/>
       <c r="BB14" s="15"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>61</v>
       </c>
@@ -1950,8 +1985,8 @@
       <c r="U15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V15" s="17" t="s">
-        <v>57</v>
+      <c r="V15" s="17">
+        <v>0</v>
       </c>
       <c r="W15" s="17">
         <v>0</v>
@@ -2050,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
@@ -2108,106 +2143,106 @@
         <v>0</v>
       </c>
       <c r="V16" s="19">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="W16" s="19">
-        <v>3191520</v>
+        <v>5844587</v>
       </c>
       <c r="X16" s="19">
-        <v>5844587</v>
+        <v>2544273</v>
       </c>
       <c r="Y16" s="19">
-        <v>2544273</v>
+        <v>5806710</v>
       </c>
       <c r="Z16" s="19">
-        <v>5806710</v>
+        <v>4877328</v>
       </c>
       <c r="AA16" s="19">
-        <v>4877328</v>
+        <v>4939907</v>
       </c>
       <c r="AB16" s="19">
-        <v>4939907</v>
+        <v>5545327</v>
       </c>
       <c r="AC16" s="19">
-        <v>5545327</v>
+        <v>5893076</v>
       </c>
       <c r="AD16" s="19">
-        <v>5893076</v>
+        <v>7116889</v>
       </c>
       <c r="AE16" s="19">
-        <v>7116889</v>
+        <v>5002535</v>
       </c>
       <c r="AF16" s="19">
-        <v>5002535</v>
+        <v>7896187</v>
       </c>
       <c r="AG16" s="19">
-        <v>7896187</v>
+        <v>4138737</v>
       </c>
       <c r="AH16" s="19">
-        <v>4138737</v>
+        <v>2052630</v>
       </c>
       <c r="AI16" s="19">
-        <v>2052630</v>
+        <v>4488724</v>
       </c>
       <c r="AJ16" s="19">
-        <v>4488724</v>
+        <v>4778428</v>
       </c>
       <c r="AK16" s="19">
-        <v>4778428</v>
+        <v>4744193</v>
       </c>
       <c r="AL16" s="19">
-        <v>4744193</v>
+        <v>4736373</v>
       </c>
       <c r="AM16" s="19">
-        <v>4736373</v>
+        <v>5185037</v>
       </c>
       <c r="AN16" s="19">
-        <v>5185037</v>
+        <v>4638443</v>
       </c>
       <c r="AO16" s="19">
-        <v>4638443</v>
+        <v>4199402</v>
       </c>
       <c r="AP16" s="19">
-        <v>4199402</v>
+        <v>5160361</v>
       </c>
       <c r="AQ16" s="19">
-        <v>5160361</v>
+        <v>4439403</v>
       </c>
       <c r="AR16" s="19">
-        <v>4439403</v>
+        <v>4960269</v>
       </c>
       <c r="AS16" s="19">
-        <v>4960269</v>
+        <v>4126781</v>
       </c>
       <c r="AT16" s="19">
-        <v>4126781</v>
+        <v>3353440</v>
       </c>
       <c r="AU16" s="19">
-        <v>3353440</v>
+        <v>6360444</v>
       </c>
       <c r="AV16" s="19">
-        <v>6360444</v>
+        <v>6757212</v>
       </c>
       <c r="AW16" s="19">
-        <v>6757212</v>
+        <v>6208494</v>
       </c>
       <c r="AX16" s="19">
-        <v>6208494</v>
+        <v>5783093</v>
       </c>
       <c r="AY16" s="19">
-        <v>5783093</v>
+        <v>5924977</v>
       </c>
       <c r="AZ16" s="19">
-        <v>5924977</v>
+        <v>4562097</v>
       </c>
       <c r="BA16" s="19">
-        <v>4562097</v>
+        <v>5873399</v>
       </c>
       <c r="BB16" s="19">
-        <v>5873399</v>
+        <v>6560085</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2262,7 +2297,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2317,7 +2352,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2372,7 +2407,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
@@ -2529,7 +2564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2584,7 +2619,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
@@ -2641,7 +2676,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
@@ -2700,107 +2735,107 @@
       <c r="U23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V23" s="11" t="s">
-        <v>57</v>
+      <c r="V23" s="11">
+        <v>729015</v>
       </c>
       <c r="W23" s="11">
-        <v>729015</v>
+        <v>1772967</v>
       </c>
       <c r="X23" s="11">
-        <v>1772967</v>
+        <v>1468600</v>
       </c>
       <c r="Y23" s="11">
-        <v>1468600</v>
+        <v>1377560</v>
       </c>
       <c r="Z23" s="11">
-        <v>1377560</v>
+        <v>1211798</v>
       </c>
       <c r="AA23" s="11">
-        <v>1211798</v>
+        <v>1241898</v>
       </c>
       <c r="AB23" s="11">
-        <v>1241898</v>
+        <v>1527172</v>
       </c>
       <c r="AC23" s="11">
-        <v>1527172</v>
+        <v>1335243</v>
       </c>
       <c r="AD23" s="11">
-        <v>1335243</v>
+        <v>846121</v>
       </c>
       <c r="AE23" s="11">
-        <v>846121</v>
+        <v>1375326</v>
       </c>
       <c r="AF23" s="11">
-        <v>1375326</v>
+        <v>1681267</v>
       </c>
       <c r="AG23" s="11">
-        <v>1681267</v>
+        <v>845585</v>
       </c>
       <c r="AH23" s="11">
-        <v>845585</v>
+        <v>801408</v>
       </c>
       <c r="AI23" s="11">
-        <v>801408</v>
+        <v>1375779</v>
       </c>
       <c r="AJ23" s="11">
-        <v>1375779</v>
+        <v>1326288</v>
       </c>
       <c r="AK23" s="11">
-        <v>1326288</v>
+        <v>909929</v>
       </c>
       <c r="AL23" s="11">
-        <v>909929</v>
+        <v>959354</v>
       </c>
       <c r="AM23" s="11">
-        <v>959354</v>
+        <v>784045</v>
       </c>
       <c r="AN23" s="11">
-        <v>784045</v>
+        <v>1502793</v>
       </c>
       <c r="AO23" s="11">
-        <v>1502793</v>
+        <v>1307930</v>
       </c>
       <c r="AP23" s="11">
-        <v>1307930</v>
+        <v>1158543</v>
       </c>
       <c r="AQ23" s="11">
-        <v>1158543</v>
+        <v>915143</v>
       </c>
       <c r="AR23" s="11">
-        <v>915143</v>
+        <v>1478014</v>
       </c>
       <c r="AS23" s="11">
-        <v>1478014</v>
+        <v>1133675</v>
       </c>
       <c r="AT23" s="11">
-        <v>1133675</v>
+        <v>859438</v>
       </c>
       <c r="AU23" s="11">
-        <v>859438</v>
+        <v>1373302</v>
       </c>
       <c r="AV23" s="11">
-        <v>1373302</v>
+        <v>1615123</v>
       </c>
       <c r="AW23" s="11">
-        <v>1615123</v>
+        <v>924157</v>
       </c>
       <c r="AX23" s="11">
-        <v>924157</v>
+        <v>1104375</v>
       </c>
       <c r="AY23" s="11">
-        <v>1104375</v>
+        <v>1251541</v>
       </c>
       <c r="AZ23" s="11">
-        <v>1251541</v>
+        <v>1098955</v>
       </c>
       <c r="BA23" s="11">
-        <v>1098955</v>
+        <v>1481508</v>
       </c>
       <c r="BB23" s="11">
-        <v>1481508</v>
+        <v>1570886</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>58</v>
       </c>
@@ -2859,107 +2894,107 @@
       <c r="U24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V24" s="13" t="s">
-        <v>57</v>
+      <c r="V24" s="13">
+        <v>1330241</v>
       </c>
       <c r="W24" s="13">
-        <v>1330241</v>
+        <v>2584186</v>
       </c>
       <c r="X24" s="13">
-        <v>2584186</v>
+        <v>3829816</v>
       </c>
       <c r="Y24" s="13">
-        <v>3829816</v>
+        <v>4211906</v>
       </c>
       <c r="Z24" s="13">
-        <v>4211906</v>
+        <v>3148574</v>
       </c>
       <c r="AA24" s="13">
-        <v>3148574</v>
+        <v>3065231</v>
       </c>
       <c r="AB24" s="13">
-        <v>3065231</v>
+        <v>3805474</v>
       </c>
       <c r="AC24" s="13">
-        <v>3805474</v>
+        <v>2848136</v>
       </c>
       <c r="AD24" s="13">
-        <v>2848136</v>
+        <v>1621960</v>
       </c>
       <c r="AE24" s="13">
-        <v>1621960</v>
+        <v>3068458</v>
       </c>
       <c r="AF24" s="13">
-        <v>3068458</v>
+        <v>4130520</v>
       </c>
       <c r="AG24" s="13">
-        <v>4130520</v>
+        <v>2458672</v>
       </c>
       <c r="AH24" s="13">
-        <v>2458672</v>
+        <v>1574769</v>
       </c>
       <c r="AI24" s="13">
-        <v>1574769</v>
+        <v>2571774</v>
       </c>
       <c r="AJ24" s="13">
-        <v>2571774</v>
+        <v>2758197</v>
       </c>
       <c r="AK24" s="13">
-        <v>2758197</v>
+        <v>3199667</v>
       </c>
       <c r="AL24" s="13">
-        <v>3199667</v>
+        <v>3728428</v>
       </c>
       <c r="AM24" s="13">
-        <v>3728428</v>
+        <v>4117552</v>
       </c>
       <c r="AN24" s="13">
-        <v>4117552</v>
+        <v>1870160</v>
       </c>
       <c r="AO24" s="13">
-        <v>1870160</v>
+        <v>2530950</v>
       </c>
       <c r="AP24" s="13">
-        <v>2530950</v>
+        <v>2933640</v>
       </c>
       <c r="AQ24" s="13">
-        <v>2933640</v>
+        <v>3038566</v>
       </c>
       <c r="AR24" s="13">
-        <v>3038566</v>
+        <v>3658027</v>
       </c>
       <c r="AS24" s="13">
-        <v>3658027</v>
+        <v>3769468</v>
       </c>
       <c r="AT24" s="13">
-        <v>3769468</v>
+        <v>1993809</v>
       </c>
       <c r="AU24" s="13">
-        <v>1993809</v>
+        <v>3496200</v>
       </c>
       <c r="AV24" s="13">
-        <v>3496200</v>
+        <v>4257925</v>
       </c>
       <c r="AW24" s="13">
-        <v>4257925</v>
+        <v>2822733</v>
       </c>
       <c r="AX24" s="13">
-        <v>2822733</v>
+        <v>3094914</v>
       </c>
       <c r="AY24" s="13">
-        <v>3094914</v>
+        <v>2994929</v>
       </c>
       <c r="AZ24" s="13">
-        <v>2994929</v>
+        <v>2820154</v>
       </c>
       <c r="BA24" s="13">
-        <v>2820154</v>
+        <v>3358078</v>
       </c>
       <c r="BB24" s="13">
-        <v>3358078</v>
+        <v>3548516</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
@@ -3018,107 +3053,107 @@
       <c r="U25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V25" s="11" t="s">
-        <v>57</v>
+      <c r="V25" s="11">
+        <v>130340</v>
       </c>
       <c r="W25" s="11">
-        <v>130340</v>
+        <v>327797</v>
       </c>
       <c r="X25" s="11">
-        <v>327797</v>
+        <v>908037</v>
       </c>
       <c r="Y25" s="11">
-        <v>908037</v>
+        <v>708411</v>
       </c>
       <c r="Z25" s="11">
-        <v>708411</v>
+        <v>546822</v>
       </c>
       <c r="AA25" s="11">
-        <v>546822</v>
+        <v>717857</v>
       </c>
       <c r="AB25" s="11">
-        <v>717857</v>
+        <v>677650</v>
       </c>
       <c r="AC25" s="11">
-        <v>677650</v>
+        <v>595352</v>
       </c>
       <c r="AD25" s="11">
-        <v>595352</v>
+        <v>325369</v>
       </c>
       <c r="AE25" s="11">
-        <v>325369</v>
+        <v>1098298</v>
       </c>
       <c r="AF25" s="11">
-        <v>1098298</v>
+        <v>1565769</v>
       </c>
       <c r="AG25" s="11">
-        <v>1565769</v>
+        <v>561855</v>
       </c>
       <c r="AH25" s="11">
-        <v>561855</v>
+        <v>256651</v>
       </c>
       <c r="AI25" s="11">
-        <v>256651</v>
+        <v>852995</v>
       </c>
       <c r="AJ25" s="11">
-        <v>852995</v>
+        <v>864028</v>
       </c>
       <c r="AK25" s="11">
-        <v>864028</v>
+        <v>728914</v>
       </c>
       <c r="AL25" s="11">
-        <v>728914</v>
+        <v>518898</v>
       </c>
       <c r="AM25" s="11">
-        <v>518898</v>
+        <v>671376</v>
       </c>
       <c r="AN25" s="11">
-        <v>671376</v>
+        <v>1301462</v>
       </c>
       <c r="AO25" s="11">
-        <v>1301462</v>
+        <v>783221</v>
       </c>
       <c r="AP25" s="11">
-        <v>783221</v>
+        <v>851136</v>
       </c>
       <c r="AQ25" s="11">
-        <v>851136</v>
+        <v>561149</v>
       </c>
       <c r="AR25" s="11">
-        <v>561149</v>
+        <v>1164663</v>
       </c>
       <c r="AS25" s="11">
-        <v>1164663</v>
+        <v>574133</v>
       </c>
       <c r="AT25" s="11">
-        <v>574133</v>
+        <v>664112</v>
       </c>
       <c r="AU25" s="11">
-        <v>664112</v>
+        <v>1140687</v>
       </c>
       <c r="AV25" s="11">
-        <v>1140687</v>
+        <v>1258883</v>
       </c>
       <c r="AW25" s="11">
-        <v>1258883</v>
+        <v>1355248</v>
       </c>
       <c r="AX25" s="11">
-        <v>1355248</v>
+        <v>1149468</v>
       </c>
       <c r="AY25" s="11">
-        <v>1149468</v>
+        <v>1408978</v>
       </c>
       <c r="AZ25" s="11">
-        <v>1408978</v>
+        <v>903103</v>
       </c>
       <c r="BA25" s="11">
-        <v>903103</v>
+        <v>1772778</v>
       </c>
       <c r="BB25" s="11">
-        <v>1772778</v>
+        <v>1511659</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3210,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>61</v>
       </c>
@@ -3232,8 +3267,8 @@
       <c r="U27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V27" s="17" t="s">
-        <v>57</v>
+      <c r="V27" s="17">
+        <v>0</v>
       </c>
       <c r="W27" s="17">
         <v>0</v>
@@ -3332,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>64</v>
       </c>
@@ -3389,7 +3424,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>65</v>
       </c>
@@ -3446,8 +3481,8 @@
       <c r="U29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V29" s="17" t="s">
-        <v>57</v>
+      <c r="V29" s="17">
+        <v>0</v>
       </c>
       <c r="W29" s="17">
         <v>0</v>
@@ -3546,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>62</v>
       </c>
@@ -3604,106 +3639,106 @@
         <v>0</v>
       </c>
       <c r="V30" s="19">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="W30" s="19">
-        <v>2189596</v>
+        <v>4684950</v>
       </c>
       <c r="X30" s="19">
-        <v>4684950</v>
+        <v>6206453</v>
       </c>
       <c r="Y30" s="19">
-        <v>6206453</v>
+        <v>6297877</v>
       </c>
       <c r="Z30" s="19">
-        <v>6297877</v>
+        <v>4907194</v>
       </c>
       <c r="AA30" s="19">
-        <v>4907194</v>
+        <v>5024986</v>
       </c>
       <c r="AB30" s="19">
-        <v>5024986</v>
+        <v>6010296</v>
       </c>
       <c r="AC30" s="19">
-        <v>6010296</v>
+        <v>4778731</v>
       </c>
       <c r="AD30" s="19">
-        <v>4778731</v>
+        <v>2793450</v>
       </c>
       <c r="AE30" s="19">
-        <v>2793450</v>
+        <v>5542082</v>
       </c>
       <c r="AF30" s="19">
-        <v>5542082</v>
+        <v>7377556</v>
       </c>
       <c r="AG30" s="19">
-        <v>7377556</v>
+        <v>3866112</v>
       </c>
       <c r="AH30" s="19">
-        <v>3866112</v>
+        <v>2632828</v>
       </c>
       <c r="AI30" s="19">
-        <v>2632828</v>
+        <v>4800548</v>
       </c>
       <c r="AJ30" s="19">
-        <v>4800548</v>
+        <v>4948513</v>
       </c>
       <c r="AK30" s="19">
-        <v>4948513</v>
+        <v>4838510</v>
       </c>
       <c r="AL30" s="19">
-        <v>4838510</v>
+        <v>5206680</v>
       </c>
       <c r="AM30" s="19">
-        <v>5206680</v>
+        <v>5572973</v>
       </c>
       <c r="AN30" s="19">
-        <v>5572973</v>
+        <v>4674415</v>
       </c>
       <c r="AO30" s="19">
-        <v>4674415</v>
+        <v>4622101</v>
       </c>
       <c r="AP30" s="19">
-        <v>4622101</v>
+        <v>4943319</v>
       </c>
       <c r="AQ30" s="19">
-        <v>4943319</v>
+        <v>4514858</v>
       </c>
       <c r="AR30" s="19">
-        <v>4514858</v>
+        <v>6300704</v>
       </c>
       <c r="AS30" s="19">
-        <v>6300704</v>
+        <v>5477276</v>
       </c>
       <c r="AT30" s="19">
-        <v>5477276</v>
+        <v>3517359</v>
       </c>
       <c r="AU30" s="19">
-        <v>3517359</v>
+        <v>6010189</v>
       </c>
       <c r="AV30" s="19">
-        <v>6010189</v>
+        <v>7131931</v>
       </c>
       <c r="AW30" s="19">
-        <v>7131931</v>
+        <v>5102138</v>
       </c>
       <c r="AX30" s="19">
-        <v>5102138</v>
+        <v>5348757</v>
       </c>
       <c r="AY30" s="19">
-        <v>5348757</v>
+        <v>5655448</v>
       </c>
       <c r="AZ30" s="19">
-        <v>5655448</v>
+        <v>4822212</v>
       </c>
       <c r="BA30" s="19">
-        <v>4822212</v>
+        <v>6612364</v>
       </c>
       <c r="BB30" s="19">
-        <v>6612364</v>
+        <v>6631061</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3758,7 +3793,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3813,7 +3848,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3868,7 +3903,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -4025,7 +4060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4080,7 +4115,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>66</v>
       </c>
@@ -4137,7 +4172,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>55</v>
       </c>
@@ -4196,107 +4231,107 @@
       <c r="U37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V37" s="11" t="s">
-        <v>57</v>
+      <c r="V37" s="11">
+        <v>107593</v>
       </c>
       <c r="W37" s="11">
-        <v>107593</v>
+        <v>266101</v>
       </c>
       <c r="X37" s="11">
-        <v>266101</v>
+        <v>318588</v>
       </c>
       <c r="Y37" s="11">
-        <v>318588</v>
+        <v>315653</v>
       </c>
       <c r="Z37" s="11">
-        <v>315653</v>
+        <v>290496</v>
       </c>
       <c r="AA37" s="11">
-        <v>290496</v>
+        <v>267224</v>
       </c>
       <c r="AB37" s="11">
-        <v>267224</v>
+        <v>295970</v>
       </c>
       <c r="AC37" s="11">
-        <v>295970</v>
+        <v>314325</v>
       </c>
       <c r="AD37" s="11">
-        <v>314325</v>
+        <v>214295</v>
       </c>
       <c r="AE37" s="11">
-        <v>214295</v>
+        <v>314762</v>
       </c>
       <c r="AF37" s="11">
-        <v>314762</v>
+        <v>439526</v>
       </c>
       <c r="AG37" s="11">
-        <v>439526</v>
+        <v>326607</v>
       </c>
       <c r="AH37" s="11">
-        <v>326607</v>
+        <v>238938</v>
       </c>
       <c r="AI37" s="11">
-        <v>238938</v>
+        <v>447320</v>
       </c>
       <c r="AJ37" s="11">
-        <v>447320</v>
+        <v>396231</v>
       </c>
       <c r="AK37" s="11">
-        <v>396231</v>
+        <v>362200</v>
       </c>
       <c r="AL37" s="11">
-        <v>362200</v>
+        <v>294448</v>
       </c>
       <c r="AM37" s="11">
-        <v>294448</v>
+        <v>218682</v>
       </c>
       <c r="AN37" s="11">
-        <v>218682</v>
+        <v>409790</v>
       </c>
       <c r="AO37" s="11">
-        <v>409790</v>
+        <v>398617</v>
       </c>
       <c r="AP37" s="11">
-        <v>398617</v>
+        <v>334050</v>
       </c>
       <c r="AQ37" s="11">
-        <v>334050</v>
+        <v>308293</v>
       </c>
       <c r="AR37" s="11">
-        <v>308293</v>
+        <v>531290</v>
       </c>
       <c r="AS37" s="11">
-        <v>531290</v>
+        <v>271961</v>
       </c>
       <c r="AT37" s="11">
-        <v>271961</v>
+        <v>241505</v>
       </c>
       <c r="AU37" s="11">
-        <v>241505</v>
+        <v>438589</v>
       </c>
       <c r="AV37" s="11">
-        <v>438589</v>
+        <v>514809</v>
       </c>
       <c r="AW37" s="11">
-        <v>514809</v>
+        <v>331326</v>
       </c>
       <c r="AX37" s="11">
-        <v>331326</v>
+        <v>359198</v>
       </c>
       <c r="AY37" s="11">
-        <v>359198</v>
+        <v>423673</v>
       </c>
       <c r="AZ37" s="11">
-        <v>423673</v>
+        <v>375908</v>
       </c>
       <c r="BA37" s="11">
-        <v>375908</v>
+        <v>450323</v>
       </c>
       <c r="BB37" s="11">
-        <v>450323</v>
+        <v>498286</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>58</v>
       </c>
@@ -4355,107 +4390,107 @@
       <c r="U38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V38" s="13" t="s">
-        <v>57</v>
+      <c r="V38" s="13">
+        <v>165894</v>
       </c>
       <c r="W38" s="13">
-        <v>165894</v>
+        <v>396429</v>
       </c>
       <c r="X38" s="13">
-        <v>396429</v>
+        <v>400735</v>
       </c>
       <c r="Y38" s="13">
-        <v>400735</v>
+        <v>598388</v>
       </c>
       <c r="Z38" s="13">
-        <v>598388</v>
+        <v>516993</v>
       </c>
       <c r="AA38" s="13">
-        <v>516993</v>
+        <v>561187</v>
       </c>
       <c r="AB38" s="13">
-        <v>561187</v>
+        <v>597900</v>
       </c>
       <c r="AC38" s="13">
-        <v>597900</v>
+        <v>607544</v>
       </c>
       <c r="AD38" s="13">
-        <v>607544</v>
+        <v>516404</v>
       </c>
       <c r="AE38" s="13">
-        <v>516404</v>
+        <v>622172</v>
       </c>
       <c r="AF38" s="13">
-        <v>622172</v>
+        <v>913362</v>
       </c>
       <c r="AG38" s="13">
-        <v>913362</v>
+        <v>757337</v>
       </c>
       <c r="AH38" s="13">
-        <v>757337</v>
+        <v>347918</v>
       </c>
       <c r="AI38" s="13">
-        <v>347918</v>
+        <v>598798</v>
       </c>
       <c r="AJ38" s="13">
-        <v>598798</v>
+        <v>620732</v>
       </c>
       <c r="AK38" s="13">
-        <v>620732</v>
+        <v>769792</v>
       </c>
       <c r="AL38" s="13">
-        <v>769792</v>
+        <v>796392</v>
       </c>
       <c r="AM38" s="13">
-        <v>796392</v>
+        <v>981847</v>
       </c>
       <c r="AN38" s="13">
-        <v>981847</v>
+        <v>520867</v>
       </c>
       <c r="AO38" s="13">
-        <v>520867</v>
+        <v>731418</v>
       </c>
       <c r="AP38" s="13">
-        <v>731418</v>
+        <v>705183</v>
       </c>
       <c r="AQ38" s="13">
-        <v>705183</v>
+        <v>778548</v>
       </c>
       <c r="AR38" s="13">
-        <v>778548</v>
+        <v>992872</v>
       </c>
       <c r="AS38" s="13">
-        <v>992872</v>
+        <v>925671</v>
       </c>
       <c r="AT38" s="13">
-        <v>925671</v>
+        <v>492842</v>
       </c>
       <c r="AU38" s="13">
-        <v>492842</v>
+        <v>975476</v>
       </c>
       <c r="AV38" s="13">
-        <v>975476</v>
+        <v>1264826</v>
       </c>
       <c r="AW38" s="13">
-        <v>1264826</v>
+        <v>935268</v>
       </c>
       <c r="AX38" s="13">
-        <v>935268</v>
+        <v>1030803</v>
       </c>
       <c r="AY38" s="13">
-        <v>1030803</v>
+        <v>1182779</v>
       </c>
       <c r="AZ38" s="13">
-        <v>1182779</v>
+        <v>915304</v>
       </c>
       <c r="BA38" s="13">
-        <v>915304</v>
+        <v>1230799</v>
       </c>
       <c r="BB38" s="13">
-        <v>1230799</v>
+        <v>1295845</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>59</v>
       </c>
@@ -4514,107 +4549,107 @@
       <c r="U39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V39" s="11" t="s">
-        <v>57</v>
+      <c r="V39" s="11">
+        <v>27600</v>
       </c>
       <c r="W39" s="11">
-        <v>27600</v>
+        <v>139621</v>
       </c>
       <c r="X39" s="11">
-        <v>139621</v>
+        <v>151990</v>
       </c>
       <c r="Y39" s="11">
-        <v>151990</v>
+        <v>167780</v>
       </c>
       <c r="Z39" s="11">
-        <v>167780</v>
+        <v>177389</v>
       </c>
       <c r="AA39" s="11">
-        <v>177389</v>
+        <v>229379</v>
       </c>
       <c r="AB39" s="11">
-        <v>229379</v>
+        <v>218938</v>
       </c>
       <c r="AC39" s="11">
-        <v>218938</v>
+        <v>225318</v>
       </c>
       <c r="AD39" s="11">
-        <v>225318</v>
+        <v>141207</v>
       </c>
       <c r="AE39" s="11">
-        <v>141207</v>
+        <v>308374</v>
       </c>
       <c r="AF39" s="11">
-        <v>308374</v>
+        <v>458590</v>
       </c>
       <c r="AG39" s="11">
-        <v>458590</v>
+        <v>254408</v>
       </c>
       <c r="AH39" s="11">
-        <v>254408</v>
+        <v>102359</v>
       </c>
       <c r="AI39" s="11">
-        <v>102359</v>
+        <v>350389</v>
       </c>
       <c r="AJ39" s="11">
-        <v>350389</v>
+        <v>287159</v>
       </c>
       <c r="AK39" s="11">
-        <v>287159</v>
+        <v>353658</v>
       </c>
       <c r="AL39" s="11">
-        <v>353658</v>
+        <v>194091</v>
       </c>
       <c r="AM39" s="11">
-        <v>194091</v>
+        <v>234213</v>
       </c>
       <c r="AN39" s="11">
-        <v>234213</v>
+        <v>439739</v>
       </c>
       <c r="AO39" s="11">
-        <v>439739</v>
+        <v>459552</v>
       </c>
       <c r="AP39" s="11">
-        <v>459552</v>
+        <v>429007</v>
       </c>
       <c r="AQ39" s="11">
-        <v>429007</v>
+        <v>387230</v>
       </c>
       <c r="AR39" s="11">
-        <v>387230</v>
+        <v>610199</v>
       </c>
       <c r="AS39" s="11">
-        <v>610199</v>
+        <v>380655</v>
       </c>
       <c r="AT39" s="11">
-        <v>380655</v>
+        <v>296890</v>
       </c>
       <c r="AU39" s="11">
-        <v>296890</v>
+        <v>677102</v>
       </c>
       <c r="AV39" s="11">
-        <v>677102</v>
+        <v>717616</v>
       </c>
       <c r="AW39" s="11">
-        <v>717616</v>
+        <v>769765</v>
       </c>
       <c r="AX39" s="11">
-        <v>769765</v>
+        <v>616077</v>
       </c>
       <c r="AY39" s="11">
-        <v>616077</v>
+        <v>995123</v>
       </c>
       <c r="AZ39" s="11">
-        <v>995123</v>
+        <v>499633</v>
       </c>
       <c r="BA39" s="11">
-        <v>499633</v>
+        <v>1068222</v>
       </c>
       <c r="BB39" s="11">
-        <v>1068222</v>
+        <v>986053</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>68</v>
       </c>
@@ -4671,7 +4706,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>61</v>
       </c>
@@ -4730,8 +4765,8 @@
       <c r="U41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V41" s="17" t="s">
-        <v>57</v>
+      <c r="V41" s="17">
+        <v>0</v>
       </c>
       <c r="W41" s="17">
         <v>0</v>
@@ -4830,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>69</v>
       </c>
@@ -4887,7 +4922,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>65</v>
       </c>
@@ -4946,8 +4981,8 @@
       <c r="U43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V43" s="17" t="s">
-        <v>57</v>
+      <c r="V43" s="17">
+        <v>0</v>
       </c>
       <c r="W43" s="17">
         <v>0</v>
@@ -5046,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>70</v>
       </c>
@@ -5103,7 +5138,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>71</v>
       </c>
@@ -5162,8 +5197,8 @@
       <c r="U45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V45" s="11" t="s">
-        <v>57</v>
+      <c r="V45" s="11">
+        <v>0</v>
       </c>
       <c r="W45" s="11">
         <v>0</v>
@@ -5262,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>62</v>
       </c>
@@ -5320,106 +5355,106 @@
         <v>0</v>
       </c>
       <c r="V46" s="19">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="W46" s="19">
-        <v>301087</v>
+        <v>802151</v>
       </c>
       <c r="X46" s="19">
-        <v>802151</v>
+        <v>871313</v>
       </c>
       <c r="Y46" s="19">
-        <v>871313</v>
+        <v>1081821</v>
       </c>
       <c r="Z46" s="19">
-        <v>1081821</v>
+        <v>984878</v>
       </c>
       <c r="AA46" s="19">
-        <v>984878</v>
+        <v>1057790</v>
       </c>
       <c r="AB46" s="19">
-        <v>1057790</v>
+        <v>1112808</v>
       </c>
       <c r="AC46" s="19">
-        <v>1112808</v>
+        <v>1147187</v>
       </c>
       <c r="AD46" s="19">
-        <v>1147187</v>
+        <v>871906</v>
       </c>
       <c r="AE46" s="19">
-        <v>871906</v>
+        <v>1245308</v>
       </c>
       <c r="AF46" s="19">
-        <v>1245308</v>
+        <v>1811478</v>
       </c>
       <c r="AG46" s="19">
-        <v>1811478</v>
+        <v>1338352</v>
       </c>
       <c r="AH46" s="19">
-        <v>1338352</v>
+        <v>689215</v>
       </c>
       <c r="AI46" s="19">
-        <v>689215</v>
+        <v>1396507</v>
       </c>
       <c r="AJ46" s="19">
-        <v>1396507</v>
+        <v>1304122</v>
       </c>
       <c r="AK46" s="19">
-        <v>1304122</v>
+        <v>1485650</v>
       </c>
       <c r="AL46" s="19">
-        <v>1485650</v>
+        <v>1284931</v>
       </c>
       <c r="AM46" s="19">
-        <v>1284931</v>
+        <v>1434742</v>
       </c>
       <c r="AN46" s="19">
-        <v>1434742</v>
+        <v>1370396</v>
       </c>
       <c r="AO46" s="19">
-        <v>1370396</v>
+        <v>1589587</v>
       </c>
       <c r="AP46" s="19">
-        <v>1589587</v>
+        <v>1468240</v>
       </c>
       <c r="AQ46" s="19">
-        <v>1468240</v>
+        <v>1474071</v>
       </c>
       <c r="AR46" s="19">
-        <v>1474071</v>
+        <v>2134361</v>
       </c>
       <c r="AS46" s="19">
-        <v>2134361</v>
+        <v>1578287</v>
       </c>
       <c r="AT46" s="19">
-        <v>1578287</v>
+        <v>1031237</v>
       </c>
       <c r="AU46" s="19">
-        <v>1031237</v>
+        <v>2091167</v>
       </c>
       <c r="AV46" s="19">
-        <v>2091167</v>
+        <v>2497251</v>
       </c>
       <c r="AW46" s="19">
-        <v>2497251</v>
+        <v>2036359</v>
       </c>
       <c r="AX46" s="19">
-        <v>2036359</v>
+        <v>2006078</v>
       </c>
       <c r="AY46" s="19">
-        <v>2006078</v>
+        <v>2601575</v>
       </c>
       <c r="AZ46" s="19">
-        <v>2601575</v>
+        <v>1790845</v>
       </c>
       <c r="BA46" s="19">
-        <v>1790845</v>
+        <v>2749344</v>
       </c>
       <c r="BB46" s="19">
-        <v>2749344</v>
+        <v>2780184</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5474,7 +5509,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5529,7 +5564,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5584,7 +5619,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -5741,7 +5776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5796,7 +5831,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>73</v>
       </c>
@@ -5853,7 +5888,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -5912,107 +5947,107 @@
       <c r="U53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V53" s="11" t="s">
-        <v>57</v>
+      <c r="V53" s="11">
+        <v>147587</v>
       </c>
       <c r="W53" s="11">
-        <v>147587</v>
+        <v>150088</v>
       </c>
       <c r="X53" s="11">
-        <v>150088</v>
+        <v>216933</v>
       </c>
       <c r="Y53" s="11">
-        <v>216933</v>
+        <v>229139</v>
       </c>
       <c r="Z53" s="11">
-        <v>229139</v>
+        <v>239723</v>
       </c>
       <c r="AA53" s="11">
-        <v>239723</v>
+        <v>215174</v>
       </c>
       <c r="AB53" s="11">
-        <v>215174</v>
+        <v>193803</v>
       </c>
       <c r="AC53" s="11">
-        <v>193803</v>
+        <v>235407</v>
       </c>
       <c r="AD53" s="11">
-        <v>235407</v>
+        <v>253268</v>
       </c>
       <c r="AE53" s="11">
-        <v>253268</v>
+        <v>228864</v>
       </c>
       <c r="AF53" s="11">
-        <v>228864</v>
+        <v>261425</v>
       </c>
       <c r="AG53" s="11">
-        <v>261425</v>
+        <v>386250</v>
       </c>
       <c r="AH53" s="11">
-        <v>386250</v>
+        <v>298148</v>
       </c>
       <c r="AI53" s="11">
-        <v>298148</v>
+        <v>325139</v>
       </c>
       <c r="AJ53" s="11">
-        <v>325139</v>
+        <v>298752</v>
       </c>
       <c r="AK53" s="11">
-        <v>298752</v>
+        <v>398053</v>
       </c>
       <c r="AL53" s="11">
-        <v>398053</v>
+        <v>306923</v>
       </c>
       <c r="AM53" s="11">
-        <v>306923</v>
+        <v>278915</v>
       </c>
       <c r="AN53" s="11">
-        <v>278915</v>
+        <v>272686</v>
       </c>
       <c r="AO53" s="11">
-        <v>272686</v>
+        <v>304769</v>
       </c>
       <c r="AP53" s="11">
-        <v>304769</v>
+        <v>288336</v>
       </c>
       <c r="AQ53" s="11">
-        <v>288336</v>
+        <v>336880</v>
       </c>
       <c r="AR53" s="11">
-        <v>336880</v>
+        <v>359462</v>
       </c>
       <c r="AS53" s="11">
-        <v>359462</v>
+        <v>239893</v>
       </c>
       <c r="AT53" s="11">
-        <v>239893</v>
+        <v>281003</v>
       </c>
       <c r="AU53" s="11">
-        <v>281003</v>
+        <v>319368</v>
       </c>
       <c r="AV53" s="11">
-        <v>319368</v>
+        <v>318743</v>
       </c>
       <c r="AW53" s="11">
-        <v>318743</v>
+        <v>358517</v>
       </c>
       <c r="AX53" s="11">
-        <v>358517</v>
+        <v>325250</v>
       </c>
       <c r="AY53" s="11">
-        <v>325250</v>
+        <v>338521</v>
       </c>
       <c r="AZ53" s="11">
-        <v>338521</v>
+        <v>342060</v>
       </c>
       <c r="BA53" s="11">
-        <v>342060</v>
+        <v>303963</v>
       </c>
       <c r="BB53" s="11">
-        <v>303963</v>
+        <v>317201</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -6071,107 +6106,107 @@
       <c r="U54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V54" s="13" t="s">
-        <v>57</v>
+      <c r="V54" s="13">
+        <v>124710</v>
       </c>
       <c r="W54" s="13">
-        <v>124710</v>
+        <v>153406</v>
       </c>
       <c r="X54" s="13">
-        <v>153406</v>
+        <v>104636</v>
       </c>
       <c r="Y54" s="13">
-        <v>104636</v>
+        <v>142071</v>
       </c>
       <c r="Z54" s="13">
-        <v>142071</v>
+        <v>164199</v>
       </c>
       <c r="AA54" s="13">
-        <v>164199</v>
+        <v>183081</v>
       </c>
       <c r="AB54" s="13">
-        <v>183081</v>
+        <v>157116</v>
       </c>
       <c r="AC54" s="13">
-        <v>157116</v>
+        <v>213313</v>
       </c>
       <c r="AD54" s="13">
-        <v>213313</v>
+        <v>318383</v>
       </c>
       <c r="AE54" s="13">
-        <v>318383</v>
+        <v>202764</v>
       </c>
       <c r="AF54" s="13">
-        <v>202764</v>
+        <v>221125</v>
       </c>
       <c r="AG54" s="13">
-        <v>221125</v>
+        <v>308027</v>
       </c>
       <c r="AH54" s="13">
-        <v>308027</v>
+        <v>220933</v>
       </c>
       <c r="AI54" s="13">
-        <v>220933</v>
+        <v>232835</v>
       </c>
       <c r="AJ54" s="13">
-        <v>232835</v>
+        <v>225050</v>
       </c>
       <c r="AK54" s="13">
-        <v>225050</v>
+        <v>240585</v>
       </c>
       <c r="AL54" s="13">
-        <v>240585</v>
+        <v>213600</v>
       </c>
       <c r="AM54" s="13">
-        <v>213600</v>
+        <v>238454</v>
       </c>
       <c r="AN54" s="13">
-        <v>238454</v>
+        <v>278515</v>
       </c>
       <c r="AO54" s="13">
-        <v>278515</v>
+        <v>288990</v>
       </c>
       <c r="AP54" s="13">
-        <v>288990</v>
+        <v>240378</v>
       </c>
       <c r="AQ54" s="13">
-        <v>240378</v>
+        <v>256222</v>
       </c>
       <c r="AR54" s="13">
-        <v>256222</v>
+        <v>272001</v>
       </c>
       <c r="AS54" s="13">
-        <v>272001</v>
+        <v>245571</v>
       </c>
       <c r="AT54" s="13">
-        <v>245571</v>
+        <v>247186</v>
       </c>
       <c r="AU54" s="13">
-        <v>247186</v>
+        <v>279010</v>
       </c>
       <c r="AV54" s="13">
-        <v>279010</v>
+        <v>297052</v>
       </c>
       <c r="AW54" s="13">
-        <v>297052</v>
+        <v>331334</v>
       </c>
       <c r="AX54" s="13">
-        <v>331334</v>
+        <v>333064</v>
       </c>
       <c r="AY54" s="13">
-        <v>333064</v>
+        <v>394927</v>
       </c>
       <c r="AZ54" s="13">
-        <v>394927</v>
+        <v>324558</v>
       </c>
       <c r="BA54" s="13">
-        <v>324558</v>
+        <v>366519</v>
       </c>
       <c r="BB54" s="13">
-        <v>366519</v>
+        <v>365179</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -6230,104 +6265,104 @@
       <c r="U55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V55" s="11" t="s">
-        <v>57</v>
+      <c r="V55" s="11">
+        <v>211754</v>
       </c>
       <c r="W55" s="11">
-        <v>211754</v>
+        <v>425937</v>
       </c>
       <c r="X55" s="11">
-        <v>425937</v>
+        <v>167383</v>
       </c>
       <c r="Y55" s="11">
-        <v>167383</v>
+        <v>236840</v>
       </c>
       <c r="Z55" s="11">
-        <v>236840</v>
+        <v>324400</v>
       </c>
       <c r="AA55" s="11">
-        <v>324400</v>
+        <v>319533</v>
       </c>
       <c r="AB55" s="11">
-        <v>319533</v>
+        <v>323084</v>
       </c>
       <c r="AC55" s="11">
-        <v>323084</v>
+        <v>378462</v>
       </c>
       <c r="AD55" s="11">
-        <v>378462</v>
+        <v>433990</v>
       </c>
       <c r="AE55" s="11">
-        <v>433990</v>
+        <v>280774</v>
       </c>
       <c r="AF55" s="11">
-        <v>280774</v>
+        <v>292885</v>
       </c>
       <c r="AG55" s="11">
-        <v>292885</v>
+        <v>452800</v>
       </c>
       <c r="AH55" s="11">
-        <v>452800</v>
+        <v>398826</v>
       </c>
       <c r="AI55" s="11">
-        <v>398826</v>
+        <v>410775</v>
       </c>
       <c r="AJ55" s="11">
-        <v>410775</v>
+        <v>332349</v>
       </c>
       <c r="AK55" s="11">
-        <v>332349</v>
+        <v>485185</v>
       </c>
       <c r="AL55" s="11">
-        <v>485185</v>
+        <v>374045</v>
       </c>
       <c r="AM55" s="11">
-        <v>374045</v>
+        <v>348855</v>
       </c>
       <c r="AN55" s="11">
-        <v>348855</v>
+        <v>337881</v>
       </c>
       <c r="AO55" s="11">
-        <v>337881</v>
+        <v>586746</v>
       </c>
       <c r="AP55" s="11">
-        <v>586746</v>
+        <v>504040</v>
       </c>
       <c r="AQ55" s="11">
-        <v>504040</v>
+        <v>690066</v>
       </c>
       <c r="AR55" s="11">
-        <v>690066</v>
+        <v>510947</v>
       </c>
       <c r="AS55" s="11">
-        <v>510947</v>
+        <v>663008</v>
       </c>
       <c r="AT55" s="11">
-        <v>663008</v>
+        <v>447048</v>
       </c>
       <c r="AU55" s="11">
-        <v>447048</v>
+        <v>593591</v>
       </c>
       <c r="AV55" s="11">
-        <v>593591</v>
+        <v>570042</v>
       </c>
       <c r="AW55" s="11">
-        <v>570042</v>
+        <v>567988</v>
       </c>
       <c r="AX55" s="11">
-        <v>567988</v>
+        <v>535967</v>
       </c>
       <c r="AY55" s="11">
-        <v>535967</v>
+        <v>706273</v>
       </c>
       <c r="AZ55" s="11">
-        <v>706273</v>
+        <v>553240</v>
       </c>
       <c r="BA55" s="11">
-        <v>553240</v>
+        <v>602570</v>
       </c>
       <c r="BB55" s="11">
-        <v>602570</v>
+        <v>652299</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/monthly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC4B82D-944A-46BA-9680-8D982824FBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6655C4-BD13-4891-A2D6-DE74FB663094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>دارویی (مراقبت پوست)</t>
@@ -727,12 +727,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -787,7 +787,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -956,7 +956,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1125,7 +1125,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1337,7 +1337,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1447,113 +1447,113 @@
       <c r="S11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>57</v>
+      <c r="T11" s="11">
+        <v>574685</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1685115</v>
       </c>
       <c r="V11" s="11">
-        <v>574685</v>
+        <v>1365965</v>
       </c>
       <c r="W11" s="11">
-        <v>1685115</v>
+        <v>1559672</v>
       </c>
       <c r="X11" s="11">
-        <v>1365965</v>
+        <v>1233540</v>
       </c>
       <c r="Y11" s="11">
-        <v>1559672</v>
+        <v>1364889</v>
       </c>
       <c r="Z11" s="11">
-        <v>1233540</v>
+        <v>1274647</v>
       </c>
       <c r="AA11" s="11">
-        <v>1364889</v>
+        <v>1651508</v>
       </c>
       <c r="AB11" s="11">
-        <v>1274647</v>
+        <v>1873263</v>
       </c>
       <c r="AC11" s="11">
-        <v>1651508</v>
+        <v>1308329</v>
       </c>
       <c r="AD11" s="11">
-        <v>1873263</v>
+        <v>1875732</v>
       </c>
       <c r="AE11" s="11">
-        <v>1308329</v>
+        <v>1077736</v>
       </c>
       <c r="AF11" s="11">
-        <v>1875732</v>
+        <v>107160</v>
       </c>
       <c r="AG11" s="11">
-        <v>1077736</v>
+        <v>1464968</v>
       </c>
       <c r="AH11" s="11">
-        <v>107160</v>
+        <v>2164824</v>
       </c>
       <c r="AI11" s="11">
-        <v>1464968</v>
+        <v>951533</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2164824</v>
+        <v>604440</v>
       </c>
       <c r="AK11" s="11">
-        <v>951533</v>
+        <v>1062495</v>
       </c>
       <c r="AL11" s="11">
-        <v>604440</v>
+        <v>1539501</v>
       </c>
       <c r="AM11" s="11">
-        <v>1062495</v>
+        <v>944733</v>
       </c>
       <c r="AN11" s="11">
-        <v>1539501</v>
+        <v>1294565</v>
       </c>
       <c r="AO11" s="11">
-        <v>944733</v>
+        <v>1034399</v>
       </c>
       <c r="AP11" s="11">
-        <v>1294565</v>
+        <v>1049813</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1034399</v>
+        <v>425599</v>
       </c>
       <c r="AR11" s="11">
-        <v>1049813</v>
+        <v>978365</v>
       </c>
       <c r="AS11" s="11">
-        <v>425599</v>
+        <v>2088784</v>
       </c>
       <c r="AT11" s="11">
-        <v>978365</v>
+        <v>2208362</v>
       </c>
       <c r="AU11" s="11">
-        <v>2088784</v>
+        <v>1484782</v>
       </c>
       <c r="AV11" s="11">
-        <v>2208362</v>
+        <v>1307987</v>
       </c>
       <c r="AW11" s="11">
-        <v>1484782</v>
+        <v>1881955</v>
       </c>
       <c r="AX11" s="11">
-        <v>1307987</v>
+        <v>943499</v>
       </c>
       <c r="AY11" s="11">
-        <v>1881955</v>
+        <v>1624282</v>
       </c>
       <c r="AZ11" s="11">
-        <v>943499</v>
+        <v>1789750</v>
       </c>
       <c r="BA11" s="11">
-        <v>1624282</v>
+        <v>1550341</v>
       </c>
       <c r="BB11" s="11">
-        <v>1789750</v>
+        <v>1845621</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1606,113 +1606,113 @@
       <c r="S12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>57</v>
+      <c r="T12" s="13">
+        <v>2195795</v>
+      </c>
+      <c r="U12" s="13">
+        <v>3816697</v>
       </c>
       <c r="V12" s="13">
-        <v>2195795</v>
+        <v>823357</v>
       </c>
       <c r="W12" s="13">
-        <v>3816697</v>
+        <v>3393806</v>
       </c>
       <c r="X12" s="13">
-        <v>823357</v>
+        <v>2798099</v>
       </c>
       <c r="Y12" s="13">
-        <v>3393806</v>
+        <v>3097213</v>
       </c>
       <c r="Z12" s="13">
-        <v>2798099</v>
+        <v>3220843</v>
       </c>
       <c r="AA12" s="13">
-        <v>3097213</v>
+        <v>3366608</v>
       </c>
       <c r="AB12" s="13">
-        <v>3220843</v>
+        <v>4403965</v>
       </c>
       <c r="AC12" s="13">
-        <v>3366608</v>
+        <v>2907633</v>
       </c>
       <c r="AD12" s="13">
-        <v>4403965</v>
+        <v>4566369</v>
       </c>
       <c r="AE12" s="13">
-        <v>2907633</v>
+        <v>2705390</v>
       </c>
       <c r="AF12" s="13">
-        <v>4566369</v>
+        <v>1642770</v>
       </c>
       <c r="AG12" s="13">
-        <v>2705390</v>
+        <v>2447633</v>
       </c>
       <c r="AH12" s="13">
-        <v>1642770</v>
+        <v>2036103</v>
       </c>
       <c r="AI12" s="13">
-        <v>2447633</v>
+        <v>2979924</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2036103</v>
+        <v>3557736</v>
       </c>
       <c r="AK12" s="13">
-        <v>2979924</v>
+        <v>3443086</v>
       </c>
       <c r="AL12" s="13">
-        <v>3557736</v>
+        <v>2757778</v>
       </c>
       <c r="AM12" s="13">
-        <v>3443086</v>
+        <v>2537086</v>
       </c>
       <c r="AN12" s="13">
-        <v>2757778</v>
+        <v>2988597</v>
       </c>
       <c r="AO12" s="13">
-        <v>2537086</v>
+        <v>2540486</v>
       </c>
       <c r="AP12" s="13">
-        <v>2988597</v>
+        <v>3162952</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2540486</v>
+        <v>2778131</v>
       </c>
       <c r="AR12" s="13">
-        <v>3224988</v>
+        <v>1932134</v>
       </c>
       <c r="AS12" s="13">
-        <v>2778131</v>
+        <v>3794614</v>
       </c>
       <c r="AT12" s="13">
-        <v>1932134</v>
+        <v>3971390</v>
       </c>
       <c r="AU12" s="13">
-        <v>3794614</v>
+        <v>3676123</v>
       </c>
       <c r="AV12" s="13">
-        <v>3971390</v>
+        <v>3596987</v>
       </c>
       <c r="AW12" s="13">
-        <v>3676123</v>
+        <v>3462625</v>
       </c>
       <c r="AX12" s="13">
-        <v>3596987</v>
+        <v>3016636</v>
       </c>
       <c r="AY12" s="13">
-        <v>3462625</v>
+        <v>3415167</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3016636</v>
+        <v>3671469</v>
       </c>
       <c r="BA12" s="13">
-        <v>3415167</v>
+        <v>3698547</v>
       </c>
       <c r="BB12" s="13">
-        <v>3671469</v>
+        <v>4264337</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1765,113 +1765,113 @@
       <c r="S13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>57</v>
+      <c r="T13" s="11">
+        <v>421040</v>
+      </c>
+      <c r="U13" s="11">
+        <v>342775</v>
       </c>
       <c r="V13" s="11">
-        <v>421040</v>
+        <v>354951</v>
       </c>
       <c r="W13" s="11">
-        <v>342775</v>
+        <v>853232</v>
       </c>
       <c r="X13" s="11">
-        <v>354951</v>
+        <v>845689</v>
       </c>
       <c r="Y13" s="11">
-        <v>853232</v>
+        <v>477805</v>
       </c>
       <c r="Z13" s="11">
-        <v>845689</v>
+        <v>1049837</v>
       </c>
       <c r="AA13" s="11">
-        <v>477805</v>
+        <v>874960</v>
       </c>
       <c r="AB13" s="11">
-        <v>1049837</v>
+        <v>839661</v>
       </c>
       <c r="AC13" s="11">
-        <v>874960</v>
+        <v>786573</v>
       </c>
       <c r="AD13" s="11">
-        <v>839661</v>
+        <v>1454086</v>
       </c>
       <c r="AE13" s="11">
-        <v>786573</v>
+        <v>355611</v>
       </c>
       <c r="AF13" s="11">
-        <v>1454086</v>
+        <v>302700</v>
       </c>
       <c r="AG13" s="11">
-        <v>355611</v>
+        <v>576123</v>
       </c>
       <c r="AH13" s="11">
-        <v>302700</v>
+        <v>577501</v>
       </c>
       <c r="AI13" s="11">
-        <v>576123</v>
+        <v>812736</v>
       </c>
       <c r="AJ13" s="11">
-        <v>577501</v>
+        <v>574197</v>
       </c>
       <c r="AK13" s="11">
-        <v>812736</v>
+        <v>679456</v>
       </c>
       <c r="AL13" s="11">
-        <v>574197</v>
+        <v>341164</v>
       </c>
       <c r="AM13" s="11">
-        <v>679456</v>
+        <v>717583</v>
       </c>
       <c r="AN13" s="11">
-        <v>341164</v>
+        <v>877199</v>
       </c>
       <c r="AO13" s="11">
-        <v>717583</v>
+        <v>864518</v>
       </c>
       <c r="AP13" s="11">
-        <v>877199</v>
+        <v>747504</v>
       </c>
       <c r="AQ13" s="11">
-        <v>864518</v>
+        <v>923051</v>
       </c>
       <c r="AR13" s="11">
-        <v>685468</v>
+        <v>442941</v>
       </c>
       <c r="AS13" s="11">
-        <v>923051</v>
+        <v>477046</v>
       </c>
       <c r="AT13" s="11">
-        <v>442941</v>
+        <v>577460</v>
       </c>
       <c r="AU13" s="11">
-        <v>477046</v>
+        <v>1047589</v>
       </c>
       <c r="AV13" s="11">
-        <v>577460</v>
+        <v>878119</v>
       </c>
       <c r="AW13" s="11">
-        <v>1047589</v>
+        <v>580397</v>
       </c>
       <c r="AX13" s="11">
-        <v>878119</v>
+        <v>601962</v>
       </c>
       <c r="AY13" s="11">
-        <v>580397</v>
+        <v>833950</v>
       </c>
       <c r="AZ13" s="11">
-        <v>601962</v>
+        <v>1098866</v>
       </c>
       <c r="BA13" s="11">
-        <v>833950</v>
+        <v>963219</v>
       </c>
       <c r="BB13" s="11">
-        <v>1098866</v>
+        <v>794921</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="BA14" s="15"/>
       <c r="BB14" s="15"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>61</v>
       </c>
@@ -1979,11 +1979,11 @@
       <c r="S15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>57</v>
+      <c r="T15" s="17">
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0</v>
       </c>
       <c r="V15" s="17">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
@@ -2137,112 +2137,112 @@
         <v>0</v>
       </c>
       <c r="T16" s="19">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="U16" s="19">
-        <v>0</v>
+        <v>5844587</v>
       </c>
       <c r="V16" s="19">
-        <v>3191520</v>
+        <v>2544273</v>
       </c>
       <c r="W16" s="19">
-        <v>5844587</v>
+        <v>5806710</v>
       </c>
       <c r="X16" s="19">
-        <v>2544273</v>
+        <v>4877328</v>
       </c>
       <c r="Y16" s="19">
-        <v>5806710</v>
+        <v>4939907</v>
       </c>
       <c r="Z16" s="19">
-        <v>4877328</v>
+        <v>5545327</v>
       </c>
       <c r="AA16" s="19">
-        <v>4939907</v>
+        <v>5893076</v>
       </c>
       <c r="AB16" s="19">
-        <v>5545327</v>
+        <v>7116889</v>
       </c>
       <c r="AC16" s="19">
-        <v>5893076</v>
+        <v>5002535</v>
       </c>
       <c r="AD16" s="19">
-        <v>7116889</v>
+        <v>7896187</v>
       </c>
       <c r="AE16" s="19">
-        <v>5002535</v>
+        <v>4138737</v>
       </c>
       <c r="AF16" s="19">
-        <v>7896187</v>
+        <v>2052630</v>
       </c>
       <c r="AG16" s="19">
-        <v>4138737</v>
+        <v>4488724</v>
       </c>
       <c r="AH16" s="19">
-        <v>2052630</v>
+        <v>4778428</v>
       </c>
       <c r="AI16" s="19">
-        <v>4488724</v>
+        <v>4744193</v>
       </c>
       <c r="AJ16" s="19">
-        <v>4778428</v>
+        <v>4736373</v>
       </c>
       <c r="AK16" s="19">
-        <v>4744193</v>
+        <v>5185037</v>
       </c>
       <c r="AL16" s="19">
-        <v>4736373</v>
+        <v>4638443</v>
       </c>
       <c r="AM16" s="19">
-        <v>5185037</v>
+        <v>4199402</v>
       </c>
       <c r="AN16" s="19">
-        <v>4638443</v>
+        <v>5160361</v>
       </c>
       <c r="AO16" s="19">
-        <v>4199402</v>
+        <v>4439403</v>
       </c>
       <c r="AP16" s="19">
-        <v>5160361</v>
+        <v>4960269</v>
       </c>
       <c r="AQ16" s="19">
-        <v>4439403</v>
+        <v>4126781</v>
       </c>
       <c r="AR16" s="19">
-        <v>4960269</v>
+        <v>3353440</v>
       </c>
       <c r="AS16" s="19">
-        <v>4126781</v>
+        <v>6360444</v>
       </c>
       <c r="AT16" s="19">
-        <v>3353440</v>
+        <v>6757212</v>
       </c>
       <c r="AU16" s="19">
-        <v>6360444</v>
+        <v>6208494</v>
       </c>
       <c r="AV16" s="19">
-        <v>6757212</v>
+        <v>5783093</v>
       </c>
       <c r="AW16" s="19">
-        <v>6208494</v>
+        <v>5924977</v>
       </c>
       <c r="AX16" s="19">
-        <v>5783093</v>
+        <v>4562097</v>
       </c>
       <c r="AY16" s="19">
-        <v>5924977</v>
+        <v>5873399</v>
       </c>
       <c r="AZ16" s="19">
-        <v>4562097</v>
+        <v>6560085</v>
       </c>
       <c r="BA16" s="19">
-        <v>5873399</v>
+        <v>6212107</v>
       </c>
       <c r="BB16" s="19">
-        <v>6560085</v>
+        <v>6904879</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2297,7 +2297,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2352,7 +2352,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2407,7 +2407,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2619,7 +2619,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
@@ -2729,113 +2729,113 @@
       <c r="S23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>57</v>
+      <c r="T23" s="11">
+        <v>729015</v>
+      </c>
+      <c r="U23" s="11">
+        <v>1772967</v>
       </c>
       <c r="V23" s="11">
-        <v>729015</v>
+        <v>1468600</v>
       </c>
       <c r="W23" s="11">
-        <v>1772967</v>
+        <v>1377560</v>
       </c>
       <c r="X23" s="11">
-        <v>1468600</v>
+        <v>1211798</v>
       </c>
       <c r="Y23" s="11">
-        <v>1377560</v>
+        <v>1241898</v>
       </c>
       <c r="Z23" s="11">
-        <v>1211798</v>
+        <v>1527172</v>
       </c>
       <c r="AA23" s="11">
-        <v>1241898</v>
+        <v>1335243</v>
       </c>
       <c r="AB23" s="11">
-        <v>1527172</v>
+        <v>846121</v>
       </c>
       <c r="AC23" s="11">
-        <v>1335243</v>
+        <v>1375326</v>
       </c>
       <c r="AD23" s="11">
-        <v>846121</v>
+        <v>1681267</v>
       </c>
       <c r="AE23" s="11">
-        <v>1375326</v>
+        <v>845585</v>
       </c>
       <c r="AF23" s="11">
-        <v>1681267</v>
+        <v>801408</v>
       </c>
       <c r="AG23" s="11">
-        <v>845585</v>
+        <v>1375779</v>
       </c>
       <c r="AH23" s="11">
-        <v>801408</v>
+        <v>1326288</v>
       </c>
       <c r="AI23" s="11">
-        <v>1375779</v>
+        <v>909929</v>
       </c>
       <c r="AJ23" s="11">
-        <v>1326288</v>
+        <v>959354</v>
       </c>
       <c r="AK23" s="11">
-        <v>909929</v>
+        <v>784045</v>
       </c>
       <c r="AL23" s="11">
-        <v>959354</v>
+        <v>1502793</v>
       </c>
       <c r="AM23" s="11">
-        <v>784045</v>
+        <v>1307930</v>
       </c>
       <c r="AN23" s="11">
-        <v>1502793</v>
+        <v>1158543</v>
       </c>
       <c r="AO23" s="11">
-        <v>1307930</v>
+        <v>915143</v>
       </c>
       <c r="AP23" s="11">
-        <v>1158543</v>
+        <v>1478014</v>
       </c>
       <c r="AQ23" s="11">
-        <v>915143</v>
+        <v>1133675</v>
       </c>
       <c r="AR23" s="11">
-        <v>1478014</v>
+        <v>859438</v>
       </c>
       <c r="AS23" s="11">
-        <v>1133675</v>
+        <v>1373302</v>
       </c>
       <c r="AT23" s="11">
-        <v>859438</v>
+        <v>1615123</v>
       </c>
       <c r="AU23" s="11">
-        <v>1373302</v>
+        <v>924157</v>
       </c>
       <c r="AV23" s="11">
-        <v>1615123</v>
+        <v>1104375</v>
       </c>
       <c r="AW23" s="11">
-        <v>924157</v>
+        <v>1251541</v>
       </c>
       <c r="AX23" s="11">
-        <v>1104375</v>
+        <v>1098955</v>
       </c>
       <c r="AY23" s="11">
-        <v>1251541</v>
+        <v>1481508</v>
       </c>
       <c r="AZ23" s="11">
-        <v>1098955</v>
+        <v>1570886</v>
       </c>
       <c r="BA23" s="11">
-        <v>1481508</v>
+        <v>1100051</v>
       </c>
       <c r="BB23" s="11">
-        <v>1570886</v>
+        <v>1802340</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>58</v>
       </c>
@@ -2888,113 +2888,113 @@
       <c r="S24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>57</v>
+      <c r="T24" s="13">
+        <v>1330241</v>
+      </c>
+      <c r="U24" s="13">
+        <v>2584186</v>
       </c>
       <c r="V24" s="13">
-        <v>1330241</v>
+        <v>3829816</v>
       </c>
       <c r="W24" s="13">
-        <v>2584186</v>
+        <v>4211906</v>
       </c>
       <c r="X24" s="13">
-        <v>3829816</v>
+        <v>3148574</v>
       </c>
       <c r="Y24" s="13">
-        <v>4211906</v>
+        <v>3065231</v>
       </c>
       <c r="Z24" s="13">
-        <v>3148574</v>
+        <v>3805474</v>
       </c>
       <c r="AA24" s="13">
-        <v>3065231</v>
+        <v>2848136</v>
       </c>
       <c r="AB24" s="13">
-        <v>3805474</v>
+        <v>1621960</v>
       </c>
       <c r="AC24" s="13">
-        <v>2848136</v>
+        <v>3068458</v>
       </c>
       <c r="AD24" s="13">
-        <v>1621960</v>
+        <v>4130520</v>
       </c>
       <c r="AE24" s="13">
-        <v>3068458</v>
+        <v>2458672</v>
       </c>
       <c r="AF24" s="13">
-        <v>4130520</v>
+        <v>1574769</v>
       </c>
       <c r="AG24" s="13">
-        <v>2458672</v>
+        <v>2571774</v>
       </c>
       <c r="AH24" s="13">
-        <v>1574769</v>
+        <v>2758197</v>
       </c>
       <c r="AI24" s="13">
-        <v>2571774</v>
+        <v>3199667</v>
       </c>
       <c r="AJ24" s="13">
-        <v>2758197</v>
+        <v>3728428</v>
       </c>
       <c r="AK24" s="13">
-        <v>3199667</v>
+        <v>4117552</v>
       </c>
       <c r="AL24" s="13">
-        <v>3728428</v>
+        <v>1870160</v>
       </c>
       <c r="AM24" s="13">
-        <v>4117552</v>
+        <v>2530950</v>
       </c>
       <c r="AN24" s="13">
-        <v>1870160</v>
+        <v>2933640</v>
       </c>
       <c r="AO24" s="13">
-        <v>2530950</v>
+        <v>3038566</v>
       </c>
       <c r="AP24" s="13">
-        <v>2933640</v>
+        <v>3595991</v>
       </c>
       <c r="AQ24" s="13">
-        <v>3038566</v>
+        <v>3769468</v>
       </c>
       <c r="AR24" s="13">
-        <v>3658027</v>
+        <v>1993809</v>
       </c>
       <c r="AS24" s="13">
-        <v>3769468</v>
+        <v>3496200</v>
       </c>
       <c r="AT24" s="13">
-        <v>1993809</v>
+        <v>4257925</v>
       </c>
       <c r="AU24" s="13">
-        <v>3496200</v>
+        <v>2822733</v>
       </c>
       <c r="AV24" s="13">
-        <v>4257925</v>
+        <v>3094914</v>
       </c>
       <c r="AW24" s="13">
-        <v>2822733</v>
+        <v>2994929</v>
       </c>
       <c r="AX24" s="13">
-        <v>3094914</v>
+        <v>2820154</v>
       </c>
       <c r="AY24" s="13">
-        <v>2994929</v>
+        <v>3358078</v>
       </c>
       <c r="AZ24" s="13">
-        <v>2820154</v>
+        <v>3548516</v>
       </c>
       <c r="BA24" s="13">
-        <v>3358078</v>
+        <v>3162058</v>
       </c>
       <c r="BB24" s="13">
-        <v>3548516</v>
+        <v>3309390</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>59</v>
       </c>
@@ -3047,113 +3047,113 @@
       <c r="S25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>57</v>
+      <c r="T25" s="11">
+        <v>130340</v>
+      </c>
+      <c r="U25" s="11">
+        <v>327797</v>
       </c>
       <c r="V25" s="11">
-        <v>130340</v>
+        <v>908037</v>
       </c>
       <c r="W25" s="11">
-        <v>327797</v>
+        <v>708411</v>
       </c>
       <c r="X25" s="11">
-        <v>908037</v>
+        <v>546822</v>
       </c>
       <c r="Y25" s="11">
-        <v>708411</v>
+        <v>717857</v>
       </c>
       <c r="Z25" s="11">
-        <v>546822</v>
+        <v>677650</v>
       </c>
       <c r="AA25" s="11">
-        <v>717857</v>
+        <v>595352</v>
       </c>
       <c r="AB25" s="11">
-        <v>677650</v>
+        <v>325369</v>
       </c>
       <c r="AC25" s="11">
-        <v>595352</v>
+        <v>1098298</v>
       </c>
       <c r="AD25" s="11">
-        <v>325369</v>
+        <v>1565769</v>
       </c>
       <c r="AE25" s="11">
-        <v>1098298</v>
+        <v>561855</v>
       </c>
       <c r="AF25" s="11">
-        <v>1565769</v>
+        <v>256651</v>
       </c>
       <c r="AG25" s="11">
-        <v>561855</v>
+        <v>852995</v>
       </c>
       <c r="AH25" s="11">
-        <v>256651</v>
+        <v>864028</v>
       </c>
       <c r="AI25" s="11">
-        <v>852995</v>
+        <v>728914</v>
       </c>
       <c r="AJ25" s="11">
-        <v>864028</v>
+        <v>518898</v>
       </c>
       <c r="AK25" s="11">
-        <v>728914</v>
+        <v>671376</v>
       </c>
       <c r="AL25" s="11">
-        <v>518898</v>
+        <v>1301462</v>
       </c>
       <c r="AM25" s="11">
-        <v>671376</v>
+        <v>783221</v>
       </c>
       <c r="AN25" s="11">
-        <v>1301462</v>
+        <v>851136</v>
       </c>
       <c r="AO25" s="11">
-        <v>783221</v>
+        <v>561149</v>
       </c>
       <c r="AP25" s="11">
-        <v>851136</v>
+        <v>1226699</v>
       </c>
       <c r="AQ25" s="11">
-        <v>561149</v>
+        <v>574133</v>
       </c>
       <c r="AR25" s="11">
-        <v>1164663</v>
+        <v>664112</v>
       </c>
       <c r="AS25" s="11">
-        <v>574133</v>
+        <v>1140687</v>
       </c>
       <c r="AT25" s="11">
-        <v>664112</v>
+        <v>1258883</v>
       </c>
       <c r="AU25" s="11">
-        <v>1140687</v>
+        <v>1355248</v>
       </c>
       <c r="AV25" s="11">
-        <v>1258883</v>
+        <v>1149468</v>
       </c>
       <c r="AW25" s="11">
-        <v>1355248</v>
+        <v>1408978</v>
       </c>
       <c r="AX25" s="11">
-        <v>1149468</v>
+        <v>903103</v>
       </c>
       <c r="AY25" s="11">
-        <v>1408978</v>
+        <v>1772778</v>
       </c>
       <c r="AZ25" s="11">
-        <v>903103</v>
+        <v>1511659</v>
       </c>
       <c r="BA25" s="11">
-        <v>1772778</v>
+        <v>1226078</v>
       </c>
       <c r="BB25" s="11">
-        <v>1511659</v>
+        <v>1103063</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>61</v>
       </c>
@@ -3261,11 +3261,11 @@
       <c r="S27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U27" s="17" t="s">
-        <v>57</v>
+      <c r="T27" s="17">
+        <v>0</v>
+      </c>
+      <c r="U27" s="17">
+        <v>0</v>
       </c>
       <c r="V27" s="17">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>64</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>65</v>
       </c>
@@ -3475,11 +3475,11 @@
       <c r="S29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>57</v>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <v>0</v>
       </c>
       <c r="V29" s="17">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>62</v>
       </c>
@@ -3633,112 +3633,112 @@
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="U30" s="19">
-        <v>0</v>
+        <v>4684950</v>
       </c>
       <c r="V30" s="19">
-        <v>2189596</v>
+        <v>6206453</v>
       </c>
       <c r="W30" s="19">
-        <v>4684950</v>
+        <v>6297877</v>
       </c>
       <c r="X30" s="19">
-        <v>6206453</v>
+        <v>4907194</v>
       </c>
       <c r="Y30" s="19">
-        <v>6297877</v>
+        <v>5024986</v>
       </c>
       <c r="Z30" s="19">
-        <v>4907194</v>
+        <v>6010296</v>
       </c>
       <c r="AA30" s="19">
-        <v>5024986</v>
+        <v>4778731</v>
       </c>
       <c r="AB30" s="19">
-        <v>6010296</v>
+        <v>2793450</v>
       </c>
       <c r="AC30" s="19">
-        <v>4778731</v>
+        <v>5542082</v>
       </c>
       <c r="AD30" s="19">
-        <v>2793450</v>
+        <v>7377556</v>
       </c>
       <c r="AE30" s="19">
-        <v>5542082</v>
+        <v>3866112</v>
       </c>
       <c r="AF30" s="19">
-        <v>7377556</v>
+        <v>2632828</v>
       </c>
       <c r="AG30" s="19">
-        <v>3866112</v>
+        <v>4800548</v>
       </c>
       <c r="AH30" s="19">
-        <v>2632828</v>
+        <v>4948513</v>
       </c>
       <c r="AI30" s="19">
-        <v>4800548</v>
+        <v>4838510</v>
       </c>
       <c r="AJ30" s="19">
-        <v>4948513</v>
+        <v>5206680</v>
       </c>
       <c r="AK30" s="19">
-        <v>4838510</v>
+        <v>5572973</v>
       </c>
       <c r="AL30" s="19">
-        <v>5206680</v>
+        <v>4674415</v>
       </c>
       <c r="AM30" s="19">
-        <v>5572973</v>
+        <v>4622101</v>
       </c>
       <c r="AN30" s="19">
-        <v>4674415</v>
+        <v>4943319</v>
       </c>
       <c r="AO30" s="19">
-        <v>4622101</v>
+        <v>4514858</v>
       </c>
       <c r="AP30" s="19">
-        <v>4943319</v>
+        <v>6300704</v>
       </c>
       <c r="AQ30" s="19">
-        <v>4514858</v>
+        <v>5477276</v>
       </c>
       <c r="AR30" s="19">
-        <v>6300704</v>
+        <v>3517359</v>
       </c>
       <c r="AS30" s="19">
-        <v>5477276</v>
+        <v>6010189</v>
       </c>
       <c r="AT30" s="19">
-        <v>3517359</v>
+        <v>7131931</v>
       </c>
       <c r="AU30" s="19">
-        <v>6010189</v>
+        <v>5102138</v>
       </c>
       <c r="AV30" s="19">
-        <v>7131931</v>
+        <v>5348757</v>
       </c>
       <c r="AW30" s="19">
-        <v>5102138</v>
+        <v>5655448</v>
       </c>
       <c r="AX30" s="19">
-        <v>5348757</v>
+        <v>4822212</v>
       </c>
       <c r="AY30" s="19">
-        <v>5655448</v>
+        <v>6612364</v>
       </c>
       <c r="AZ30" s="19">
-        <v>4822212</v>
+        <v>6631061</v>
       </c>
       <c r="BA30" s="19">
-        <v>6612364</v>
+        <v>5488187</v>
       </c>
       <c r="BB30" s="19">
-        <v>6631061</v>
+        <v>6214793</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3793,7 +3793,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3848,7 +3848,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3903,7 +3903,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4115,7 +4115,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>66</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>55</v>
       </c>
@@ -4225,113 +4225,113 @@
       <c r="S37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>57</v>
+      <c r="T37" s="11">
+        <v>107593</v>
+      </c>
+      <c r="U37" s="11">
+        <v>266101</v>
       </c>
       <c r="V37" s="11">
-        <v>107593</v>
+        <v>318588</v>
       </c>
       <c r="W37" s="11">
-        <v>266101</v>
+        <v>315653</v>
       </c>
       <c r="X37" s="11">
-        <v>318588</v>
+        <v>290496</v>
       </c>
       <c r="Y37" s="11">
-        <v>315653</v>
+        <v>267224</v>
       </c>
       <c r="Z37" s="11">
-        <v>290496</v>
+        <v>295970</v>
       </c>
       <c r="AA37" s="11">
-        <v>267224</v>
+        <v>314325</v>
       </c>
       <c r="AB37" s="11">
-        <v>295970</v>
+        <v>214295</v>
       </c>
       <c r="AC37" s="11">
-        <v>314325</v>
+        <v>314762</v>
       </c>
       <c r="AD37" s="11">
-        <v>214295</v>
+        <v>439526</v>
       </c>
       <c r="AE37" s="11">
-        <v>314762</v>
+        <v>326607</v>
       </c>
       <c r="AF37" s="11">
-        <v>439526</v>
+        <v>238938</v>
       </c>
       <c r="AG37" s="11">
-        <v>326607</v>
+        <v>447320</v>
       </c>
       <c r="AH37" s="11">
-        <v>238938</v>
+        <v>396231</v>
       </c>
       <c r="AI37" s="11">
-        <v>447320</v>
+        <v>362200</v>
       </c>
       <c r="AJ37" s="11">
-        <v>396231</v>
+        <v>294448</v>
       </c>
       <c r="AK37" s="11">
-        <v>362200</v>
+        <v>218682</v>
       </c>
       <c r="AL37" s="11">
-        <v>294448</v>
+        <v>409790</v>
       </c>
       <c r="AM37" s="11">
-        <v>218682</v>
+        <v>398617</v>
       </c>
       <c r="AN37" s="11">
-        <v>409790</v>
+        <v>334050</v>
       </c>
       <c r="AO37" s="11">
-        <v>398617</v>
+        <v>308293</v>
       </c>
       <c r="AP37" s="11">
-        <v>334050</v>
+        <v>531290</v>
       </c>
       <c r="AQ37" s="11">
-        <v>308293</v>
+        <v>271961</v>
       </c>
       <c r="AR37" s="11">
-        <v>531290</v>
+        <v>241505</v>
       </c>
       <c r="AS37" s="11">
-        <v>271961</v>
+        <v>438589</v>
       </c>
       <c r="AT37" s="11">
-        <v>241505</v>
+        <v>514809</v>
       </c>
       <c r="AU37" s="11">
-        <v>438589</v>
+        <v>331326</v>
       </c>
       <c r="AV37" s="11">
-        <v>514809</v>
+        <v>359198</v>
       </c>
       <c r="AW37" s="11">
-        <v>331326</v>
+        <v>423673</v>
       </c>
       <c r="AX37" s="11">
-        <v>359198</v>
+        <v>375908</v>
       </c>
       <c r="AY37" s="11">
-        <v>423673</v>
+        <v>450323</v>
       </c>
       <c r="AZ37" s="11">
-        <v>375908</v>
+        <v>498286</v>
       </c>
       <c r="BA37" s="11">
-        <v>450323</v>
+        <v>473084</v>
       </c>
       <c r="BB37" s="11">
-        <v>498286</v>
+        <v>715275</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>58</v>
       </c>
@@ -4384,113 +4384,113 @@
       <c r="S38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>57</v>
+      <c r="T38" s="13">
+        <v>165894</v>
+      </c>
+      <c r="U38" s="13">
+        <v>396429</v>
       </c>
       <c r="V38" s="13">
-        <v>165894</v>
+        <v>400735</v>
       </c>
       <c r="W38" s="13">
-        <v>396429</v>
+        <v>598388</v>
       </c>
       <c r="X38" s="13">
-        <v>400735</v>
+        <v>516993</v>
       </c>
       <c r="Y38" s="13">
-        <v>598388</v>
+        <v>561187</v>
       </c>
       <c r="Z38" s="13">
-        <v>516993</v>
+        <v>597900</v>
       </c>
       <c r="AA38" s="13">
-        <v>561187</v>
+        <v>607544</v>
       </c>
       <c r="AB38" s="13">
-        <v>597900</v>
+        <v>516404</v>
       </c>
       <c r="AC38" s="13">
-        <v>607544</v>
+        <v>622172</v>
       </c>
       <c r="AD38" s="13">
-        <v>516404</v>
+        <v>913362</v>
       </c>
       <c r="AE38" s="13">
-        <v>622172</v>
+        <v>757337</v>
       </c>
       <c r="AF38" s="13">
-        <v>913362</v>
+        <v>347918</v>
       </c>
       <c r="AG38" s="13">
-        <v>757337</v>
+        <v>598798</v>
       </c>
       <c r="AH38" s="13">
-        <v>347918</v>
+        <v>620732</v>
       </c>
       <c r="AI38" s="13">
-        <v>598798</v>
+        <v>769792</v>
       </c>
       <c r="AJ38" s="13">
-        <v>620732</v>
+        <v>796392</v>
       </c>
       <c r="AK38" s="13">
-        <v>769792</v>
+        <v>981847</v>
       </c>
       <c r="AL38" s="13">
-        <v>796392</v>
+        <v>520867</v>
       </c>
       <c r="AM38" s="13">
-        <v>981847</v>
+        <v>731418</v>
       </c>
       <c r="AN38" s="13">
-        <v>520867</v>
+        <v>705183</v>
       </c>
       <c r="AO38" s="13">
-        <v>731418</v>
+        <v>778548</v>
       </c>
       <c r="AP38" s="13">
-        <v>705183</v>
+        <v>978172</v>
       </c>
       <c r="AQ38" s="13">
-        <v>778548</v>
+        <v>925671</v>
       </c>
       <c r="AR38" s="13">
-        <v>992872</v>
+        <v>492842</v>
       </c>
       <c r="AS38" s="13">
-        <v>925671</v>
+        <v>975476</v>
       </c>
       <c r="AT38" s="13">
-        <v>492842</v>
+        <v>1264826</v>
       </c>
       <c r="AU38" s="13">
-        <v>975476</v>
+        <v>935268</v>
       </c>
       <c r="AV38" s="13">
-        <v>1264826</v>
+        <v>1030803</v>
       </c>
       <c r="AW38" s="13">
-        <v>935268</v>
+        <v>1182779</v>
       </c>
       <c r="AX38" s="13">
-        <v>1030803</v>
+        <v>915304</v>
       </c>
       <c r="AY38" s="13">
-        <v>1182779</v>
+        <v>1230799</v>
       </c>
       <c r="AZ38" s="13">
-        <v>915304</v>
+        <v>1295845</v>
       </c>
       <c r="BA38" s="13">
-        <v>1230799</v>
+        <v>1290144</v>
       </c>
       <c r="BB38" s="13">
-        <v>1295845</v>
+        <v>1248645</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>59</v>
       </c>
@@ -4543,113 +4543,113 @@
       <c r="S39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>57</v>
+      <c r="T39" s="11">
+        <v>27600</v>
+      </c>
+      <c r="U39" s="11">
+        <v>139621</v>
       </c>
       <c r="V39" s="11">
-        <v>27600</v>
+        <v>151990</v>
       </c>
       <c r="W39" s="11">
-        <v>139621</v>
+        <v>167780</v>
       </c>
       <c r="X39" s="11">
-        <v>151990</v>
+        <v>177389</v>
       </c>
       <c r="Y39" s="11">
-        <v>167780</v>
+        <v>229379</v>
       </c>
       <c r="Z39" s="11">
-        <v>177389</v>
+        <v>218938</v>
       </c>
       <c r="AA39" s="11">
-        <v>229379</v>
+        <v>225318</v>
       </c>
       <c r="AB39" s="11">
-        <v>218938</v>
+        <v>141207</v>
       </c>
       <c r="AC39" s="11">
-        <v>225318</v>
+        <v>308374</v>
       </c>
       <c r="AD39" s="11">
-        <v>141207</v>
+        <v>458590</v>
       </c>
       <c r="AE39" s="11">
-        <v>308374</v>
+        <v>254408</v>
       </c>
       <c r="AF39" s="11">
-        <v>458590</v>
+        <v>102359</v>
       </c>
       <c r="AG39" s="11">
-        <v>254408</v>
+        <v>350389</v>
       </c>
       <c r="AH39" s="11">
-        <v>102359</v>
+        <v>287159</v>
       </c>
       <c r="AI39" s="11">
-        <v>350389</v>
+        <v>353658</v>
       </c>
       <c r="AJ39" s="11">
-        <v>287159</v>
+        <v>194091</v>
       </c>
       <c r="AK39" s="11">
-        <v>353658</v>
+        <v>234213</v>
       </c>
       <c r="AL39" s="11">
-        <v>194091</v>
+        <v>439739</v>
       </c>
       <c r="AM39" s="11">
-        <v>234213</v>
+        <v>459552</v>
       </c>
       <c r="AN39" s="11">
-        <v>439739</v>
+        <v>429007</v>
       </c>
       <c r="AO39" s="11">
-        <v>459552</v>
+        <v>387230</v>
       </c>
       <c r="AP39" s="11">
-        <v>429007</v>
+        <v>624899</v>
       </c>
       <c r="AQ39" s="11">
-        <v>387230</v>
+        <v>380655</v>
       </c>
       <c r="AR39" s="11">
-        <v>610199</v>
+        <v>296890</v>
       </c>
       <c r="AS39" s="11">
-        <v>380655</v>
+        <v>677102</v>
       </c>
       <c r="AT39" s="11">
-        <v>296890</v>
+        <v>717616</v>
       </c>
       <c r="AU39" s="11">
-        <v>677102</v>
+        <v>769765</v>
       </c>
       <c r="AV39" s="11">
-        <v>717616</v>
+        <v>616077</v>
       </c>
       <c r="AW39" s="11">
-        <v>769765</v>
+        <v>995123</v>
       </c>
       <c r="AX39" s="11">
-        <v>616077</v>
+        <v>499633</v>
       </c>
       <c r="AY39" s="11">
-        <v>995123</v>
+        <v>1068222</v>
       </c>
       <c r="AZ39" s="11">
-        <v>499633</v>
+        <v>986053</v>
       </c>
       <c r="BA39" s="11">
-        <v>1068222</v>
+        <v>869999</v>
       </c>
       <c r="BB39" s="11">
-        <v>986053</v>
+        <v>751267</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>68</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>61</v>
       </c>
@@ -4759,11 +4759,11 @@
       <c r="S41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T41" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U41" s="17" t="s">
-        <v>57</v>
+      <c r="T41" s="17">
+        <v>0</v>
+      </c>
+      <c r="U41" s="17">
+        <v>0</v>
       </c>
       <c r="V41" s="17">
         <v>0</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>69</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>65</v>
       </c>
@@ -4975,11 +4975,11 @@
       <c r="S43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="T43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" s="17" t="s">
-        <v>57</v>
+      <c r="T43" s="17">
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <v>0</v>
       </c>
       <c r="V43" s="17">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>70</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>71</v>
       </c>
@@ -5191,11 +5191,11 @@
       <c r="S45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>57</v>
+      <c r="T45" s="11">
+        <v>0</v>
+      </c>
+      <c r="U45" s="11">
+        <v>0</v>
       </c>
       <c r="V45" s="11">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>62</v>
       </c>
@@ -5349,112 +5349,112 @@
         <v>0</v>
       </c>
       <c r="T46" s="19">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="U46" s="19">
-        <v>0</v>
+        <v>802151</v>
       </c>
       <c r="V46" s="19">
-        <v>301087</v>
+        <v>871313</v>
       </c>
       <c r="W46" s="19">
-        <v>802151</v>
+        <v>1081821</v>
       </c>
       <c r="X46" s="19">
-        <v>871313</v>
+        <v>984878</v>
       </c>
       <c r="Y46" s="19">
-        <v>1081821</v>
+        <v>1057790</v>
       </c>
       <c r="Z46" s="19">
-        <v>984878</v>
+        <v>1112808</v>
       </c>
       <c r="AA46" s="19">
-        <v>1057790</v>
+        <v>1147187</v>
       </c>
       <c r="AB46" s="19">
-        <v>1112808</v>
+        <v>871906</v>
       </c>
       <c r="AC46" s="19">
-        <v>1147187</v>
+        <v>1245308</v>
       </c>
       <c r="AD46" s="19">
-        <v>871906</v>
+        <v>1811478</v>
       </c>
       <c r="AE46" s="19">
-        <v>1245308</v>
+        <v>1338352</v>
       </c>
       <c r="AF46" s="19">
-        <v>1811478</v>
+        <v>689215</v>
       </c>
       <c r="AG46" s="19">
-        <v>1338352</v>
+        <v>1396507</v>
       </c>
       <c r="AH46" s="19">
-        <v>689215</v>
+        <v>1304122</v>
       </c>
       <c r="AI46" s="19">
-        <v>1396507</v>
+        <v>1485650</v>
       </c>
       <c r="AJ46" s="19">
-        <v>1304122</v>
+        <v>1284931</v>
       </c>
       <c r="AK46" s="19">
-        <v>1485650</v>
+        <v>1434742</v>
       </c>
       <c r="AL46" s="19">
-        <v>1284931</v>
+        <v>1370396</v>
       </c>
       <c r="AM46" s="19">
-        <v>1434742</v>
+        <v>1589587</v>
       </c>
       <c r="AN46" s="19">
-        <v>1370396</v>
+        <v>1468240</v>
       </c>
       <c r="AO46" s="19">
-        <v>1589587</v>
+        <v>1474071</v>
       </c>
       <c r="AP46" s="19">
-        <v>1468240</v>
+        <v>2134361</v>
       </c>
       <c r="AQ46" s="19">
-        <v>1474071</v>
+        <v>1578287</v>
       </c>
       <c r="AR46" s="19">
-        <v>2134361</v>
+        <v>1031237</v>
       </c>
       <c r="AS46" s="19">
-        <v>1578287</v>
+        <v>2091167</v>
       </c>
       <c r="AT46" s="19">
-        <v>1031237</v>
+        <v>2497251</v>
       </c>
       <c r="AU46" s="19">
-        <v>2091167</v>
+        <v>2036359</v>
       </c>
       <c r="AV46" s="19">
-        <v>2497251</v>
+        <v>2006078</v>
       </c>
       <c r="AW46" s="19">
-        <v>2036359</v>
+        <v>2601575</v>
       </c>
       <c r="AX46" s="19">
-        <v>2006078</v>
+        <v>1790845</v>
       </c>
       <c r="AY46" s="19">
-        <v>2601575</v>
+        <v>2749344</v>
       </c>
       <c r="AZ46" s="19">
-        <v>1790845</v>
+        <v>2780184</v>
       </c>
       <c r="BA46" s="19">
-        <v>2749344</v>
+        <v>2633227</v>
       </c>
       <c r="BB46" s="19">
-        <v>2780184</v>
+        <v>2715187</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5509,7 +5509,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5564,7 +5564,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5619,7 +5619,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5831,7 +5831,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>73</v>
       </c>
@@ -5888,7 +5888,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -5941,113 +5941,113 @@
       <c r="S53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U53" s="11" t="s">
-        <v>57</v>
+      <c r="T53" s="11">
+        <v>147587</v>
+      </c>
+      <c r="U53" s="11">
+        <v>150088</v>
       </c>
       <c r="V53" s="11">
-        <v>147587</v>
+        <v>216933</v>
       </c>
       <c r="W53" s="11">
-        <v>150088</v>
+        <v>229139</v>
       </c>
       <c r="X53" s="11">
-        <v>216933</v>
+        <v>239723</v>
       </c>
       <c r="Y53" s="11">
-        <v>229139</v>
+        <v>215174</v>
       </c>
       <c r="Z53" s="11">
-        <v>239723</v>
+        <v>193803</v>
       </c>
       <c r="AA53" s="11">
-        <v>215174</v>
+        <v>235407</v>
       </c>
       <c r="AB53" s="11">
-        <v>193803</v>
+        <v>253268</v>
       </c>
       <c r="AC53" s="11">
-        <v>235407</v>
+        <v>228864</v>
       </c>
       <c r="AD53" s="11">
-        <v>253268</v>
+        <v>261425</v>
       </c>
       <c r="AE53" s="11">
-        <v>228864</v>
+        <v>386250</v>
       </c>
       <c r="AF53" s="11">
-        <v>261425</v>
+        <v>298148</v>
       </c>
       <c r="AG53" s="11">
-        <v>386250</v>
+        <v>325139</v>
       </c>
       <c r="AH53" s="11">
-        <v>298148</v>
+        <v>298752</v>
       </c>
       <c r="AI53" s="11">
-        <v>325139</v>
+        <v>398053</v>
       </c>
       <c r="AJ53" s="11">
-        <v>298752</v>
+        <v>306923</v>
       </c>
       <c r="AK53" s="11">
-        <v>398053</v>
+        <v>278915</v>
       </c>
       <c r="AL53" s="11">
-        <v>306923</v>
+        <v>272686</v>
       </c>
       <c r="AM53" s="11">
-        <v>278915</v>
+        <v>304769</v>
       </c>
       <c r="AN53" s="11">
-        <v>272686</v>
+        <v>288336</v>
       </c>
       <c r="AO53" s="11">
-        <v>304769</v>
+        <v>336880</v>
       </c>
       <c r="AP53" s="11">
-        <v>288336</v>
+        <v>359462</v>
       </c>
       <c r="AQ53" s="11">
-        <v>336880</v>
+        <v>239893</v>
       </c>
       <c r="AR53" s="11">
-        <v>359462</v>
+        <v>281003</v>
       </c>
       <c r="AS53" s="11">
-        <v>239893</v>
+        <v>319368</v>
       </c>
       <c r="AT53" s="11">
-        <v>281003</v>
+        <v>318743</v>
       </c>
       <c r="AU53" s="11">
-        <v>319368</v>
+        <v>358517</v>
       </c>
       <c r="AV53" s="11">
-        <v>318743</v>
+        <v>325250</v>
       </c>
       <c r="AW53" s="11">
-        <v>358517</v>
+        <v>338521</v>
       </c>
       <c r="AX53" s="11">
-        <v>325250</v>
+        <v>342060</v>
       </c>
       <c r="AY53" s="11">
-        <v>338521</v>
+        <v>303963</v>
       </c>
       <c r="AZ53" s="11">
-        <v>342060</v>
+        <v>317201</v>
       </c>
       <c r="BA53" s="11">
-        <v>303963</v>
+        <v>430056</v>
       </c>
       <c r="BB53" s="11">
-        <v>317201</v>
+        <v>396859</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -6100,113 +6100,113 @@
       <c r="S54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>57</v>
+      <c r="T54" s="13">
+        <v>124710</v>
+      </c>
+      <c r="U54" s="13">
+        <v>153406</v>
       </c>
       <c r="V54" s="13">
-        <v>124710</v>
+        <v>104636</v>
       </c>
       <c r="W54" s="13">
-        <v>153406</v>
+        <v>142071</v>
       </c>
       <c r="X54" s="13">
-        <v>104636</v>
+        <v>164199</v>
       </c>
       <c r="Y54" s="13">
-        <v>142071</v>
+        <v>183081</v>
       </c>
       <c r="Z54" s="13">
-        <v>164199</v>
+        <v>157116</v>
       </c>
       <c r="AA54" s="13">
-        <v>183081</v>
+        <v>213313</v>
       </c>
       <c r="AB54" s="13">
-        <v>157116</v>
+        <v>318383</v>
       </c>
       <c r="AC54" s="13">
-        <v>213313</v>
+        <v>202764</v>
       </c>
       <c r="AD54" s="13">
-        <v>318383</v>
+        <v>221125</v>
       </c>
       <c r="AE54" s="13">
-        <v>202764</v>
+        <v>308027</v>
       </c>
       <c r="AF54" s="13">
-        <v>221125</v>
+        <v>220933</v>
       </c>
       <c r="AG54" s="13">
-        <v>308027</v>
+        <v>232835</v>
       </c>
       <c r="AH54" s="13">
-        <v>220933</v>
+        <v>225050</v>
       </c>
       <c r="AI54" s="13">
-        <v>232835</v>
+        <v>240585</v>
       </c>
       <c r="AJ54" s="13">
-        <v>225050</v>
+        <v>213600</v>
       </c>
       <c r="AK54" s="13">
-        <v>240585</v>
+        <v>238454</v>
       </c>
       <c r="AL54" s="13">
-        <v>213600</v>
+        <v>278515</v>
       </c>
       <c r="AM54" s="13">
-        <v>238454</v>
+        <v>288990</v>
       </c>
       <c r="AN54" s="13">
-        <v>278515</v>
+        <v>240378</v>
       </c>
       <c r="AO54" s="13">
-        <v>288990</v>
+        <v>256222</v>
       </c>
       <c r="AP54" s="13">
-        <v>240378</v>
+        <v>272017</v>
       </c>
       <c r="AQ54" s="13">
-        <v>256222</v>
+        <v>245571</v>
       </c>
       <c r="AR54" s="13">
-        <v>272001</v>
+        <v>247186</v>
       </c>
       <c r="AS54" s="13">
-        <v>245571</v>
+        <v>279010</v>
       </c>
       <c r="AT54" s="13">
-        <v>247186</v>
+        <v>297052</v>
       </c>
       <c r="AU54" s="13">
-        <v>279010</v>
+        <v>331334</v>
       </c>
       <c r="AV54" s="13">
-        <v>297052</v>
+        <v>333064</v>
       </c>
       <c r="AW54" s="13">
-        <v>331334</v>
+        <v>394927</v>
       </c>
       <c r="AX54" s="13">
-        <v>333064</v>
+        <v>324558</v>
       </c>
       <c r="AY54" s="13">
-        <v>394927</v>
+        <v>366519</v>
       </c>
       <c r="AZ54" s="13">
-        <v>324558</v>
+        <v>365179</v>
       </c>
       <c r="BA54" s="13">
-        <v>366519</v>
+        <v>408008</v>
       </c>
       <c r="BB54" s="13">
-        <v>365179</v>
+        <v>377304</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -6259,110 +6259,110 @@
       <c r="S55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U55" s="11" t="s">
-        <v>57</v>
+      <c r="T55" s="11">
+        <v>211754</v>
+      </c>
+      <c r="U55" s="11">
+        <v>425937</v>
       </c>
       <c r="V55" s="11">
-        <v>211754</v>
+        <v>167383</v>
       </c>
       <c r="W55" s="11">
-        <v>425937</v>
+        <v>236840</v>
       </c>
       <c r="X55" s="11">
-        <v>167383</v>
+        <v>324400</v>
       </c>
       <c r="Y55" s="11">
-        <v>236840</v>
+        <v>319533</v>
       </c>
       <c r="Z55" s="11">
-        <v>324400</v>
+        <v>323084</v>
       </c>
       <c r="AA55" s="11">
-        <v>319533</v>
+        <v>378462</v>
       </c>
       <c r="AB55" s="11">
-        <v>323084</v>
+        <v>433990</v>
       </c>
       <c r="AC55" s="11">
-        <v>378462</v>
+        <v>280774</v>
       </c>
       <c r="AD55" s="11">
-        <v>433990</v>
+        <v>292885</v>
       </c>
       <c r="AE55" s="11">
-        <v>280774</v>
+        <v>452800</v>
       </c>
       <c r="AF55" s="11">
-        <v>292885</v>
+        <v>398826</v>
       </c>
       <c r="AG55" s="11">
-        <v>452800</v>
+        <v>410775</v>
       </c>
       <c r="AH55" s="11">
-        <v>398826</v>
+        <v>332349</v>
       </c>
       <c r="AI55" s="11">
-        <v>410775</v>
+        <v>485185</v>
       </c>
       <c r="AJ55" s="11">
-        <v>332349</v>
+        <v>374045</v>
       </c>
       <c r="AK55" s="11">
-        <v>485185</v>
+        <v>348855</v>
       </c>
       <c r="AL55" s="11">
-        <v>374045</v>
+        <v>337881</v>
       </c>
       <c r="AM55" s="11">
-        <v>348855</v>
+        <v>586746</v>
       </c>
       <c r="AN55" s="11">
-        <v>337881</v>
+        <v>504040</v>
       </c>
       <c r="AO55" s="11">
-        <v>586746</v>
+        <v>690066</v>
       </c>
       <c r="AP55" s="11">
-        <v>504040</v>
+        <v>509415</v>
       </c>
       <c r="AQ55" s="11">
-        <v>690066</v>
+        <v>663008</v>
       </c>
       <c r="AR55" s="11">
-        <v>510947</v>
+        <v>447048</v>
       </c>
       <c r="AS55" s="11">
-        <v>663008</v>
+        <v>593591</v>
       </c>
       <c r="AT55" s="11">
-        <v>447048</v>
+        <v>570042</v>
       </c>
       <c r="AU55" s="11">
-        <v>593591</v>
+        <v>567988</v>
       </c>
       <c r="AV55" s="11">
-        <v>570042</v>
+        <v>535967</v>
       </c>
       <c r="AW55" s="11">
-        <v>567988</v>
+        <v>706273</v>
       </c>
       <c r="AX55" s="11">
-        <v>535967</v>
+        <v>553240</v>
       </c>
       <c r="AY55" s="11">
-        <v>706273</v>
+        <v>602570</v>
       </c>
       <c r="AZ55" s="11">
-        <v>553240</v>
+        <v>652299</v>
       </c>
       <c r="BA55" s="11">
-        <v>602570</v>
+        <v>709579</v>
       </c>
       <c r="BB55" s="11">
-        <v>652299</v>
+        <v>681074</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/monthly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="75">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3285,116 +3285,116 @@
       <c r="Q11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="R11" s="13" t="n">
+        <v>574685</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>574685</v>
+        <v>1685115</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>1685115</v>
+        <v>1365965</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>1365965</v>
+        <v>1559672</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>1559672</v>
+        <v>1233540</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>1233540</v>
+        <v>1364889</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>1364889</v>
+        <v>1274647</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>1274647</v>
+        <v>1651508</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>1651508</v>
+        <v>1873263</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>1873263</v>
+        <v>1308329</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>1308329</v>
+        <v>1875732</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>1875732</v>
+        <v>1077736</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>1077736</v>
+        <v>107160</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>107160</v>
+        <v>1464968</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>1464968</v>
+        <v>2164824</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>2164824</v>
+        <v>951533</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>951533</v>
+        <v>604440</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>604440</v>
+        <v>1062495</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>1062495</v>
+        <v>1539501</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>1539501</v>
+        <v>944733</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>944733</v>
+        <v>1294565</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>1294565</v>
+        <v>1034399</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>1034399</v>
+        <v>1049813</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>1049813</v>
+        <v>425599</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>425599</v>
+        <v>978365</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>978365</v>
+        <v>2088784</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>2088784</v>
+        <v>2208362</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>2208362</v>
+        <v>1484782</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>1484782</v>
+        <v>1307987</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>1307987</v>
+        <v>1881955</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>1881955</v>
+        <v>943499</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>943499</v>
+        <v>1624282</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>1624282</v>
+        <v>1789750</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>1789750</v>
+        <v>1550341</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>1550341</v>
+        <v>1845621</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>1845621</v>
+        <v>1164185</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>1164185</v>
+        <v>1227640</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,116 +3444,116 @@
       <c r="Q12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>57</v>
+      <c r="R12" s="16" t="n">
+        <v>2195795</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>2195795</v>
+        <v>3816697</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>3816697</v>
+        <v>823357</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>823357</v>
+        <v>3393806</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>3393806</v>
+        <v>2798099</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>2798099</v>
+        <v>3097213</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>3097213</v>
+        <v>3220843</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>3220843</v>
+        <v>3366608</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>3366608</v>
+        <v>4403965</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>4403965</v>
+        <v>2907633</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>2907633</v>
+        <v>4566369</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>4566369</v>
+        <v>2705390</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>2705390</v>
+        <v>1642770</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>1642770</v>
+        <v>2447633</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>2447633</v>
+        <v>2036103</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>2036103</v>
+        <v>2979924</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>2979924</v>
+        <v>3557736</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>3557736</v>
+        <v>3443086</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>3443086</v>
+        <v>2757778</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>2757778</v>
+        <v>2537086</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>2537086</v>
+        <v>2988597</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>2988597</v>
+        <v>2540486</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>2540486</v>
+        <v>3162952</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>3162952</v>
+        <v>2778131</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>2778131</v>
+        <v>1932134</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1932134</v>
+        <v>3794614</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>3794614</v>
+        <v>3971390</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>3971390</v>
+        <v>3676123</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>3676123</v>
+        <v>3596987</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>3596987</v>
+        <v>3462625</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>3462625</v>
+        <v>3016636</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>3016636</v>
+        <v>3415167</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>3415167</v>
+        <v>3671469</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>3671469</v>
+        <v>3698547</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>3698547</v>
+        <v>4264337</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>4264337</v>
+        <v>2522952</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>2522952</v>
+        <v>1494064</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,116 +3603,116 @@
       <c r="Q13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>57</v>
+      <c r="R13" s="13" t="n">
+        <v>421040</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>421040</v>
+        <v>342775</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>342775</v>
+        <v>354951</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>354951</v>
+        <v>853232</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>853232</v>
+        <v>845689</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>845689</v>
+        <v>477805</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>477805</v>
+        <v>1049837</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>1049837</v>
+        <v>874960</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>874960</v>
+        <v>839661</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>839661</v>
+        <v>786573</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>786573</v>
+        <v>1454086</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>1454086</v>
+        <v>355611</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>355611</v>
+        <v>302700</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>302700</v>
+        <v>576123</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>576123</v>
+        <v>577501</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>577501</v>
+        <v>812736</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>812736</v>
+        <v>574197</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>574197</v>
+        <v>679456</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>679456</v>
+        <v>341164</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>341164</v>
+        <v>717583</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>717583</v>
+        <v>877199</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>877199</v>
+        <v>864518</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>864518</v>
+        <v>747504</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>747504</v>
+        <v>923051</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>923051</v>
+        <v>442941</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>442941</v>
+        <v>477046</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>477046</v>
+        <v>577460</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>577460</v>
+        <v>1047589</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>1047589</v>
+        <v>878119</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>878119</v>
+        <v>580397</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>580397</v>
+        <v>601962</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>601962</v>
+        <v>833950</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>833950</v>
+        <v>1098866</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>1098866</v>
+        <v>963219</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>963219</v>
+        <v>794921</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>794921</v>
+        <v>552265</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>552265</v>
+        <v>389175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,8 +3817,8 @@
       <c r="Q15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="20" t="s">
-        <v>57</v>
+      <c r="R15" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S15" s="20" t="n">
         <v>0</v>
@@ -3975,115 +3975,115 @@
         <v>0</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>3191520</v>
+        <v>5844587</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>5844587</v>
+        <v>2544273</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>2544273</v>
+        <v>5806710</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>5806710</v>
+        <v>4877328</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>4877328</v>
+        <v>4939907</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>4939907</v>
+        <v>5545327</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>5545327</v>
+        <v>5893076</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>5893076</v>
+        <v>7116889</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>7116889</v>
+        <v>5002535</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>5002535</v>
+        <v>7896187</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>7896187</v>
+        <v>4138737</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>4138737</v>
+        <v>2052630</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>2052630</v>
+        <v>4488724</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>4488724</v>
+        <v>4778428</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>4778428</v>
+        <v>4744193</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>4744193</v>
+        <v>4736373</v>
       </c>
       <c r="AI16" s="22" t="n">
-        <v>4736373</v>
+        <v>5185037</v>
       </c>
       <c r="AJ16" s="22" t="n">
-        <v>5185037</v>
+        <v>4638443</v>
       </c>
       <c r="AK16" s="22" t="n">
-        <v>4638443</v>
+        <v>4199402</v>
       </c>
       <c r="AL16" s="22" t="n">
-        <v>4199402</v>
+        <v>5160361</v>
       </c>
       <c r="AM16" s="22" t="n">
-        <v>5160361</v>
+        <v>4439403</v>
       </c>
       <c r="AN16" s="22" t="n">
-        <v>4439403</v>
+        <v>4960269</v>
       </c>
       <c r="AO16" s="22" t="n">
-        <v>4960269</v>
+        <v>4126781</v>
       </c>
       <c r="AP16" s="22" t="n">
-        <v>4126781</v>
+        <v>3353440</v>
       </c>
       <c r="AQ16" s="22" t="n">
-        <v>3353440</v>
+        <v>6360444</v>
       </c>
       <c r="AR16" s="22" t="n">
-        <v>6360444</v>
+        <v>6757212</v>
       </c>
       <c r="AS16" s="22" t="n">
-        <v>6757212</v>
+        <v>6208494</v>
       </c>
       <c r="AT16" s="22" t="n">
-        <v>6208494</v>
+        <v>5783093</v>
       </c>
       <c r="AU16" s="22" t="n">
-        <v>5783093</v>
+        <v>5924977</v>
       </c>
       <c r="AV16" s="22" t="n">
-        <v>5924977</v>
+        <v>4562097</v>
       </c>
       <c r="AW16" s="22" t="n">
-        <v>4562097</v>
+        <v>5873399</v>
       </c>
       <c r="AX16" s="22" t="n">
-        <v>5873399</v>
+        <v>6560085</v>
       </c>
       <c r="AY16" s="22" t="n">
-        <v>6560085</v>
+        <v>6212107</v>
       </c>
       <c r="AZ16" s="22" t="n">
-        <v>6212107</v>
+        <v>6904879</v>
       </c>
       <c r="BA16" s="22" t="n">
-        <v>6904879</v>
+        <v>4239402</v>
       </c>
       <c r="BB16" s="22" t="n">
-        <v>4239402</v>
+        <v>3110879</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,116 +4567,116 @@
       <c r="Q23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>57</v>
+      <c r="R23" s="13" t="n">
+        <v>729015</v>
       </c>
       <c r="S23" s="13" t="n">
-        <v>729015</v>
+        <v>1772967</v>
       </c>
       <c r="T23" s="13" t="n">
-        <v>1772967</v>
+        <v>1468600</v>
       </c>
       <c r="U23" s="13" t="n">
-        <v>1468600</v>
+        <v>1377560</v>
       </c>
       <c r="V23" s="13" t="n">
-        <v>1377560</v>
+        <v>1211798</v>
       </c>
       <c r="W23" s="13" t="n">
-        <v>1211798</v>
+        <v>1241898</v>
       </c>
       <c r="X23" s="13" t="n">
-        <v>1241898</v>
+        <v>1527172</v>
       </c>
       <c r="Y23" s="13" t="n">
-        <v>1527172</v>
+        <v>1335243</v>
       </c>
       <c r="Z23" s="13" t="n">
-        <v>1335243</v>
+        <v>846121</v>
       </c>
       <c r="AA23" s="13" t="n">
-        <v>846121</v>
+        <v>1375326</v>
       </c>
       <c r="AB23" s="13" t="n">
-        <v>1375326</v>
+        <v>1681267</v>
       </c>
       <c r="AC23" s="13" t="n">
-        <v>1681267</v>
+        <v>845585</v>
       </c>
       <c r="AD23" s="13" t="n">
-        <v>845585</v>
+        <v>801408</v>
       </c>
       <c r="AE23" s="13" t="n">
-        <v>801408</v>
+        <v>1375779</v>
       </c>
       <c r="AF23" s="13" t="n">
-        <v>1375779</v>
+        <v>1326288</v>
       </c>
       <c r="AG23" s="13" t="n">
-        <v>1326288</v>
+        <v>909929</v>
       </c>
       <c r="AH23" s="13" t="n">
-        <v>909929</v>
+        <v>959354</v>
       </c>
       <c r="AI23" s="13" t="n">
-        <v>959354</v>
+        <v>784045</v>
       </c>
       <c r="AJ23" s="13" t="n">
-        <v>784045</v>
+        <v>1502793</v>
       </c>
       <c r="AK23" s="13" t="n">
-        <v>1502793</v>
+        <v>1307930</v>
       </c>
       <c r="AL23" s="13" t="n">
-        <v>1307930</v>
+        <v>1158543</v>
       </c>
       <c r="AM23" s="13" t="n">
-        <v>1158543</v>
+        <v>915143</v>
       </c>
       <c r="AN23" s="13" t="n">
-        <v>915143</v>
+        <v>1478014</v>
       </c>
       <c r="AO23" s="13" t="n">
-        <v>1478014</v>
+        <v>1133675</v>
       </c>
       <c r="AP23" s="13" t="n">
-        <v>1133675</v>
+        <v>859438</v>
       </c>
       <c r="AQ23" s="13" t="n">
-        <v>859438</v>
+        <v>1373302</v>
       </c>
       <c r="AR23" s="13" t="n">
-        <v>1373302</v>
+        <v>1615123</v>
       </c>
       <c r="AS23" s="13" t="n">
-        <v>1615123</v>
+        <v>924157</v>
       </c>
       <c r="AT23" s="13" t="n">
-        <v>924157</v>
+        <v>1104375</v>
       </c>
       <c r="AU23" s="13" t="n">
-        <v>1104375</v>
+        <v>1251541</v>
       </c>
       <c r="AV23" s="13" t="n">
-        <v>1251541</v>
+        <v>1098955</v>
       </c>
       <c r="AW23" s="13" t="n">
-        <v>1098955</v>
+        <v>1481508</v>
       </c>
       <c r="AX23" s="13" t="n">
-        <v>1481508</v>
+        <v>1570886</v>
       </c>
       <c r="AY23" s="13" t="n">
-        <v>1570886</v>
+        <v>1100051</v>
       </c>
       <c r="AZ23" s="13" t="n">
-        <v>1100051</v>
+        <v>1802340</v>
       </c>
       <c r="BA23" s="13" t="n">
-        <v>1802340</v>
+        <v>1583379</v>
       </c>
       <c r="BB23" s="13" t="n">
-        <v>1583379</v>
+        <v>1070652</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,116 +4726,116 @@
       <c r="Q24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="16" t="s">
-        <v>57</v>
+      <c r="R24" s="16" t="n">
+        <v>1330241</v>
       </c>
       <c r="S24" s="16" t="n">
-        <v>1330241</v>
+        <v>2584186</v>
       </c>
       <c r="T24" s="16" t="n">
-        <v>2584186</v>
+        <v>3829816</v>
       </c>
       <c r="U24" s="16" t="n">
-        <v>3829816</v>
+        <v>4211906</v>
       </c>
       <c r="V24" s="16" t="n">
-        <v>4211906</v>
+        <v>3148574</v>
       </c>
       <c r="W24" s="16" t="n">
-        <v>3148574</v>
+        <v>3065231</v>
       </c>
       <c r="X24" s="16" t="n">
-        <v>3065231</v>
+        <v>3805474</v>
       </c>
       <c r="Y24" s="16" t="n">
-        <v>3805474</v>
+        <v>2848136</v>
       </c>
       <c r="Z24" s="16" t="n">
-        <v>2848136</v>
+        <v>1621960</v>
       </c>
       <c r="AA24" s="16" t="n">
-        <v>1621960</v>
+        <v>3068458</v>
       </c>
       <c r="AB24" s="16" t="n">
-        <v>3068458</v>
+        <v>4130520</v>
       </c>
       <c r="AC24" s="16" t="n">
-        <v>4130520</v>
+        <v>2458672</v>
       </c>
       <c r="AD24" s="16" t="n">
-        <v>2458672</v>
+        <v>1574769</v>
       </c>
       <c r="AE24" s="16" t="n">
-        <v>1574769</v>
+        <v>2571774</v>
       </c>
       <c r="AF24" s="16" t="n">
-        <v>2571774</v>
+        <v>2758197</v>
       </c>
       <c r="AG24" s="16" t="n">
-        <v>2758197</v>
+        <v>3199667</v>
       </c>
       <c r="AH24" s="16" t="n">
-        <v>3199667</v>
+        <v>3728428</v>
       </c>
       <c r="AI24" s="16" t="n">
-        <v>3728428</v>
+        <v>4117552</v>
       </c>
       <c r="AJ24" s="16" t="n">
-        <v>4117552</v>
+        <v>1870160</v>
       </c>
       <c r="AK24" s="16" t="n">
-        <v>1870160</v>
+        <v>2530950</v>
       </c>
       <c r="AL24" s="16" t="n">
-        <v>2530950</v>
+        <v>2933640</v>
       </c>
       <c r="AM24" s="16" t="n">
-        <v>2933640</v>
+        <v>3038566</v>
       </c>
       <c r="AN24" s="16" t="n">
-        <v>3038566</v>
+        <v>3595991</v>
       </c>
       <c r="AO24" s="16" t="n">
-        <v>3595991</v>
+        <v>3769468</v>
       </c>
       <c r="AP24" s="16" t="n">
-        <v>3769468</v>
+        <v>1993809</v>
       </c>
       <c r="AQ24" s="16" t="n">
-        <v>1993809</v>
+        <v>3496200</v>
       </c>
       <c r="AR24" s="16" t="n">
-        <v>3496200</v>
+        <v>4257925</v>
       </c>
       <c r="AS24" s="16" t="n">
-        <v>4257925</v>
+        <v>2822733</v>
       </c>
       <c r="AT24" s="16" t="n">
-        <v>2822733</v>
+        <v>3094914</v>
       </c>
       <c r="AU24" s="16" t="n">
-        <v>3094914</v>
+        <v>2994929</v>
       </c>
       <c r="AV24" s="16" t="n">
-        <v>2994929</v>
+        <v>2820154</v>
       </c>
       <c r="AW24" s="16" t="n">
-        <v>2820154</v>
+        <v>3358078</v>
       </c>
       <c r="AX24" s="16" t="n">
-        <v>3358078</v>
+        <v>3548516</v>
       </c>
       <c r="AY24" s="16" t="n">
-        <v>3548516</v>
+        <v>3162058</v>
       </c>
       <c r="AZ24" s="16" t="n">
-        <v>3162058</v>
+        <v>3309390</v>
       </c>
       <c r="BA24" s="16" t="n">
-        <v>3309390</v>
+        <v>2749823</v>
       </c>
       <c r="BB24" s="16" t="n">
-        <v>2749823</v>
+        <v>1456757</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,116 +4885,116 @@
       <c r="Q25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="13" t="s">
-        <v>57</v>
+      <c r="R25" s="13" t="n">
+        <v>130340</v>
       </c>
       <c r="S25" s="13" t="n">
-        <v>130340</v>
+        <v>327797</v>
       </c>
       <c r="T25" s="13" t="n">
-        <v>327797</v>
+        <v>908037</v>
       </c>
       <c r="U25" s="13" t="n">
-        <v>908037</v>
+        <v>708411</v>
       </c>
       <c r="V25" s="13" t="n">
-        <v>708411</v>
+        <v>546822</v>
       </c>
       <c r="W25" s="13" t="n">
-        <v>546822</v>
+        <v>717857</v>
       </c>
       <c r="X25" s="13" t="n">
-        <v>717857</v>
+        <v>677650</v>
       </c>
       <c r="Y25" s="13" t="n">
-        <v>677650</v>
+        <v>595352</v>
       </c>
       <c r="Z25" s="13" t="n">
-        <v>595352</v>
+        <v>325369</v>
       </c>
       <c r="AA25" s="13" t="n">
-        <v>325369</v>
+        <v>1098298</v>
       </c>
       <c r="AB25" s="13" t="n">
-        <v>1098298</v>
+        <v>1565769</v>
       </c>
       <c r="AC25" s="13" t="n">
-        <v>1565769</v>
+        <v>561855</v>
       </c>
       <c r="AD25" s="13" t="n">
-        <v>561855</v>
+        <v>256651</v>
       </c>
       <c r="AE25" s="13" t="n">
-        <v>256651</v>
+        <v>852995</v>
       </c>
       <c r="AF25" s="13" t="n">
-        <v>852995</v>
+        <v>864028</v>
       </c>
       <c r="AG25" s="13" t="n">
-        <v>864028</v>
+        <v>728914</v>
       </c>
       <c r="AH25" s="13" t="n">
-        <v>728914</v>
+        <v>518898</v>
       </c>
       <c r="AI25" s="13" t="n">
-        <v>518898</v>
+        <v>671376</v>
       </c>
       <c r="AJ25" s="13" t="n">
-        <v>671376</v>
+        <v>1301462</v>
       </c>
       <c r="AK25" s="13" t="n">
-        <v>1301462</v>
+        <v>783221</v>
       </c>
       <c r="AL25" s="13" t="n">
-        <v>783221</v>
+        <v>851136</v>
       </c>
       <c r="AM25" s="13" t="n">
-        <v>851136</v>
+        <v>561149</v>
       </c>
       <c r="AN25" s="13" t="n">
-        <v>561149</v>
+        <v>1226699</v>
       </c>
       <c r="AO25" s="13" t="n">
-        <v>1226699</v>
+        <v>574133</v>
       </c>
       <c r="AP25" s="13" t="n">
-        <v>574133</v>
+        <v>664112</v>
       </c>
       <c r="AQ25" s="13" t="n">
-        <v>664112</v>
+        <v>1140687</v>
       </c>
       <c r="AR25" s="13" t="n">
-        <v>1140687</v>
+        <v>1258883</v>
       </c>
       <c r="AS25" s="13" t="n">
-        <v>1258883</v>
+        <v>1355248</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>1355248</v>
+        <v>1149468</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>1149468</v>
+        <v>1408978</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>1408978</v>
+        <v>903103</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>903103</v>
+        <v>1772778</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>1772778</v>
+        <v>1511659</v>
       </c>
       <c r="AY25" s="13" t="n">
-        <v>1511659</v>
+        <v>1226078</v>
       </c>
       <c r="AZ25" s="13" t="n">
-        <v>1226078</v>
+        <v>1103063</v>
       </c>
       <c r="BA25" s="13" t="n">
-        <v>1103063</v>
+        <v>897149</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>897149</v>
+        <v>483239</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,8 +5099,8 @@
       <c r="Q27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R27" s="20" t="s">
-        <v>57</v>
+      <c r="R27" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S27" s="20" t="n">
         <v>0</v>
@@ -5313,8 +5313,8 @@
       <c r="Q29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R29" s="20" t="s">
-        <v>57</v>
+      <c r="R29" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="S29" s="20" t="n">
         <v>0</v>
@@ -5471,115 +5471,115 @@
         <v>0</v>
       </c>
       <c r="R30" s="22" t="n">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="S30" s="22" t="n">
-        <v>2189596</v>
+        <v>4684950</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>4684950</v>
+        <v>6206453</v>
       </c>
       <c r="U30" s="22" t="n">
-        <v>6206453</v>
+        <v>6297877</v>
       </c>
       <c r="V30" s="22" t="n">
-        <v>6297877</v>
+        <v>4907194</v>
       </c>
       <c r="W30" s="22" t="n">
-        <v>4907194</v>
+        <v>5024986</v>
       </c>
       <c r="X30" s="22" t="n">
-        <v>5024986</v>
+        <v>6010296</v>
       </c>
       <c r="Y30" s="22" t="n">
-        <v>6010296</v>
+        <v>4778731</v>
       </c>
       <c r="Z30" s="22" t="n">
-        <v>4778731</v>
+        <v>2793450</v>
       </c>
       <c r="AA30" s="22" t="n">
-        <v>2793450</v>
+        <v>5542082</v>
       </c>
       <c r="AB30" s="22" t="n">
-        <v>5542082</v>
+        <v>7377556</v>
       </c>
       <c r="AC30" s="22" t="n">
-        <v>7377556</v>
+        <v>3866112</v>
       </c>
       <c r="AD30" s="22" t="n">
-        <v>3866112</v>
+        <v>2632828</v>
       </c>
       <c r="AE30" s="22" t="n">
-        <v>2632828</v>
+        <v>4800548</v>
       </c>
       <c r="AF30" s="22" t="n">
-        <v>4800548</v>
+        <v>4948513</v>
       </c>
       <c r="AG30" s="22" t="n">
-        <v>4948513</v>
+        <v>4838510</v>
       </c>
       <c r="AH30" s="22" t="n">
-        <v>4838510</v>
+        <v>5206680</v>
       </c>
       <c r="AI30" s="22" t="n">
-        <v>5206680</v>
+        <v>5572973</v>
       </c>
       <c r="AJ30" s="22" t="n">
-        <v>5572973</v>
+        <v>4674415</v>
       </c>
       <c r="AK30" s="22" t="n">
-        <v>4674415</v>
+        <v>4622101</v>
       </c>
       <c r="AL30" s="22" t="n">
-        <v>4622101</v>
+        <v>4943319</v>
       </c>
       <c r="AM30" s="22" t="n">
-        <v>4943319</v>
+        <v>4514858</v>
       </c>
       <c r="AN30" s="22" t="n">
-        <v>4514858</v>
+        <v>6300704</v>
       </c>
       <c r="AO30" s="22" t="n">
-        <v>6300704</v>
+        <v>5477276</v>
       </c>
       <c r="AP30" s="22" t="n">
-        <v>5477276</v>
+        <v>3517359</v>
       </c>
       <c r="AQ30" s="22" t="n">
-        <v>3517359</v>
+        <v>6010189</v>
       </c>
       <c r="AR30" s="22" t="n">
-        <v>6010189</v>
+        <v>7131931</v>
       </c>
       <c r="AS30" s="22" t="n">
-        <v>7131931</v>
+        <v>5102138</v>
       </c>
       <c r="AT30" s="22" t="n">
-        <v>5102138</v>
+        <v>5348757</v>
       </c>
       <c r="AU30" s="22" t="n">
-        <v>5348757</v>
+        <v>5655448</v>
       </c>
       <c r="AV30" s="22" t="n">
-        <v>5655448</v>
+        <v>4822212</v>
       </c>
       <c r="AW30" s="22" t="n">
-        <v>4822212</v>
+        <v>6612364</v>
       </c>
       <c r="AX30" s="22" t="n">
-        <v>6612364</v>
+        <v>6631061</v>
       </c>
       <c r="AY30" s="22" t="n">
-        <v>6631061</v>
+        <v>5488187</v>
       </c>
       <c r="AZ30" s="22" t="n">
-        <v>5488187</v>
+        <v>6214793</v>
       </c>
       <c r="BA30" s="22" t="n">
-        <v>6214793</v>
+        <v>5230351</v>
       </c>
       <c r="BB30" s="22" t="n">
-        <v>5230351</v>
+        <v>3010648</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,116 +6063,116 @@
       <c r="Q37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>57</v>
+      <c r="R37" s="13" t="n">
+        <v>107593</v>
       </c>
       <c r="S37" s="13" t="n">
-        <v>107593</v>
+        <v>266101</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>266101</v>
+        <v>318588</v>
       </c>
       <c r="U37" s="13" t="n">
-        <v>318588</v>
+        <v>315653</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>315653</v>
+        <v>290496</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>290496</v>
+        <v>267224</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>267224</v>
+        <v>295970</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>295970</v>
+        <v>314325</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>314325</v>
+        <v>214295</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>214295</v>
+        <v>314762</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>314762</v>
+        <v>439526</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>439526</v>
+        <v>326607</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>326607</v>
+        <v>238938</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>238938</v>
+        <v>447320</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>447320</v>
+        <v>396231</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>396231</v>
+        <v>362200</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>362200</v>
+        <v>294448</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>294448</v>
+        <v>218682</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>218682</v>
+        <v>409790</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>409790</v>
+        <v>398617</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>398617</v>
+        <v>334050</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>334050</v>
+        <v>308293</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>308293</v>
+        <v>531290</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>531290</v>
+        <v>271961</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>271961</v>
+        <v>241505</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>241505</v>
+        <v>438589</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>438589</v>
+        <v>514809</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>514809</v>
+        <v>331326</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>331326</v>
+        <v>359198</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>359198</v>
+        <v>423673</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>423673</v>
+        <v>375908</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>375908</v>
+        <v>450323</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>450323</v>
+        <v>498286</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>498286</v>
+        <v>473084</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>473084</v>
+        <v>715275</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>715275</v>
+        <v>633835</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>633835</v>
+        <v>506450</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6222,116 +6222,116 @@
       <c r="Q38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R38" s="16" t="s">
-        <v>57</v>
+      <c r="R38" s="16" t="n">
+        <v>165894</v>
       </c>
       <c r="S38" s="16" t="n">
-        <v>165894</v>
+        <v>396429</v>
       </c>
       <c r="T38" s="16" t="n">
-        <v>396429</v>
+        <v>400735</v>
       </c>
       <c r="U38" s="16" t="n">
-        <v>400735</v>
+        <v>598388</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>598388</v>
+        <v>516993</v>
       </c>
       <c r="W38" s="16" t="n">
-        <v>516993</v>
+        <v>561187</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>561187</v>
+        <v>597900</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>597900</v>
+        <v>607544</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>607544</v>
+        <v>516404</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>516404</v>
+        <v>622172</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>622172</v>
+        <v>913362</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>913362</v>
+        <v>757337</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>757337</v>
+        <v>347918</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>347918</v>
+        <v>598798</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>598798</v>
+        <v>620732</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>620732</v>
+        <v>769792</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>769792</v>
+        <v>796392</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>796392</v>
+        <v>981847</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>981847</v>
+        <v>520867</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>520867</v>
+        <v>731418</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>731418</v>
+        <v>705183</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>705183</v>
+        <v>778548</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>778548</v>
+        <v>978172</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>978172</v>
+        <v>925671</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>925671</v>
+        <v>492842</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>492842</v>
+        <v>975476</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>975476</v>
+        <v>1264826</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>1264826</v>
+        <v>935268</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>935268</v>
+        <v>1030803</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>1030803</v>
+        <v>1182779</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>1182779</v>
+        <v>915304</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>915304</v>
+        <v>1230799</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>1230799</v>
+        <v>1295845</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>1295845</v>
+        <v>1290144</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>1290144</v>
+        <v>1248645</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>1248645</v>
+        <v>1099631</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>1099631</v>
+        <v>579998</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,116 +6381,116 @@
       <c r="Q39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="13" t="s">
-        <v>57</v>
+      <c r="R39" s="13" t="n">
+        <v>27600</v>
       </c>
       <c r="S39" s="13" t="n">
-        <v>27600</v>
+        <v>139621</v>
       </c>
       <c r="T39" s="13" t="n">
-        <v>139621</v>
+        <v>151990</v>
       </c>
       <c r="U39" s="13" t="n">
-        <v>151990</v>
+        <v>167780</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>167780</v>
+        <v>177389</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>177389</v>
+        <v>229379</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>229379</v>
+        <v>218938</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>218938</v>
+        <v>225318</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>225318</v>
+        <v>141207</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>141207</v>
+        <v>308374</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>308374</v>
+        <v>458590</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>458590</v>
+        <v>254408</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>254408</v>
+        <v>102359</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>102359</v>
+        <v>350389</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>350389</v>
+        <v>287159</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>287159</v>
+        <v>353658</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>353658</v>
+        <v>194091</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>194091</v>
+        <v>234213</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>234213</v>
+        <v>439739</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>439739</v>
+        <v>459552</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>459552</v>
+        <v>429007</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>429007</v>
+        <v>387230</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>387230</v>
+        <v>624899</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>624899</v>
+        <v>380655</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>380655</v>
+        <v>296890</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>296890</v>
+        <v>677102</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>677102</v>
+        <v>717616</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>717616</v>
+        <v>769765</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>769765</v>
+        <v>616077</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>616077</v>
+        <v>995123</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>995123</v>
+        <v>499633</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>499633</v>
+        <v>1068222</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>1068222</v>
+        <v>986053</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>986053</v>
+        <v>869999</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>869999</v>
+        <v>751267</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>751267</v>
+        <v>626799</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>626799</v>
+        <v>389232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,8 +6597,8 @@
       <c r="Q41" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R41" s="20" t="s">
-        <v>57</v>
+      <c r="R41" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S41" s="23" t="n">
         <v>0</v>
@@ -6813,8 +6813,8 @@
       <c r="Q43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="20" t="s">
-        <v>57</v>
+      <c r="R43" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S43" s="23" t="n">
         <v>0</v>
@@ -7029,8 +7029,8 @@
       <c r="Q45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R45" s="13" t="s">
-        <v>57</v>
+      <c r="R45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S45" s="13" t="n">
         <v>0</v>
@@ -7187,115 +7187,115 @@
         <v>0</v>
       </c>
       <c r="R46" s="22" t="n">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="S46" s="22" t="n">
-        <v>301087</v>
+        <v>802151</v>
       </c>
       <c r="T46" s="22" t="n">
-        <v>802151</v>
+        <v>871313</v>
       </c>
       <c r="U46" s="22" t="n">
-        <v>871313</v>
+        <v>1081821</v>
       </c>
       <c r="V46" s="22" t="n">
-        <v>1081821</v>
+        <v>984878</v>
       </c>
       <c r="W46" s="22" t="n">
-        <v>984878</v>
+        <v>1057790</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>1057790</v>
+        <v>1112808</v>
       </c>
       <c r="Y46" s="22" t="n">
-        <v>1112808</v>
+        <v>1147187</v>
       </c>
       <c r="Z46" s="22" t="n">
-        <v>1147187</v>
+        <v>871906</v>
       </c>
       <c r="AA46" s="22" t="n">
-        <v>871906</v>
+        <v>1245308</v>
       </c>
       <c r="AB46" s="22" t="n">
-        <v>1245308</v>
+        <v>1811478</v>
       </c>
       <c r="AC46" s="22" t="n">
-        <v>1811478</v>
+        <v>1338352</v>
       </c>
       <c r="AD46" s="22" t="n">
-        <v>1338352</v>
+        <v>689215</v>
       </c>
       <c r="AE46" s="22" t="n">
-        <v>689215</v>
+        <v>1396507</v>
       </c>
       <c r="AF46" s="22" t="n">
-        <v>1396507</v>
+        <v>1304122</v>
       </c>
       <c r="AG46" s="22" t="n">
-        <v>1304122</v>
+        <v>1485650</v>
       </c>
       <c r="AH46" s="22" t="n">
-        <v>1485650</v>
+        <v>1284931</v>
       </c>
       <c r="AI46" s="22" t="n">
-        <v>1284931</v>
+        <v>1434742</v>
       </c>
       <c r="AJ46" s="22" t="n">
-        <v>1434742</v>
+        <v>1370396</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>1370396</v>
+        <v>1589587</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>1589587</v>
+        <v>1468240</v>
       </c>
       <c r="AM46" s="22" t="n">
-        <v>1468240</v>
+        <v>1474071</v>
       </c>
       <c r="AN46" s="22" t="n">
-        <v>1474071</v>
+        <v>2134361</v>
       </c>
       <c r="AO46" s="22" t="n">
-        <v>2134361</v>
+        <v>1578287</v>
       </c>
       <c r="AP46" s="22" t="n">
-        <v>1578287</v>
+        <v>1031237</v>
       </c>
       <c r="AQ46" s="22" t="n">
-        <v>1031237</v>
+        <v>2091167</v>
       </c>
       <c r="AR46" s="22" t="n">
-        <v>2091167</v>
+        <v>2497251</v>
       </c>
       <c r="AS46" s="22" t="n">
-        <v>2497251</v>
+        <v>2036359</v>
       </c>
       <c r="AT46" s="22" t="n">
-        <v>2036359</v>
+        <v>2006078</v>
       </c>
       <c r="AU46" s="22" t="n">
-        <v>2006078</v>
+        <v>2601575</v>
       </c>
       <c r="AV46" s="22" t="n">
-        <v>2601575</v>
+        <v>1790845</v>
       </c>
       <c r="AW46" s="22" t="n">
-        <v>1790845</v>
+        <v>2749344</v>
       </c>
       <c r="AX46" s="22" t="n">
-        <v>2749344</v>
+        <v>2780184</v>
       </c>
       <c r="AY46" s="22" t="n">
-        <v>2780184</v>
+        <v>2633227</v>
       </c>
       <c r="AZ46" s="22" t="n">
-        <v>2633227</v>
+        <v>2715187</v>
       </c>
       <c r="BA46" s="22" t="n">
-        <v>2715187</v>
+        <v>2360265</v>
       </c>
       <c r="BB46" s="22" t="n">
-        <v>2360265</v>
+        <v>1475680</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7779,116 +7779,116 @@
       <c r="Q53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R53" s="13" t="s">
-        <v>57</v>
+      <c r="R53" s="13" t="n">
+        <v>147587</v>
       </c>
       <c r="S53" s="13" t="n">
-        <v>147587</v>
+        <v>150088</v>
       </c>
       <c r="T53" s="13" t="n">
-        <v>150088</v>
+        <v>216933</v>
       </c>
       <c r="U53" s="13" t="n">
-        <v>216933</v>
+        <v>229139</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>229139</v>
+        <v>239723</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>239723</v>
+        <v>215174</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>215174</v>
+        <v>193803</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>193803</v>
+        <v>235407</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>235407</v>
+        <v>253268</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>253268</v>
+        <v>228864</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>228864</v>
+        <v>261425</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>261425</v>
+        <v>386250</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>386250</v>
+        <v>298148</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>298148</v>
+        <v>325139</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>325139</v>
+        <v>298752</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>298752</v>
+        <v>398053</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>398053</v>
+        <v>306923</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>306923</v>
+        <v>278915</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>278915</v>
+        <v>272686</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>272686</v>
+        <v>304769</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>304769</v>
+        <v>288336</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>288336</v>
+        <v>336880</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>336880</v>
+        <v>359462</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>359462</v>
+        <v>239893</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>239893</v>
+        <v>281003</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>281003</v>
+        <v>319368</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>319368</v>
+        <v>318743</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>318743</v>
+        <v>358517</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>358517</v>
+        <v>325250</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>325250</v>
+        <v>338521</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>338521</v>
+        <v>342060</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>342060</v>
+        <v>303963</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>303963</v>
+        <v>317201</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>317201</v>
+        <v>430056</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>430056</v>
+        <v>396859</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>396859</v>
+        <v>400305</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>400305</v>
+        <v>473030</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,116 +7938,116 @@
       <c r="Q54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R54" s="16" t="s">
-        <v>57</v>
+      <c r="R54" s="16" t="n">
+        <v>124710</v>
       </c>
       <c r="S54" s="16" t="n">
-        <v>124710</v>
+        <v>153406</v>
       </c>
       <c r="T54" s="16" t="n">
-        <v>153406</v>
+        <v>104636</v>
       </c>
       <c r="U54" s="16" t="n">
-        <v>104636</v>
+        <v>142071</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>142071</v>
+        <v>164199</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>164199</v>
+        <v>183081</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>183081</v>
+        <v>157116</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>157116</v>
+        <v>213313</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>213313</v>
+        <v>318383</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>318383</v>
+        <v>202764</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>202764</v>
+        <v>221125</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>221125</v>
+        <v>308027</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>308027</v>
+        <v>220933</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>220933</v>
+        <v>232835</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>232835</v>
+        <v>225050</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>225050</v>
+        <v>240585</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>240585</v>
+        <v>213600</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>213600</v>
+        <v>238454</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>238454</v>
+        <v>278515</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>278515</v>
+        <v>288990</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>288990</v>
+        <v>240378</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>240378</v>
+        <v>256222</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>256222</v>
+        <v>272017</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>272017</v>
+        <v>245571</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>245571</v>
+        <v>247186</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>247186</v>
+        <v>279010</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>279010</v>
+        <v>297052</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>297052</v>
+        <v>331334</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>331334</v>
+        <v>333064</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>333064</v>
+        <v>394927</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>394927</v>
+        <v>324558</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>324558</v>
+        <v>366519</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>366519</v>
+        <v>365179</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>365179</v>
+        <v>408008</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>408008</v>
+        <v>377304</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>377304</v>
+        <v>399892</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>399892</v>
+        <v>398143</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8097,116 +8097,116 @@
       <c r="Q55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R55" s="13" t="s">
-        <v>57</v>
+      <c r="R55" s="13" t="n">
+        <v>211754</v>
       </c>
       <c r="S55" s="13" t="n">
-        <v>211754</v>
+        <v>425937</v>
       </c>
       <c r="T55" s="13" t="n">
-        <v>425937</v>
+        <v>167383</v>
       </c>
       <c r="U55" s="13" t="n">
-        <v>167383</v>
+        <v>236840</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>236840</v>
+        <v>324400</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>324400</v>
+        <v>319533</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>319533</v>
+        <v>323084</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>323084</v>
+        <v>378462</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>378462</v>
+        <v>433990</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>433990</v>
+        <v>280774</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>280774</v>
+        <v>292885</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>292885</v>
+        <v>452800</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>452800</v>
+        <v>398826</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>398826</v>
+        <v>410775</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>410775</v>
+        <v>332349</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>332349</v>
+        <v>485185</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>485185</v>
+        <v>374045</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>374045</v>
+        <v>348855</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>348855</v>
+        <v>337881</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>337881</v>
+        <v>586746</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>586746</v>
+        <v>504040</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>504040</v>
+        <v>690066</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>690066</v>
+        <v>509415</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>509415</v>
+        <v>663008</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>663008</v>
+        <v>447048</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>447048</v>
+        <v>593591</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>593591</v>
+        <v>570042</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>570042</v>
+        <v>567988</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>567988</v>
+        <v>535967</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>535967</v>
+        <v>706273</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>706273</v>
+        <v>553240</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>553240</v>
+        <v>602570</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>602570</v>
+        <v>652299</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>652299</v>
+        <v>709579</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>709579</v>
+        <v>681074</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>681074</v>
+        <v>698657</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>698657</v>
+        <v>805465</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/monthly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB9CA78-5D25-4F6F-863A-E456FE1A9F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D443B-F945-4C6E-A5B4-134E01D37A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 2 منتهی به 1398/02</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1398/03</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1398/04</t>
@@ -187,6 +181,12 @@
     <t>ماه 3 منتهی به 1402/03</t>
   </si>
   <si>
+    <t>ماه 4 منتهی به 1402/04</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1402/05</t>
+  </si>
+  <si>
     <t>بهداشتی</t>
   </si>
   <si>
@@ -253,31 +253,31 @@
     <t>مبلغ مصرف انرژی</t>
   </si>
   <si>
-    <t>گاز طبیعی</t>
+    <t>برق</t>
   </si>
   <si>
     <t>آب</t>
   </si>
   <si>
-    <t>برق</t>
+    <t>گاز طبیعی</t>
   </si>
   <si>
     <t>مقدار مصرف انرژی</t>
   </si>
   <si>
-    <t>متر مکعب</t>
+    <t>مگاوات ساعت</t>
   </si>
   <si>
-    <t>مگاوات ساعت</t>
+    <t>متر مکعب</t>
   </si>
   <si>
     <t>نرخ مصرف انرژی</t>
   </si>
   <si>
-    <t>متر مکعب / ریال</t>
+    <t>مگاوات ساعت / ریال</t>
   </si>
   <si>
-    <t>مگاوات ساعت / ریال</t>
+    <t>متر مکعب / ریال</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB95"/>
+  <dimension ref="B1:BB94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1589,14 +1589,14 @@
       <c r="AK12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL12" s="9" t="s">
-        <v>57</v>
+      <c r="AL12" s="9">
+        <v>1932134</v>
       </c>
       <c r="AM12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN12" s="9">
-        <v>1932134</v>
+      <c r="AN12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AO12" s="9" t="s">
         <v>57</v>
@@ -1676,128 +1676,128 @@
       <c r="M13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>57</v>
+      <c r="N13" s="13">
+        <v>2195795</v>
+      </c>
+      <c r="O13" s="13">
+        <v>3816697</v>
       </c>
       <c r="P13" s="13">
-        <v>2195795</v>
+        <v>823357</v>
       </c>
       <c r="Q13" s="13">
-        <v>3816697</v>
+        <v>3393806</v>
       </c>
       <c r="R13" s="13">
-        <v>823357</v>
+        <v>2798099</v>
       </c>
       <c r="S13" s="13">
-        <v>3393806</v>
+        <v>3097213</v>
       </c>
       <c r="T13" s="13">
-        <v>2798099</v>
+        <v>3220843</v>
       </c>
       <c r="U13" s="13">
-        <v>3097213</v>
+        <v>3366608</v>
       </c>
       <c r="V13" s="13">
-        <v>3220843</v>
+        <v>4403965</v>
       </c>
       <c r="W13" s="13">
-        <v>3366608</v>
+        <v>2907633</v>
       </c>
       <c r="X13" s="13">
-        <v>4403965</v>
+        <v>4566369</v>
       </c>
       <c r="Y13" s="13">
-        <v>2907633</v>
+        <v>2705390</v>
       </c>
       <c r="Z13" s="13">
-        <v>4566369</v>
+        <v>1642770</v>
       </c>
       <c r="AA13" s="13">
-        <v>2705390</v>
+        <v>2447633</v>
       </c>
       <c r="AB13" s="13">
-        <v>1642770</v>
+        <v>2036103</v>
       </c>
       <c r="AC13" s="13">
-        <v>2447633</v>
+        <v>2979924</v>
       </c>
       <c r="AD13" s="13">
-        <v>2036103</v>
+        <v>3557736</v>
       </c>
       <c r="AE13" s="13">
-        <v>2979924</v>
+        <v>3443086</v>
       </c>
       <c r="AF13" s="13">
-        <v>3557736</v>
+        <v>2757778</v>
       </c>
       <c r="AG13" s="13">
-        <v>3443086</v>
+        <v>2537086</v>
       </c>
       <c r="AH13" s="13">
-        <v>2757778</v>
+        <v>2988597</v>
       </c>
       <c r="AI13" s="13">
-        <v>2537086</v>
+        <v>2540486</v>
       </c>
       <c r="AJ13" s="13">
-        <v>2988597</v>
+        <v>3162952</v>
       </c>
       <c r="AK13" s="13">
-        <v>2540486</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>3162952</v>
+        <v>2778131</v>
+      </c>
+      <c r="AL13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM13" s="13">
-        <v>2778131</v>
-      </c>
-      <c r="AN13" s="13" t="s">
-        <v>57</v>
+        <v>3794614</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>3971390</v>
       </c>
       <c r="AO13" s="13">
-        <v>3794614</v>
+        <v>3676123</v>
       </c>
       <c r="AP13" s="13">
-        <v>3971390</v>
+        <v>3596987</v>
       </c>
       <c r="AQ13" s="13">
-        <v>3676123</v>
+        <v>3462625</v>
       </c>
       <c r="AR13" s="13">
-        <v>3596987</v>
+        <v>3016636</v>
       </c>
       <c r="AS13" s="13">
-        <v>3462625</v>
+        <v>3415167</v>
       </c>
       <c r="AT13" s="13">
-        <v>3016636</v>
+        <v>3671469</v>
       </c>
       <c r="AU13" s="13">
-        <v>3415167</v>
+        <v>3698547</v>
       </c>
       <c r="AV13" s="13">
-        <v>3671469</v>
+        <v>4264337</v>
       </c>
       <c r="AW13" s="13">
-        <v>3698547</v>
+        <v>2522952</v>
       </c>
       <c r="AX13" s="13">
-        <v>4264337</v>
+        <v>1494064</v>
       </c>
       <c r="AY13" s="13">
-        <v>2522952</v>
+        <v>3925114</v>
       </c>
       <c r="AZ13" s="13">
-        <v>1494064</v>
+        <v>3529599</v>
       </c>
       <c r="BA13" s="13">
-        <v>3925114</v>
+        <v>2864699</v>
       </c>
       <c r="BB13" s="13">
-        <v>3529599</v>
+        <v>3821732</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1907,14 +1907,14 @@
       <c r="AK14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL14" s="9" t="s">
-        <v>57</v>
+      <c r="AL14" s="9">
+        <v>442941</v>
       </c>
       <c r="AM14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN14" s="9">
-        <v>442941</v>
+      <c r="AN14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AO14" s="9" t="s">
         <v>57</v>
@@ -1994,128 +1994,128 @@
       <c r="M15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>57</v>
+      <c r="N15" s="13">
+        <v>421040</v>
+      </c>
+      <c r="O15" s="13">
+        <v>342775</v>
       </c>
       <c r="P15" s="13">
-        <v>421040</v>
+        <v>354951</v>
       </c>
       <c r="Q15" s="13">
-        <v>342775</v>
+        <v>853232</v>
       </c>
       <c r="R15" s="13">
-        <v>354951</v>
+        <v>845689</v>
       </c>
       <c r="S15" s="13">
-        <v>853232</v>
+        <v>477805</v>
       </c>
       <c r="T15" s="13">
-        <v>845689</v>
+        <v>1049837</v>
       </c>
       <c r="U15" s="13">
-        <v>477805</v>
+        <v>874960</v>
       </c>
       <c r="V15" s="13">
-        <v>1049837</v>
+        <v>839661</v>
       </c>
       <c r="W15" s="13">
-        <v>874960</v>
+        <v>786573</v>
       </c>
       <c r="X15" s="13">
-        <v>839661</v>
+        <v>1454086</v>
       </c>
       <c r="Y15" s="13">
-        <v>786573</v>
+        <v>355611</v>
       </c>
       <c r="Z15" s="13">
-        <v>1454086</v>
+        <v>302700</v>
       </c>
       <c r="AA15" s="13">
-        <v>355611</v>
+        <v>576123</v>
       </c>
       <c r="AB15" s="13">
-        <v>302700</v>
+        <v>577501</v>
       </c>
       <c r="AC15" s="13">
-        <v>576123</v>
+        <v>812736</v>
       </c>
       <c r="AD15" s="13">
-        <v>577501</v>
+        <v>574197</v>
       </c>
       <c r="AE15" s="13">
-        <v>812736</v>
+        <v>679456</v>
       </c>
       <c r="AF15" s="13">
-        <v>574197</v>
+        <v>341164</v>
       </c>
       <c r="AG15" s="13">
-        <v>679456</v>
+        <v>717583</v>
       </c>
       <c r="AH15" s="13">
-        <v>341164</v>
+        <v>877199</v>
       </c>
       <c r="AI15" s="13">
-        <v>717583</v>
+        <v>864518</v>
       </c>
       <c r="AJ15" s="13">
-        <v>877199</v>
+        <v>747504</v>
       </c>
       <c r="AK15" s="13">
-        <v>864518</v>
-      </c>
-      <c r="AL15" s="13">
-        <v>747504</v>
+        <v>923051</v>
+      </c>
+      <c r="AL15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM15" s="13">
-        <v>923051</v>
-      </c>
-      <c r="AN15" s="13" t="s">
-        <v>57</v>
+        <v>477046</v>
+      </c>
+      <c r="AN15" s="13">
+        <v>577460</v>
       </c>
       <c r="AO15" s="13">
-        <v>477046</v>
+        <v>1047589</v>
       </c>
       <c r="AP15" s="13">
-        <v>577460</v>
+        <v>878119</v>
       </c>
       <c r="AQ15" s="13">
-        <v>1047589</v>
+        <v>580397</v>
       </c>
       <c r="AR15" s="13">
-        <v>878119</v>
+        <v>601962</v>
       </c>
       <c r="AS15" s="13">
-        <v>580397</v>
+        <v>833950</v>
       </c>
       <c r="AT15" s="13">
-        <v>601962</v>
+        <v>1098866</v>
       </c>
       <c r="AU15" s="13">
-        <v>833950</v>
+        <v>963219</v>
       </c>
       <c r="AV15" s="13">
-        <v>1098866</v>
+        <v>794921</v>
       </c>
       <c r="AW15" s="13">
-        <v>963219</v>
+        <v>552265</v>
       </c>
       <c r="AX15" s="13">
-        <v>794921</v>
+        <v>389175</v>
       </c>
       <c r="AY15" s="13">
-        <v>552265</v>
+        <v>1033341</v>
       </c>
       <c r="AZ15" s="13">
-        <v>389175</v>
+        <v>1694706</v>
       </c>
       <c r="BA15" s="13">
-        <v>1033341</v>
+        <v>237728</v>
       </c>
       <c r="BB15" s="13">
-        <v>1694706</v>
+        <v>680920</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2225,14 +2225,14 @@
       <c r="AK16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL16" s="9" t="s">
-        <v>57</v>
+      <c r="AL16" s="9">
+        <v>978365</v>
       </c>
       <c r="AM16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN16" s="9">
-        <v>978365</v>
+      <c r="AN16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AO16" s="9" t="s">
         <v>57</v>
@@ -2312,128 +2312,128 @@
       <c r="M17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>57</v>
+      <c r="N17" s="13">
+        <v>574685</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1685115</v>
       </c>
       <c r="P17" s="13">
-        <v>574685</v>
+        <v>1365965</v>
       </c>
       <c r="Q17" s="13">
-        <v>1685115</v>
+        <v>1559672</v>
       </c>
       <c r="R17" s="13">
-        <v>1365965</v>
+        <v>1233540</v>
       </c>
       <c r="S17" s="13">
-        <v>1559672</v>
+        <v>1364889</v>
       </c>
       <c r="T17" s="13">
-        <v>1233540</v>
+        <v>1274647</v>
       </c>
       <c r="U17" s="13">
-        <v>1364889</v>
+        <v>1651508</v>
       </c>
       <c r="V17" s="13">
-        <v>1274647</v>
+        <v>1873263</v>
       </c>
       <c r="W17" s="13">
-        <v>1651508</v>
+        <v>1308329</v>
       </c>
       <c r="X17" s="13">
-        <v>1873263</v>
+        <v>1875732</v>
       </c>
       <c r="Y17" s="13">
-        <v>1308329</v>
+        <v>1077736</v>
       </c>
       <c r="Z17" s="13">
-        <v>1875732</v>
+        <v>107160</v>
       </c>
       <c r="AA17" s="13">
-        <v>1077736</v>
+        <v>1464968</v>
       </c>
       <c r="AB17" s="13">
-        <v>107160</v>
+        <v>2164824</v>
       </c>
       <c r="AC17" s="13">
-        <v>1464968</v>
+        <v>951533</v>
       </c>
       <c r="AD17" s="13">
-        <v>2164824</v>
+        <v>604440</v>
       </c>
       <c r="AE17" s="13">
-        <v>951533</v>
+        <v>1062495</v>
       </c>
       <c r="AF17" s="13">
-        <v>604440</v>
+        <v>1539501</v>
       </c>
       <c r="AG17" s="13">
-        <v>1062495</v>
+        <v>944733</v>
       </c>
       <c r="AH17" s="13">
-        <v>1539501</v>
+        <v>1294565</v>
       </c>
       <c r="AI17" s="13">
-        <v>944733</v>
+        <v>1034399</v>
       </c>
       <c r="AJ17" s="13">
-        <v>1294565</v>
+        <v>1049813</v>
       </c>
       <c r="AK17" s="13">
-        <v>1034399</v>
-      </c>
-      <c r="AL17" s="13">
-        <v>1049813</v>
+        <v>425599</v>
+      </c>
+      <c r="AL17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM17" s="13">
-        <v>425599</v>
-      </c>
-      <c r="AN17" s="13" t="s">
-        <v>57</v>
+        <v>2088784</v>
+      </c>
+      <c r="AN17" s="13">
+        <v>2208362</v>
       </c>
       <c r="AO17" s="13">
-        <v>2088784</v>
+        <v>1484782</v>
       </c>
       <c r="AP17" s="13">
-        <v>2208362</v>
+        <v>1307987</v>
       </c>
       <c r="AQ17" s="13">
-        <v>1484782</v>
+        <v>1881955</v>
       </c>
       <c r="AR17" s="13">
-        <v>1307987</v>
+        <v>943499</v>
       </c>
       <c r="AS17" s="13">
-        <v>1881955</v>
+        <v>1624282</v>
       </c>
       <c r="AT17" s="13">
-        <v>943499</v>
+        <v>1789750</v>
       </c>
       <c r="AU17" s="13">
-        <v>1624282</v>
+        <v>1550341</v>
       </c>
       <c r="AV17" s="13">
-        <v>1789750</v>
+        <v>1845621</v>
       </c>
       <c r="AW17" s="13">
-        <v>1550341</v>
+        <v>1164185</v>
       </c>
       <c r="AX17" s="13">
-        <v>1845621</v>
+        <v>1227640</v>
       </c>
       <c r="AY17" s="13">
-        <v>1164185</v>
+        <v>1913672</v>
       </c>
       <c r="AZ17" s="13">
-        <v>1227640</v>
+        <v>1631670</v>
       </c>
       <c r="BA17" s="13">
-        <v>1913672</v>
+        <v>1765721</v>
       </c>
       <c r="BB17" s="13">
-        <v>1631670</v>
+        <v>1832821</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2684,127 +2684,127 @@
         <v>0</v>
       </c>
       <c r="N20" s="19">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="O20" s="19">
-        <v>0</v>
+        <v>5844587</v>
       </c>
       <c r="P20" s="19">
-        <v>3191520</v>
+        <v>2544273</v>
       </c>
       <c r="Q20" s="19">
-        <v>5844587</v>
+        <v>5806710</v>
       </c>
       <c r="R20" s="19">
-        <v>2544273</v>
+        <v>4877328</v>
       </c>
       <c r="S20" s="19">
-        <v>5806710</v>
+        <v>4939907</v>
       </c>
       <c r="T20" s="19">
-        <v>4877328</v>
+        <v>5545327</v>
       </c>
       <c r="U20" s="19">
-        <v>4939907</v>
+        <v>5893076</v>
       </c>
       <c r="V20" s="19">
-        <v>5545327</v>
+        <v>7116889</v>
       </c>
       <c r="W20" s="19">
-        <v>5893076</v>
+        <v>5002535</v>
       </c>
       <c r="X20" s="19">
-        <v>7116889</v>
+        <v>7896187</v>
       </c>
       <c r="Y20" s="19">
-        <v>5002535</v>
+        <v>4138737</v>
       </c>
       <c r="Z20" s="19">
-        <v>7896187</v>
+        <v>2052630</v>
       </c>
       <c r="AA20" s="19">
-        <v>4138737</v>
+        <v>4488724</v>
       </c>
       <c r="AB20" s="19">
-        <v>2052630</v>
+        <v>4778428</v>
       </c>
       <c r="AC20" s="19">
-        <v>4488724</v>
+        <v>4744193</v>
       </c>
       <c r="AD20" s="19">
-        <v>4778428</v>
+        <v>4736373</v>
       </c>
       <c r="AE20" s="19">
-        <v>4744193</v>
+        <v>5185037</v>
       </c>
       <c r="AF20" s="19">
-        <v>4736373</v>
+        <v>4638443</v>
       </c>
       <c r="AG20" s="19">
-        <v>5185037</v>
+        <v>4199402</v>
       </c>
       <c r="AH20" s="19">
-        <v>4638443</v>
+        <v>5160361</v>
       </c>
       <c r="AI20" s="19">
-        <v>4199402</v>
+        <v>4439403</v>
       </c>
       <c r="AJ20" s="19">
-        <v>5160361</v>
+        <v>4960269</v>
       </c>
       <c r="AK20" s="19">
-        <v>4439403</v>
+        <v>4126781</v>
       </c>
       <c r="AL20" s="19">
-        <v>4960269</v>
+        <v>3353440</v>
       </c>
       <c r="AM20" s="19">
-        <v>4126781</v>
+        <v>6360444</v>
       </c>
       <c r="AN20" s="19">
-        <v>3353440</v>
+        <v>6757212</v>
       </c>
       <c r="AO20" s="19">
-        <v>6360444</v>
+        <v>6208494</v>
       </c>
       <c r="AP20" s="19">
-        <v>6757212</v>
+        <v>5783093</v>
       </c>
       <c r="AQ20" s="19">
-        <v>6208494</v>
+        <v>5924977</v>
       </c>
       <c r="AR20" s="19">
-        <v>5783093</v>
+        <v>4562097</v>
       </c>
       <c r="AS20" s="19">
-        <v>5924977</v>
+        <v>5873399</v>
       </c>
       <c r="AT20" s="19">
-        <v>4562097</v>
+        <v>6560085</v>
       </c>
       <c r="AU20" s="19">
-        <v>5873399</v>
+        <v>6212107</v>
       </c>
       <c r="AV20" s="19">
-        <v>6560085</v>
+        <v>6904879</v>
       </c>
       <c r="AW20" s="19">
-        <v>6212107</v>
+        <v>4239402</v>
       </c>
       <c r="AX20" s="19">
-        <v>6904879</v>
+        <v>3110879</v>
       </c>
       <c r="AY20" s="19">
-        <v>4239402</v>
+        <v>6872127</v>
       </c>
       <c r="AZ20" s="19">
-        <v>3110879</v>
+        <v>6855975</v>
       </c>
       <c r="BA20" s="19">
-        <v>6872127</v>
+        <v>4868148</v>
       </c>
       <c r="BB20" s="19">
-        <v>6855975</v>
+        <v>6335473</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3403,14 +3403,14 @@
       <c r="AK28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL28" s="9" t="s">
-        <v>57</v>
+      <c r="AL28" s="9">
+        <v>1993809</v>
       </c>
       <c r="AM28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN28" s="9">
-        <v>1993809</v>
+      <c r="AN28" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AO28" s="9" t="s">
         <v>57</v>
@@ -3490,128 +3490,128 @@
       <c r="M29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>57</v>
+      <c r="N29" s="13">
+        <v>1330241</v>
+      </c>
+      <c r="O29" s="13">
+        <v>2584186</v>
       </c>
       <c r="P29" s="13">
-        <v>1330241</v>
+        <v>3829816</v>
       </c>
       <c r="Q29" s="13">
-        <v>2584186</v>
+        <v>4211906</v>
       </c>
       <c r="R29" s="13">
-        <v>3829816</v>
+        <v>3148574</v>
       </c>
       <c r="S29" s="13">
-        <v>4211906</v>
+        <v>3065231</v>
       </c>
       <c r="T29" s="13">
-        <v>3148574</v>
+        <v>3805474</v>
       </c>
       <c r="U29" s="13">
-        <v>3065231</v>
+        <v>2848136</v>
       </c>
       <c r="V29" s="13">
-        <v>3805474</v>
+        <v>1621960</v>
       </c>
       <c r="W29" s="13">
-        <v>2848136</v>
+        <v>3068458</v>
       </c>
       <c r="X29" s="13">
-        <v>1621960</v>
+        <v>4130520</v>
       </c>
       <c r="Y29" s="13">
-        <v>3068458</v>
+        <v>2458672</v>
       </c>
       <c r="Z29" s="13">
-        <v>4130520</v>
+        <v>1574769</v>
       </c>
       <c r="AA29" s="13">
-        <v>2458672</v>
+        <v>2571774</v>
       </c>
       <c r="AB29" s="13">
-        <v>1574769</v>
+        <v>2758197</v>
       </c>
       <c r="AC29" s="13">
-        <v>2571774</v>
+        <v>3199667</v>
       </c>
       <c r="AD29" s="13">
-        <v>2758197</v>
+        <v>3728428</v>
       </c>
       <c r="AE29" s="13">
-        <v>3199667</v>
+        <v>4117552</v>
       </c>
       <c r="AF29" s="13">
-        <v>3728428</v>
+        <v>1870160</v>
       </c>
       <c r="AG29" s="13">
-        <v>4117552</v>
+        <v>2530950</v>
       </c>
       <c r="AH29" s="13">
-        <v>1870160</v>
+        <v>2933640</v>
       </c>
       <c r="AI29" s="13">
-        <v>2530950</v>
+        <v>3038566</v>
       </c>
       <c r="AJ29" s="13">
-        <v>2933640</v>
+        <v>3595991</v>
       </c>
       <c r="AK29" s="13">
-        <v>3038566</v>
-      </c>
-      <c r="AL29" s="13">
-        <v>3595991</v>
+        <v>3769468</v>
+      </c>
+      <c r="AL29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM29" s="13">
-        <v>3769468</v>
-      </c>
-      <c r="AN29" s="13" t="s">
-        <v>57</v>
+        <v>3496200</v>
+      </c>
+      <c r="AN29" s="13">
+        <v>4257925</v>
       </c>
       <c r="AO29" s="13">
-        <v>3496200</v>
+        <v>2822733</v>
       </c>
       <c r="AP29" s="13">
-        <v>4257925</v>
+        <v>3094914</v>
       </c>
       <c r="AQ29" s="13">
-        <v>2822733</v>
+        <v>2994929</v>
       </c>
       <c r="AR29" s="13">
-        <v>3094914</v>
+        <v>2820154</v>
       </c>
       <c r="AS29" s="13">
-        <v>2994929</v>
+        <v>3358078</v>
       </c>
       <c r="AT29" s="13">
-        <v>2820154</v>
+        <v>3548516</v>
       </c>
       <c r="AU29" s="13">
-        <v>3358078</v>
+        <v>3162058</v>
       </c>
       <c r="AV29" s="13">
-        <v>3548516</v>
+        <v>3309390</v>
       </c>
       <c r="AW29" s="13">
-        <v>3162058</v>
+        <v>2749823</v>
       </c>
       <c r="AX29" s="13">
-        <v>3309390</v>
+        <v>1456757</v>
       </c>
       <c r="AY29" s="13">
-        <v>2749823</v>
+        <v>3711695</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1456757</v>
+        <v>4275118</v>
       </c>
       <c r="BA29" s="13">
-        <v>3711695</v>
+        <v>2791486</v>
       </c>
       <c r="BB29" s="13">
-        <v>4275118</v>
+        <v>3540978</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3721,14 +3721,14 @@
       <c r="AK30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL30" s="9" t="s">
-        <v>57</v>
+      <c r="AL30" s="9">
+        <v>664112</v>
       </c>
       <c r="AM30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN30" s="9">
-        <v>664112</v>
+      <c r="AN30" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AO30" s="9" t="s">
         <v>57</v>
@@ -3808,128 +3808,128 @@
       <c r="M31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>57</v>
+      <c r="N31" s="13">
+        <v>130340</v>
+      </c>
+      <c r="O31" s="13">
+        <v>327797</v>
       </c>
       <c r="P31" s="13">
-        <v>130340</v>
+        <v>908037</v>
       </c>
       <c r="Q31" s="13">
-        <v>327797</v>
+        <v>708411</v>
       </c>
       <c r="R31" s="13">
-        <v>908037</v>
+        <v>546822</v>
       </c>
       <c r="S31" s="13">
-        <v>708411</v>
+        <v>717857</v>
       </c>
       <c r="T31" s="13">
-        <v>546822</v>
+        <v>677650</v>
       </c>
       <c r="U31" s="13">
-        <v>717857</v>
+        <v>595352</v>
       </c>
       <c r="V31" s="13">
-        <v>677650</v>
+        <v>325369</v>
       </c>
       <c r="W31" s="13">
-        <v>595352</v>
+        <v>1098298</v>
       </c>
       <c r="X31" s="13">
-        <v>325369</v>
+        <v>1565769</v>
       </c>
       <c r="Y31" s="13">
-        <v>1098298</v>
+        <v>561855</v>
       </c>
       <c r="Z31" s="13">
-        <v>1565769</v>
+        <v>256651</v>
       </c>
       <c r="AA31" s="13">
-        <v>561855</v>
+        <v>852995</v>
       </c>
       <c r="AB31" s="13">
-        <v>256651</v>
+        <v>864028</v>
       </c>
       <c r="AC31" s="13">
-        <v>852995</v>
+        <v>728914</v>
       </c>
       <c r="AD31" s="13">
-        <v>864028</v>
+        <v>518898</v>
       </c>
       <c r="AE31" s="13">
-        <v>728914</v>
+        <v>671376</v>
       </c>
       <c r="AF31" s="13">
-        <v>518898</v>
+        <v>1301462</v>
       </c>
       <c r="AG31" s="13">
-        <v>671376</v>
+        <v>783221</v>
       </c>
       <c r="AH31" s="13">
-        <v>1301462</v>
+        <v>851136</v>
       </c>
       <c r="AI31" s="13">
-        <v>783221</v>
+        <v>561149</v>
       </c>
       <c r="AJ31" s="13">
-        <v>851136</v>
+        <v>1226699</v>
       </c>
       <c r="AK31" s="13">
-        <v>561149</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>1226699</v>
+        <v>574133</v>
+      </c>
+      <c r="AL31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM31" s="13">
-        <v>574133</v>
-      </c>
-      <c r="AN31" s="13" t="s">
-        <v>57</v>
+        <v>1140687</v>
+      </c>
+      <c r="AN31" s="13">
+        <v>1258883</v>
       </c>
       <c r="AO31" s="13">
-        <v>1140687</v>
+        <v>1355248</v>
       </c>
       <c r="AP31" s="13">
-        <v>1258883</v>
+        <v>1149468</v>
       </c>
       <c r="AQ31" s="13">
-        <v>1355248</v>
+        <v>1408978</v>
       </c>
       <c r="AR31" s="13">
-        <v>1149468</v>
+        <v>903103</v>
       </c>
       <c r="AS31" s="13">
-        <v>1408978</v>
+        <v>1772778</v>
       </c>
       <c r="AT31" s="13">
-        <v>903103</v>
+        <v>1511659</v>
       </c>
       <c r="AU31" s="13">
-        <v>1772778</v>
+        <v>1226078</v>
       </c>
       <c r="AV31" s="13">
-        <v>1511659</v>
+        <v>1103063</v>
       </c>
       <c r="AW31" s="13">
-        <v>1226078</v>
+        <v>897149</v>
       </c>
       <c r="AX31" s="13">
-        <v>1103063</v>
+        <v>483239</v>
       </c>
       <c r="AY31" s="13">
-        <v>897149</v>
+        <v>1068402</v>
       </c>
       <c r="AZ31" s="13">
-        <v>483239</v>
+        <v>1182909</v>
       </c>
       <c r="BA31" s="13">
-        <v>1068402</v>
+        <v>638468</v>
       </c>
       <c r="BB31" s="13">
-        <v>1182909</v>
+        <v>603993</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4039,14 +4039,14 @@
       <c r="AK32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AL32" s="9" t="s">
-        <v>57</v>
+      <c r="AL32" s="9">
+        <v>859438</v>
       </c>
       <c r="AM32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="9">
-        <v>859438</v>
+      <c r="AN32" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AO32" s="9" t="s">
         <v>57</v>
@@ -4126,128 +4126,128 @@
       <c r="M33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>57</v>
+      <c r="N33" s="13">
+        <v>729015</v>
+      </c>
+      <c r="O33" s="13">
+        <v>1772967</v>
       </c>
       <c r="P33" s="13">
-        <v>729015</v>
+        <v>1468600</v>
       </c>
       <c r="Q33" s="13">
-        <v>1772967</v>
+        <v>1377560</v>
       </c>
       <c r="R33" s="13">
-        <v>1468600</v>
+        <v>1211798</v>
       </c>
       <c r="S33" s="13">
-        <v>1377560</v>
+        <v>1241898</v>
       </c>
       <c r="T33" s="13">
-        <v>1211798</v>
+        <v>1527172</v>
       </c>
       <c r="U33" s="13">
-        <v>1241898</v>
+        <v>1335243</v>
       </c>
       <c r="V33" s="13">
-        <v>1527172</v>
+        <v>846121</v>
       </c>
       <c r="W33" s="13">
-        <v>1335243</v>
+        <v>1375326</v>
       </c>
       <c r="X33" s="13">
-        <v>846121</v>
+        <v>1681267</v>
       </c>
       <c r="Y33" s="13">
-        <v>1375326</v>
+        <v>845585</v>
       </c>
       <c r="Z33" s="13">
-        <v>1681267</v>
+        <v>801408</v>
       </c>
       <c r="AA33" s="13">
-        <v>845585</v>
+        <v>1375779</v>
       </c>
       <c r="AB33" s="13">
-        <v>801408</v>
+        <v>1326288</v>
       </c>
       <c r="AC33" s="13">
-        <v>1375779</v>
+        <v>909929</v>
       </c>
       <c r="AD33" s="13">
-        <v>1326288</v>
+        <v>959354</v>
       </c>
       <c r="AE33" s="13">
-        <v>909929</v>
+        <v>784045</v>
       </c>
       <c r="AF33" s="13">
-        <v>959354</v>
+        <v>1502793</v>
       </c>
       <c r="AG33" s="13">
-        <v>784045</v>
+        <v>1307930</v>
       </c>
       <c r="AH33" s="13">
-        <v>1502793</v>
+        <v>1158543</v>
       </c>
       <c r="AI33" s="13">
-        <v>1307930</v>
+        <v>915143</v>
       </c>
       <c r="AJ33" s="13">
-        <v>1158543</v>
+        <v>1478014</v>
       </c>
       <c r="AK33" s="13">
-        <v>915143</v>
-      </c>
-      <c r="AL33" s="13">
-        <v>1478014</v>
+        <v>1133675</v>
+      </c>
+      <c r="AL33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM33" s="13">
-        <v>1133675</v>
-      </c>
-      <c r="AN33" s="13" t="s">
-        <v>57</v>
+        <v>1373302</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>1615123</v>
       </c>
       <c r="AO33" s="13">
-        <v>1373302</v>
+        <v>924157</v>
       </c>
       <c r="AP33" s="13">
-        <v>1615123</v>
+        <v>1104375</v>
       </c>
       <c r="AQ33" s="13">
-        <v>924157</v>
+        <v>1251541</v>
       </c>
       <c r="AR33" s="13">
-        <v>1104375</v>
+        <v>1098955</v>
       </c>
       <c r="AS33" s="13">
-        <v>1251541</v>
+        <v>1481508</v>
       </c>
       <c r="AT33" s="13">
-        <v>1098955</v>
+        <v>1570886</v>
       </c>
       <c r="AU33" s="13">
-        <v>1481508</v>
+        <v>1100051</v>
       </c>
       <c r="AV33" s="13">
-        <v>1570886</v>
+        <v>1802340</v>
       </c>
       <c r="AW33" s="13">
-        <v>1100051</v>
+        <v>1583379</v>
       </c>
       <c r="AX33" s="13">
-        <v>1802340</v>
+        <v>1070652</v>
       </c>
       <c r="AY33" s="13">
-        <v>1583379</v>
+        <v>1857416</v>
       </c>
       <c r="AZ33" s="13">
-        <v>1070652</v>
+        <v>1695143</v>
       </c>
       <c r="BA33" s="13">
-        <v>1857416</v>
+        <v>2026061</v>
       </c>
       <c r="BB33" s="13">
-        <v>1695143</v>
+        <v>1374626</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4712,127 +4712,127 @@
         <v>0</v>
       </c>
       <c r="N38" s="19">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="O38" s="19">
-        <v>0</v>
+        <v>4684950</v>
       </c>
       <c r="P38" s="19">
-        <v>2189596</v>
+        <v>6206453</v>
       </c>
       <c r="Q38" s="19">
-        <v>4684950</v>
+        <v>6297877</v>
       </c>
       <c r="R38" s="19">
-        <v>6206453</v>
+        <v>4907194</v>
       </c>
       <c r="S38" s="19">
-        <v>6297877</v>
+        <v>5024986</v>
       </c>
       <c r="T38" s="19">
-        <v>4907194</v>
+        <v>6010296</v>
       </c>
       <c r="U38" s="19">
-        <v>5024986</v>
+        <v>4778731</v>
       </c>
       <c r="V38" s="19">
-        <v>6010296</v>
+        <v>2793450</v>
       </c>
       <c r="W38" s="19">
-        <v>4778731</v>
+        <v>5542082</v>
       </c>
       <c r="X38" s="19">
-        <v>2793450</v>
+        <v>7377556</v>
       </c>
       <c r="Y38" s="19">
-        <v>5542082</v>
+        <v>3866112</v>
       </c>
       <c r="Z38" s="19">
-        <v>7377556</v>
+        <v>2632828</v>
       </c>
       <c r="AA38" s="19">
-        <v>3866112</v>
+        <v>4800548</v>
       </c>
       <c r="AB38" s="19">
-        <v>2632828</v>
+        <v>4948513</v>
       </c>
       <c r="AC38" s="19">
-        <v>4800548</v>
+        <v>4838510</v>
       </c>
       <c r="AD38" s="19">
-        <v>4948513</v>
+        <v>5206680</v>
       </c>
       <c r="AE38" s="19">
-        <v>4838510</v>
+        <v>5572973</v>
       </c>
       <c r="AF38" s="19">
-        <v>5206680</v>
+        <v>4674415</v>
       </c>
       <c r="AG38" s="19">
-        <v>5572973</v>
+        <v>4622101</v>
       </c>
       <c r="AH38" s="19">
-        <v>4674415</v>
+        <v>4943319</v>
       </c>
       <c r="AI38" s="19">
-        <v>4622101</v>
+        <v>4514858</v>
       </c>
       <c r="AJ38" s="19">
-        <v>4943319</v>
+        <v>6300704</v>
       </c>
       <c r="AK38" s="19">
-        <v>4514858</v>
+        <v>5477276</v>
       </c>
       <c r="AL38" s="19">
-        <v>6300704</v>
+        <v>3517359</v>
       </c>
       <c r="AM38" s="19">
-        <v>5477276</v>
+        <v>6010189</v>
       </c>
       <c r="AN38" s="19">
-        <v>3517359</v>
+        <v>7131931</v>
       </c>
       <c r="AO38" s="19">
-        <v>6010189</v>
+        <v>5102138</v>
       </c>
       <c r="AP38" s="19">
-        <v>7131931</v>
+        <v>5348757</v>
       </c>
       <c r="AQ38" s="19">
-        <v>5102138</v>
+        <v>5655448</v>
       </c>
       <c r="AR38" s="19">
-        <v>5348757</v>
+        <v>4822212</v>
       </c>
       <c r="AS38" s="19">
-        <v>5655448</v>
+        <v>6612364</v>
       </c>
       <c r="AT38" s="19">
-        <v>4822212</v>
+        <v>6631061</v>
       </c>
       <c r="AU38" s="19">
-        <v>6612364</v>
+        <v>5488187</v>
       </c>
       <c r="AV38" s="19">
-        <v>6631061</v>
+        <v>6214793</v>
       </c>
       <c r="AW38" s="19">
-        <v>5488187</v>
+        <v>5230351</v>
       </c>
       <c r="AX38" s="19">
-        <v>6214793</v>
+        <v>3010648</v>
       </c>
       <c r="AY38" s="19">
-        <v>5230351</v>
+        <v>6637513</v>
       </c>
       <c r="AZ38" s="19">
-        <v>3010648</v>
+        <v>7153170</v>
       </c>
       <c r="BA38" s="19">
-        <v>6637513</v>
+        <v>5456015</v>
       </c>
       <c r="BB38" s="19">
-        <v>7153170</v>
+        <v>5519597</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5359,128 +5359,128 @@
       <c r="M46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>57</v>
+      <c r="N46" s="9">
+        <v>165894</v>
+      </c>
+      <c r="O46" s="9">
+        <v>396429</v>
       </c>
       <c r="P46" s="9">
-        <v>165894</v>
+        <v>400735</v>
       </c>
       <c r="Q46" s="9">
-        <v>396429</v>
+        <v>598388</v>
       </c>
       <c r="R46" s="9">
-        <v>400735</v>
+        <v>516993</v>
       </c>
       <c r="S46" s="9">
-        <v>598388</v>
+        <v>561187</v>
       </c>
       <c r="T46" s="9">
-        <v>516993</v>
+        <v>597900</v>
       </c>
       <c r="U46" s="9">
-        <v>561187</v>
+        <v>607544</v>
       </c>
       <c r="V46" s="9">
-        <v>597900</v>
+        <v>516404</v>
       </c>
       <c r="W46" s="9">
-        <v>607544</v>
+        <v>622172</v>
       </c>
       <c r="X46" s="9">
-        <v>516404</v>
+        <v>913362</v>
       </c>
       <c r="Y46" s="9">
-        <v>622172</v>
+        <v>757337</v>
       </c>
       <c r="Z46" s="9">
-        <v>913362</v>
+        <v>347918</v>
       </c>
       <c r="AA46" s="9">
-        <v>757337</v>
+        <v>598798</v>
       </c>
       <c r="AB46" s="9">
-        <v>347918</v>
+        <v>620732</v>
       </c>
       <c r="AC46" s="9">
-        <v>598798</v>
+        <v>769792</v>
       </c>
       <c r="AD46" s="9">
-        <v>620732</v>
+        <v>796392</v>
       </c>
       <c r="AE46" s="9">
-        <v>769792</v>
+        <v>981847</v>
       </c>
       <c r="AF46" s="9">
-        <v>796392</v>
+        <v>520867</v>
       </c>
       <c r="AG46" s="9">
-        <v>981847</v>
+        <v>731418</v>
       </c>
       <c r="AH46" s="9">
-        <v>520867</v>
+        <v>705183</v>
       </c>
       <c r="AI46" s="9">
-        <v>731418</v>
+        <v>778548</v>
       </c>
       <c r="AJ46" s="9">
-        <v>705183</v>
+        <v>978172</v>
       </c>
       <c r="AK46" s="9">
-        <v>778548</v>
+        <v>925671</v>
       </c>
       <c r="AL46" s="9">
-        <v>978172</v>
+        <v>492842</v>
       </c>
       <c r="AM46" s="9">
-        <v>925671</v>
+        <v>975476</v>
       </c>
       <c r="AN46" s="9">
-        <v>492842</v>
+        <v>1264826</v>
       </c>
       <c r="AO46" s="9">
-        <v>975476</v>
+        <v>935268</v>
       </c>
       <c r="AP46" s="9">
-        <v>1264826</v>
+        <v>1030803</v>
       </c>
       <c r="AQ46" s="9">
-        <v>935268</v>
+        <v>1182779</v>
       </c>
       <c r="AR46" s="9">
-        <v>1030803</v>
+        <v>915304</v>
       </c>
       <c r="AS46" s="9">
-        <v>1182779</v>
+        <v>1230799</v>
       </c>
       <c r="AT46" s="9">
-        <v>915304</v>
+        <v>1295845</v>
       </c>
       <c r="AU46" s="9">
-        <v>1230799</v>
+        <v>1290144</v>
       </c>
       <c r="AV46" s="9">
-        <v>1295845</v>
+        <v>1248645</v>
       </c>
       <c r="AW46" s="9">
-        <v>1290144</v>
+        <v>1067639</v>
       </c>
       <c r="AX46" s="9">
-        <v>1248645</v>
+        <v>579998</v>
       </c>
       <c r="AY46" s="9">
-        <v>1067639</v>
+        <v>1531365</v>
       </c>
       <c r="AZ46" s="9">
-        <v>579998</v>
+        <v>1747480</v>
       </c>
       <c r="BA46" s="9">
-        <v>1531365</v>
+        <v>1342891</v>
       </c>
       <c r="BB46" s="9">
-        <v>1747480</v>
+        <v>1547355</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5518,128 +5518,128 @@
       <c r="M47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>57</v>
+      <c r="N47" s="13">
+        <v>27600</v>
+      </c>
+      <c r="O47" s="13">
+        <v>139621</v>
       </c>
       <c r="P47" s="13">
-        <v>27600</v>
+        <v>151990</v>
       </c>
       <c r="Q47" s="13">
-        <v>139621</v>
+        <v>167780</v>
       </c>
       <c r="R47" s="13">
-        <v>151990</v>
+        <v>177389</v>
       </c>
       <c r="S47" s="13">
-        <v>167780</v>
+        <v>229379</v>
       </c>
       <c r="T47" s="13">
-        <v>177389</v>
+        <v>218938</v>
       </c>
       <c r="U47" s="13">
-        <v>229379</v>
+        <v>225318</v>
       </c>
       <c r="V47" s="13">
-        <v>218938</v>
+        <v>141207</v>
       </c>
       <c r="W47" s="13">
-        <v>225318</v>
+        <v>308374</v>
       </c>
       <c r="X47" s="13">
-        <v>141207</v>
+        <v>458590</v>
       </c>
       <c r="Y47" s="13">
-        <v>308374</v>
+        <v>254408</v>
       </c>
       <c r="Z47" s="13">
-        <v>458590</v>
+        <v>102359</v>
       </c>
       <c r="AA47" s="13">
-        <v>254408</v>
+        <v>350389</v>
       </c>
       <c r="AB47" s="13">
-        <v>102359</v>
+        <v>287159</v>
       </c>
       <c r="AC47" s="13">
-        <v>350389</v>
+        <v>353658</v>
       </c>
       <c r="AD47" s="13">
-        <v>287159</v>
+        <v>194091</v>
       </c>
       <c r="AE47" s="13">
-        <v>353658</v>
+        <v>234213</v>
       </c>
       <c r="AF47" s="13">
-        <v>194091</v>
+        <v>439739</v>
       </c>
       <c r="AG47" s="13">
-        <v>234213</v>
+        <v>459552</v>
       </c>
       <c r="AH47" s="13">
-        <v>439739</v>
+        <v>429007</v>
       </c>
       <c r="AI47" s="13">
-        <v>459552</v>
+        <v>387230</v>
       </c>
       <c r="AJ47" s="13">
-        <v>429007</v>
+        <v>624899</v>
       </c>
       <c r="AK47" s="13">
-        <v>387230</v>
+        <v>380655</v>
       </c>
       <c r="AL47" s="13">
-        <v>624899</v>
+        <v>296890</v>
       </c>
       <c r="AM47" s="13">
-        <v>380655</v>
+        <v>677102</v>
       </c>
       <c r="AN47" s="13">
-        <v>296890</v>
+        <v>717616</v>
       </c>
       <c r="AO47" s="13">
-        <v>677102</v>
+        <v>769765</v>
       </c>
       <c r="AP47" s="13">
-        <v>717616</v>
+        <v>616077</v>
       </c>
       <c r="AQ47" s="13">
-        <v>769765</v>
+        <v>995123</v>
       </c>
       <c r="AR47" s="13">
-        <v>616077</v>
+        <v>499633</v>
       </c>
       <c r="AS47" s="13">
-        <v>995123</v>
+        <v>1068222</v>
       </c>
       <c r="AT47" s="13">
-        <v>499633</v>
+        <v>986053</v>
       </c>
       <c r="AU47" s="13">
-        <v>1068222</v>
+        <v>869999</v>
       </c>
       <c r="AV47" s="13">
-        <v>986053</v>
+        <v>751267</v>
       </c>
       <c r="AW47" s="13">
-        <v>869999</v>
+        <v>626799</v>
       </c>
       <c r="AX47" s="13">
-        <v>751267</v>
+        <v>389232</v>
       </c>
       <c r="AY47" s="13">
-        <v>626799</v>
+        <v>962709</v>
       </c>
       <c r="AZ47" s="13">
-        <v>389232</v>
+        <v>620888</v>
       </c>
       <c r="BA47" s="13">
-        <v>962709</v>
+        <v>626831</v>
       </c>
       <c r="BB47" s="13">
-        <v>620888</v>
+        <v>581086</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5677,128 +5677,128 @@
       <c r="M48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>57</v>
+      <c r="N48" s="9">
+        <v>107593</v>
+      </c>
+      <c r="O48" s="9">
+        <v>266101</v>
       </c>
       <c r="P48" s="9">
-        <v>107593</v>
+        <v>318588</v>
       </c>
       <c r="Q48" s="9">
-        <v>266101</v>
+        <v>315653</v>
       </c>
       <c r="R48" s="9">
-        <v>318588</v>
+        <v>290496</v>
       </c>
       <c r="S48" s="9">
-        <v>315653</v>
+        <v>267224</v>
       </c>
       <c r="T48" s="9">
-        <v>290496</v>
+        <v>295970</v>
       </c>
       <c r="U48" s="9">
-        <v>267224</v>
+        <v>314325</v>
       </c>
       <c r="V48" s="9">
-        <v>295970</v>
+        <v>214295</v>
       </c>
       <c r="W48" s="9">
-        <v>314325</v>
+        <v>314762</v>
       </c>
       <c r="X48" s="9">
-        <v>214295</v>
+        <v>439526</v>
       </c>
       <c r="Y48" s="9">
-        <v>314762</v>
+        <v>326607</v>
       </c>
       <c r="Z48" s="9">
-        <v>439526</v>
+        <v>238938</v>
       </c>
       <c r="AA48" s="9">
-        <v>326607</v>
+        <v>447320</v>
       </c>
       <c r="AB48" s="9">
-        <v>238938</v>
+        <v>396231</v>
       </c>
       <c r="AC48" s="9">
-        <v>447320</v>
+        <v>362200</v>
       </c>
       <c r="AD48" s="9">
-        <v>396231</v>
+        <v>294448</v>
       </c>
       <c r="AE48" s="9">
-        <v>362200</v>
+        <v>218682</v>
       </c>
       <c r="AF48" s="9">
-        <v>294448</v>
+        <v>409790</v>
       </c>
       <c r="AG48" s="9">
-        <v>218682</v>
+        <v>398617</v>
       </c>
       <c r="AH48" s="9">
-        <v>409790</v>
+        <v>334050</v>
       </c>
       <c r="AI48" s="9">
-        <v>398617</v>
+        <v>308293</v>
       </c>
       <c r="AJ48" s="9">
-        <v>334050</v>
+        <v>531290</v>
       </c>
       <c r="AK48" s="9">
-        <v>308293</v>
+        <v>271961</v>
       </c>
       <c r="AL48" s="9">
-        <v>531290</v>
+        <v>241505</v>
       </c>
       <c r="AM48" s="9">
-        <v>271961</v>
+        <v>438589</v>
       </c>
       <c r="AN48" s="9">
-        <v>241505</v>
+        <v>514809</v>
       </c>
       <c r="AO48" s="9">
-        <v>438589</v>
+        <v>331326</v>
       </c>
       <c r="AP48" s="9">
-        <v>514809</v>
+        <v>359198</v>
       </c>
       <c r="AQ48" s="9">
-        <v>331326</v>
+        <v>423673</v>
       </c>
       <c r="AR48" s="9">
-        <v>359198</v>
+        <v>375908</v>
       </c>
       <c r="AS48" s="9">
-        <v>423673</v>
+        <v>450323</v>
       </c>
       <c r="AT48" s="9">
-        <v>375908</v>
+        <v>498286</v>
       </c>
       <c r="AU48" s="9">
-        <v>450323</v>
+        <v>473084</v>
       </c>
       <c r="AV48" s="9">
-        <v>498286</v>
+        <v>715275</v>
       </c>
       <c r="AW48" s="9">
-        <v>473084</v>
+        <v>633835</v>
       </c>
       <c r="AX48" s="9">
-        <v>715275</v>
+        <v>506450</v>
       </c>
       <c r="AY48" s="9">
-        <v>633835</v>
+        <v>953314</v>
       </c>
       <c r="AZ48" s="9">
-        <v>506450</v>
+        <v>1387890</v>
       </c>
       <c r="BA48" s="9">
-        <v>953314</v>
+        <v>1196498</v>
       </c>
       <c r="BB48" s="9">
-        <v>1387890</v>
+        <v>848807</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6321,11 +6321,11 @@
       <c r="M54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>57</v>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
+        <v>0</v>
       </c>
       <c r="P54" s="9">
         <v>0</v>
@@ -6636,127 +6636,127 @@
         <v>0</v>
       </c>
       <c r="N56" s="17">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="O56" s="17">
-        <v>0</v>
+        <v>802151</v>
       </c>
       <c r="P56" s="17">
-        <v>301087</v>
+        <v>871313</v>
       </c>
       <c r="Q56" s="17">
-        <v>802151</v>
+        <v>1081821</v>
       </c>
       <c r="R56" s="17">
-        <v>871313</v>
+        <v>984878</v>
       </c>
       <c r="S56" s="17">
-        <v>1081821</v>
+        <v>1057790</v>
       </c>
       <c r="T56" s="17">
-        <v>984878</v>
+        <v>1112808</v>
       </c>
       <c r="U56" s="17">
-        <v>1057790</v>
+        <v>1147187</v>
       </c>
       <c r="V56" s="17">
-        <v>1112808</v>
+        <v>871906</v>
       </c>
       <c r="W56" s="17">
-        <v>1147187</v>
+        <v>1245308</v>
       </c>
       <c r="X56" s="17">
-        <v>871906</v>
+        <v>1811478</v>
       </c>
       <c r="Y56" s="17">
-        <v>1245308</v>
+        <v>1338352</v>
       </c>
       <c r="Z56" s="17">
-        <v>1811478</v>
+        <v>689215</v>
       </c>
       <c r="AA56" s="17">
-        <v>1338352</v>
+        <v>1396507</v>
       </c>
       <c r="AB56" s="17">
-        <v>689215</v>
+        <v>1304122</v>
       </c>
       <c r="AC56" s="17">
-        <v>1396507</v>
+        <v>1485650</v>
       </c>
       <c r="AD56" s="17">
-        <v>1304122</v>
+        <v>1284931</v>
       </c>
       <c r="AE56" s="17">
-        <v>1485650</v>
+        <v>1434742</v>
       </c>
       <c r="AF56" s="17">
-        <v>1284931</v>
+        <v>1370396</v>
       </c>
       <c r="AG56" s="17">
-        <v>1434742</v>
+        <v>1589587</v>
       </c>
       <c r="AH56" s="17">
-        <v>1370396</v>
+        <v>1468240</v>
       </c>
       <c r="AI56" s="17">
-        <v>1589587</v>
+        <v>1474071</v>
       </c>
       <c r="AJ56" s="17">
-        <v>1468240</v>
+        <v>2134361</v>
       </c>
       <c r="AK56" s="17">
-        <v>1474071</v>
+        <v>1578287</v>
       </c>
       <c r="AL56" s="17">
-        <v>2134361</v>
+        <v>1031237</v>
       </c>
       <c r="AM56" s="17">
-        <v>1578287</v>
+        <v>2091167</v>
       </c>
       <c r="AN56" s="17">
-        <v>1031237</v>
+        <v>2497251</v>
       </c>
       <c r="AO56" s="17">
-        <v>2091167</v>
+        <v>2036359</v>
       </c>
       <c r="AP56" s="17">
-        <v>2497251</v>
+        <v>2006078</v>
       </c>
       <c r="AQ56" s="17">
-        <v>2036359</v>
+        <v>2601575</v>
       </c>
       <c r="AR56" s="17">
-        <v>2006078</v>
+        <v>1790845</v>
       </c>
       <c r="AS56" s="17">
-        <v>2601575</v>
+        <v>2749344</v>
       </c>
       <c r="AT56" s="17">
-        <v>1790845</v>
+        <v>2780184</v>
       </c>
       <c r="AU56" s="17">
-        <v>2749344</v>
+        <v>2633227</v>
       </c>
       <c r="AV56" s="17">
-        <v>2780184</v>
+        <v>2715187</v>
       </c>
       <c r="AW56" s="17">
-        <v>2633227</v>
+        <v>2328273</v>
       </c>
       <c r="AX56" s="17">
-        <v>2715187</v>
+        <v>1475680</v>
       </c>
       <c r="AY56" s="17">
-        <v>2328273</v>
+        <v>3447388</v>
       </c>
       <c r="AZ56" s="17">
-        <v>1475680</v>
+        <v>3756258</v>
       </c>
       <c r="BA56" s="17">
-        <v>3447388</v>
+        <v>3166220</v>
       </c>
       <c r="BB56" s="17">
-        <v>3756258</v>
+        <v>2977248</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7283,128 +7283,128 @@
       <c r="M64" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>57</v>
+      <c r="N64" s="9">
+        <v>124710</v>
+      </c>
+      <c r="O64" s="9">
+        <v>153406</v>
       </c>
       <c r="P64" s="9">
-        <v>124710</v>
+        <v>104636</v>
       </c>
       <c r="Q64" s="9">
-        <v>153406</v>
+        <v>142071</v>
       </c>
       <c r="R64" s="9">
-        <v>104636</v>
+        <v>164199</v>
       </c>
       <c r="S64" s="9">
-        <v>142071</v>
+        <v>183081</v>
       </c>
       <c r="T64" s="9">
-        <v>164199</v>
+        <v>157116</v>
       </c>
       <c r="U64" s="9">
-        <v>183081</v>
+        <v>213313</v>
       </c>
       <c r="V64" s="9">
-        <v>157116</v>
+        <v>318383</v>
       </c>
       <c r="W64" s="9">
-        <v>213313</v>
+        <v>202764</v>
       </c>
       <c r="X64" s="9">
-        <v>318383</v>
+        <v>221125</v>
       </c>
       <c r="Y64" s="9">
-        <v>202764</v>
+        <v>308027</v>
       </c>
       <c r="Z64" s="9">
-        <v>221125</v>
+        <v>220933</v>
       </c>
       <c r="AA64" s="9">
-        <v>308027</v>
+        <v>232835</v>
       </c>
       <c r="AB64" s="9">
-        <v>220933</v>
+        <v>225050</v>
       </c>
       <c r="AC64" s="9">
-        <v>232835</v>
+        <v>240585</v>
       </c>
       <c r="AD64" s="9">
-        <v>225050</v>
+        <v>213600</v>
       </c>
       <c r="AE64" s="9">
-        <v>240585</v>
+        <v>238454</v>
       </c>
       <c r="AF64" s="9">
-        <v>213600</v>
+        <v>278515</v>
       </c>
       <c r="AG64" s="9">
-        <v>238454</v>
+        <v>288990</v>
       </c>
       <c r="AH64" s="9">
-        <v>278515</v>
+        <v>240378</v>
       </c>
       <c r="AI64" s="9">
-        <v>288990</v>
+        <v>256222</v>
       </c>
       <c r="AJ64" s="9">
-        <v>240378</v>
+        <v>272017</v>
       </c>
       <c r="AK64" s="9">
-        <v>256222</v>
+        <v>245571</v>
       </c>
       <c r="AL64" s="9">
-        <v>272017</v>
+        <v>247186</v>
       </c>
       <c r="AM64" s="9">
-        <v>245571</v>
+        <v>279010</v>
       </c>
       <c r="AN64" s="9">
-        <v>247186</v>
+        <v>297052</v>
       </c>
       <c r="AO64" s="9">
-        <v>279010</v>
+        <v>331334</v>
       </c>
       <c r="AP64" s="9">
-        <v>297052</v>
+        <v>333064</v>
       </c>
       <c r="AQ64" s="9">
-        <v>331334</v>
+        <v>394927</v>
       </c>
       <c r="AR64" s="9">
-        <v>333064</v>
+        <v>324558</v>
       </c>
       <c r="AS64" s="9">
-        <v>394927</v>
+        <v>366519</v>
       </c>
       <c r="AT64" s="9">
-        <v>324558</v>
+        <v>365179</v>
       </c>
       <c r="AU64" s="9">
-        <v>366519</v>
+        <v>408008</v>
       </c>
       <c r="AV64" s="9">
-        <v>365179</v>
+        <v>377304</v>
       </c>
       <c r="AW64" s="9">
-        <v>408008</v>
+        <v>388257</v>
       </c>
       <c r="AX64" s="9">
-        <v>377304</v>
+        <v>398143</v>
       </c>
       <c r="AY64" s="9">
-        <v>388257</v>
+        <v>412578</v>
       </c>
       <c r="AZ64" s="9">
-        <v>398143</v>
+        <v>408756</v>
       </c>
       <c r="BA64" s="9">
-        <v>412578</v>
+        <v>481067</v>
       </c>
       <c r="BB64" s="9">
-        <v>408756</v>
+        <v>436985</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7442,128 +7442,128 @@
       <c r="M65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O65" s="13" t="s">
-        <v>57</v>
+      <c r="N65" s="13">
+        <v>211754</v>
+      </c>
+      <c r="O65" s="13">
+        <v>425937</v>
       </c>
       <c r="P65" s="13">
-        <v>211754</v>
+        <v>167383</v>
       </c>
       <c r="Q65" s="13">
-        <v>425937</v>
+        <v>236840</v>
       </c>
       <c r="R65" s="13">
-        <v>167383</v>
+        <v>324400</v>
       </c>
       <c r="S65" s="13">
-        <v>236840</v>
+        <v>319533</v>
       </c>
       <c r="T65" s="13">
-        <v>324400</v>
+        <v>323084</v>
       </c>
       <c r="U65" s="13">
-        <v>319533</v>
+        <v>378462</v>
       </c>
       <c r="V65" s="13">
-        <v>323084</v>
+        <v>433990</v>
       </c>
       <c r="W65" s="13">
-        <v>378462</v>
+        <v>280774</v>
       </c>
       <c r="X65" s="13">
-        <v>433990</v>
+        <v>292885</v>
       </c>
       <c r="Y65" s="13">
-        <v>280774</v>
+        <v>452800</v>
       </c>
       <c r="Z65" s="13">
-        <v>292885</v>
+        <v>398826</v>
       </c>
       <c r="AA65" s="13">
-        <v>452800</v>
+        <v>410775</v>
       </c>
       <c r="AB65" s="13">
-        <v>398826</v>
+        <v>332349</v>
       </c>
       <c r="AC65" s="13">
-        <v>410775</v>
+        <v>485185</v>
       </c>
       <c r="AD65" s="13">
-        <v>332349</v>
+        <v>374045</v>
       </c>
       <c r="AE65" s="13">
-        <v>485185</v>
+        <v>348855</v>
       </c>
       <c r="AF65" s="13">
-        <v>374045</v>
+        <v>337881</v>
       </c>
       <c r="AG65" s="13">
-        <v>348855</v>
+        <v>586746</v>
       </c>
       <c r="AH65" s="13">
-        <v>337881</v>
+        <v>504040</v>
       </c>
       <c r="AI65" s="13">
-        <v>586746</v>
+        <v>690066</v>
       </c>
       <c r="AJ65" s="13">
-        <v>504040</v>
+        <v>509415</v>
       </c>
       <c r="AK65" s="13">
-        <v>690066</v>
+        <v>663008</v>
       </c>
       <c r="AL65" s="13">
-        <v>509415</v>
+        <v>447048</v>
       </c>
       <c r="AM65" s="13">
-        <v>663008</v>
+        <v>593591</v>
       </c>
       <c r="AN65" s="13">
-        <v>447048</v>
+        <v>570042</v>
       </c>
       <c r="AO65" s="13">
-        <v>593591</v>
+        <v>567988</v>
       </c>
       <c r="AP65" s="13">
-        <v>570042</v>
+        <v>535967</v>
       </c>
       <c r="AQ65" s="13">
-        <v>567988</v>
+        <v>706273</v>
       </c>
       <c r="AR65" s="13">
-        <v>535967</v>
+        <v>553240</v>
       </c>
       <c r="AS65" s="13">
-        <v>706273</v>
+        <v>602570</v>
       </c>
       <c r="AT65" s="13">
-        <v>553240</v>
+        <v>652299</v>
       </c>
       <c r="AU65" s="13">
-        <v>602570</v>
+        <v>709579</v>
       </c>
       <c r="AV65" s="13">
-        <v>652299</v>
+        <v>681074</v>
       </c>
       <c r="AW65" s="13">
-        <v>709579</v>
+        <v>698657</v>
       </c>
       <c r="AX65" s="13">
-        <v>681074</v>
+        <v>805465</v>
       </c>
       <c r="AY65" s="13">
-        <v>698657</v>
+        <v>901074</v>
       </c>
       <c r="AZ65" s="13">
-        <v>805465</v>
+        <v>524882</v>
       </c>
       <c r="BA65" s="13">
-        <v>901074</v>
+        <v>981774</v>
       </c>
       <c r="BB65" s="13">
-        <v>524882</v>
+        <v>962074</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7601,128 +7601,128 @@
       <c r="M66" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N66" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>57</v>
+      <c r="N66" s="9">
+        <v>147587</v>
+      </c>
+      <c r="O66" s="9">
+        <v>150088</v>
       </c>
       <c r="P66" s="9">
-        <v>147587</v>
+        <v>216933</v>
       </c>
       <c r="Q66" s="9">
-        <v>150088</v>
+        <v>229139</v>
       </c>
       <c r="R66" s="9">
-        <v>216933</v>
+        <v>239723</v>
       </c>
       <c r="S66" s="9">
-        <v>229139</v>
+        <v>215174</v>
       </c>
       <c r="T66" s="9">
-        <v>239723</v>
+        <v>193803</v>
       </c>
       <c r="U66" s="9">
-        <v>215174</v>
+        <v>235407</v>
       </c>
       <c r="V66" s="9">
-        <v>193803</v>
+        <v>253268</v>
       </c>
       <c r="W66" s="9">
-        <v>235407</v>
+        <v>228864</v>
       </c>
       <c r="X66" s="9">
-        <v>253268</v>
+        <v>261425</v>
       </c>
       <c r="Y66" s="9">
-        <v>228864</v>
+        <v>386250</v>
       </c>
       <c r="Z66" s="9">
-        <v>261425</v>
+        <v>298148</v>
       </c>
       <c r="AA66" s="9">
-        <v>386250</v>
+        <v>325139</v>
       </c>
       <c r="AB66" s="9">
-        <v>298148</v>
+        <v>298752</v>
       </c>
       <c r="AC66" s="9">
-        <v>325139</v>
+        <v>398053</v>
       </c>
       <c r="AD66" s="9">
-        <v>298752</v>
+        <v>306923</v>
       </c>
       <c r="AE66" s="9">
-        <v>398053</v>
+        <v>278915</v>
       </c>
       <c r="AF66" s="9">
-        <v>306923</v>
+        <v>272686</v>
       </c>
       <c r="AG66" s="9">
-        <v>278915</v>
+        <v>304769</v>
       </c>
       <c r="AH66" s="9">
-        <v>272686</v>
+        <v>288336</v>
       </c>
       <c r="AI66" s="9">
-        <v>304769</v>
+        <v>336880</v>
       </c>
       <c r="AJ66" s="9">
-        <v>288336</v>
+        <v>359462</v>
       </c>
       <c r="AK66" s="9">
-        <v>336880</v>
+        <v>239893</v>
       </c>
       <c r="AL66" s="9">
-        <v>359462</v>
+        <v>281003</v>
       </c>
       <c r="AM66" s="9">
-        <v>239893</v>
+        <v>319368</v>
       </c>
       <c r="AN66" s="9">
-        <v>281003</v>
+        <v>318743</v>
       </c>
       <c r="AO66" s="9">
-        <v>319368</v>
+        <v>358517</v>
       </c>
       <c r="AP66" s="9">
-        <v>318743</v>
+        <v>325250</v>
       </c>
       <c r="AQ66" s="9">
-        <v>358517</v>
+        <v>338521</v>
       </c>
       <c r="AR66" s="9">
-        <v>325250</v>
+        <v>342060</v>
       </c>
       <c r="AS66" s="9">
-        <v>338521</v>
+        <v>303963</v>
       </c>
       <c r="AT66" s="9">
-        <v>342060</v>
+        <v>317201</v>
       </c>
       <c r="AU66" s="9">
-        <v>303963</v>
+        <v>430056</v>
       </c>
       <c r="AV66" s="9">
-        <v>317201</v>
+        <v>396859</v>
       </c>
       <c r="AW66" s="9">
-        <v>430056</v>
+        <v>400305</v>
       </c>
       <c r="AX66" s="9">
-        <v>396859</v>
+        <v>473030</v>
       </c>
       <c r="AY66" s="9">
-        <v>400305</v>
+        <v>513247</v>
       </c>
       <c r="AZ66" s="9">
-        <v>473030</v>
+        <v>818745</v>
       </c>
       <c r="BA66" s="9">
-        <v>513247</v>
+        <v>590554</v>
       </c>
       <c r="BB66" s="9">
-        <v>818745</v>
+        <v>617482</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8297,23 +8297,23 @@
       <c r="AV73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW73" s="13">
-        <v>457</v>
+      <c r="AW73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX73" s="13">
-        <v>470</v>
+        <v>730</v>
       </c>
       <c r="AY73" s="13">
-        <v>451</v>
+        <v>746</v>
       </c>
       <c r="AZ73" s="13">
-        <v>444</v>
+        <v>746</v>
       </c>
       <c r="BA73" s="13">
-        <v>444</v>
+        <v>762</v>
       </c>
       <c r="BB73" s="13">
-        <v>444</v>
+        <v>750</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -8456,23 +8456,23 @@
       <c r="AV74" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AW74" s="9">
-        <v>475</v>
+      <c r="AW74" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AX74" s="9">
-        <v>775</v>
+        <v>460</v>
       </c>
       <c r="AY74" s="9">
-        <v>494</v>
+        <v>4649</v>
       </c>
       <c r="AZ74" s="9">
         <v>460</v>
       </c>
       <c r="BA74" s="9">
-        <v>4649</v>
+        <v>465</v>
       </c>
       <c r="BB74" s="9">
-        <v>460</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -8615,23 +8615,23 @@
       <c r="AV75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW75" s="13">
-        <v>955</v>
+      <c r="AW75" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX75" s="13">
-        <v>987</v>
+        <v>444</v>
       </c>
       <c r="AY75" s="13">
-        <v>780</v>
+        <v>444</v>
       </c>
       <c r="AZ75" s="13">
-        <v>730</v>
+        <v>444</v>
       </c>
       <c r="BA75" s="13">
-        <v>746</v>
+        <v>444</v>
       </c>
       <c r="BB75" s="13">
-        <v>746</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -8773,22 +8773,22 @@
         <v>0</v>
       </c>
       <c r="AW76" s="17">
-        <v>1887</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="17">
-        <v>2232</v>
+        <v>1634</v>
       </c>
       <c r="AY76" s="17">
-        <v>1725</v>
+        <v>5839</v>
       </c>
       <c r="AZ76" s="17">
-        <v>1634</v>
+        <v>1650</v>
       </c>
       <c r="BA76" s="17">
-        <v>5839</v>
+        <v>1671</v>
       </c>
       <c r="BB76" s="17">
-        <v>1650</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9363,23 +9363,23 @@
       <c r="AV83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW83" s="13">
-        <v>72000</v>
+      <c r="AW83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX83" s="13">
-        <v>74000</v>
+        <v>450</v>
       </c>
       <c r="AY83" s="13">
-        <v>71000</v>
+        <v>460</v>
       </c>
       <c r="AZ83" s="13">
-        <v>70000</v>
+        <v>460</v>
       </c>
       <c r="BA83" s="13">
-        <v>70000</v>
+        <v>470</v>
       </c>
       <c r="BB83" s="13">
-        <v>70000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -9387,7 +9387,7 @@
         <v>78</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
@@ -9522,23 +9522,23 @@
       <c r="AV84" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AW84" s="9">
-        <v>4900</v>
+      <c r="AW84" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AX84" s="9">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="AY84" s="9">
-        <v>5100</v>
+        <v>4750</v>
       </c>
       <c r="AZ84" s="9">
         <v>4700</v>
       </c>
       <c r="BA84" s="9">
-        <v>4750</v>
+        <v>4795</v>
       </c>
       <c r="BB84" s="9">
-        <v>4700</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -9681,181 +9681,79 @@
       <c r="AV85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW85" s="13">
-        <v>600</v>
+      <c r="AW85" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX85" s="13">
-        <v>620</v>
+        <v>70000</v>
       </c>
       <c r="AY85" s="13">
-        <v>490</v>
+        <v>70000</v>
       </c>
       <c r="AZ85" s="13">
-        <v>450</v>
+        <v>70000</v>
       </c>
       <c r="BA85" s="13">
-        <v>460</v>
+        <v>70000</v>
       </c>
       <c r="BB85" s="13">
-        <v>460</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B86" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17">
-        <v>0</v>
-      </c>
-      <c r="F86" s="17">
-        <v>0</v>
-      </c>
-      <c r="G86" s="17">
-        <v>0</v>
-      </c>
-      <c r="H86" s="17">
-        <v>0</v>
-      </c>
-      <c r="I86" s="17">
-        <v>0</v>
-      </c>
-      <c r="J86" s="17">
-        <v>0</v>
-      </c>
-      <c r="K86" s="17">
-        <v>0</v>
-      </c>
-      <c r="L86" s="17">
-        <v>0</v>
-      </c>
-      <c r="M86" s="17">
-        <v>0</v>
-      </c>
-      <c r="N86" s="17">
-        <v>0</v>
-      </c>
-      <c r="O86" s="17">
-        <v>0</v>
-      </c>
-      <c r="P86" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="17">
-        <v>0</v>
-      </c>
-      <c r="R86" s="17">
-        <v>0</v>
-      </c>
-      <c r="S86" s="17">
-        <v>0</v>
-      </c>
-      <c r="T86" s="17">
-        <v>0</v>
-      </c>
-      <c r="U86" s="17">
-        <v>0</v>
-      </c>
-      <c r="V86" s="17">
-        <v>0</v>
-      </c>
-      <c r="W86" s="17">
-        <v>0</v>
-      </c>
-      <c r="X86" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AV86" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW86" s="17">
-        <v>77500</v>
-      </c>
-      <c r="AX86" s="17">
-        <v>82620</v>
-      </c>
-      <c r="AY86" s="17">
-        <v>76590</v>
-      </c>
-      <c r="AZ86" s="17">
-        <v>75150</v>
-      </c>
-      <c r="BA86" s="17">
-        <v>75210</v>
-      </c>
-      <c r="BB86" s="17">
-        <v>75160</v>
-      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
@@ -9967,803 +9865,748 @@
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="AZ89" s="1"/>
-      <c r="BA89" s="1"/>
-      <c r="BB89" s="1"/>
+    <row r="89" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B89" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA89" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC89" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH89" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL89" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN89" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO89" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP89" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ89" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS89" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU89" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW89" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX89" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY89" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ89" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA89" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB89" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="90" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B90" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q90" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R90" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T90" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V90" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W90" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X90" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y90" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z90" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA90" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB90" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC90" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD90" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE90" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF90" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH90" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ90" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK90" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL90" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM90" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN90" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO90" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP90" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ90" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR90" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS90" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT90" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU90" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV90" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW90" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX90" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY90" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ90" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA90" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB90" s="6" t="s">
-        <v>54</v>
-      </c>
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-      <c r="AK91" s="1"/>
-      <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-      <c r="AR91" s="1"/>
-      <c r="AS91" s="1"/>
-      <c r="AT91" s="1"/>
-      <c r="AU91" s="1"/>
-      <c r="AV91" s="1"/>
-      <c r="AW91" s="1"/>
-      <c r="AX91" s="1"/>
-      <c r="AY91" s="1"/>
-      <c r="AZ91" s="1"/>
-      <c r="BA91" s="1"/>
-      <c r="BB91" s="1"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="9"/>
+      <c r="AH91" s="9"/>
+      <c r="AI91" s="9"/>
+      <c r="AJ91" s="9"/>
+      <c r="AK91" s="9"/>
+      <c r="AL91" s="9"/>
+      <c r="AM91" s="9"/>
+      <c r="AN91" s="9"/>
+      <c r="AO91" s="9"/>
+      <c r="AP91" s="9"/>
+      <c r="AQ91" s="9"/>
+      <c r="AR91" s="9"/>
+      <c r="AS91" s="9"/>
+      <c r="AT91" s="9"/>
+      <c r="AU91" s="9"/>
+      <c r="AV91" s="9"/>
+      <c r="AW91" s="9"/>
+      <c r="AX91" s="9"/>
+      <c r="AY91" s="9"/>
+      <c r="AZ91" s="9"/>
+      <c r="BA91" s="9"/>
+      <c r="BB91" s="9"/>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="9"/>
-      <c r="AB92" s="9"/>
-      <c r="AC92" s="9"/>
-      <c r="AD92" s="9"/>
-      <c r="AE92" s="9"/>
-      <c r="AF92" s="9"/>
-      <c r="AG92" s="9"/>
-      <c r="AH92" s="9"/>
-      <c r="AI92" s="9"/>
-      <c r="AJ92" s="9"/>
-      <c r="AK92" s="9"/>
-      <c r="AL92" s="9"/>
-      <c r="AM92" s="9"/>
-      <c r="AN92" s="9"/>
-      <c r="AO92" s="9"/>
-      <c r="AP92" s="9"/>
-      <c r="AQ92" s="9"/>
-      <c r="AR92" s="9"/>
-      <c r="AS92" s="9"/>
-      <c r="AT92" s="9"/>
-      <c r="AU92" s="9"/>
-      <c r="AV92" s="9"/>
-      <c r="AW92" s="9"/>
-      <c r="AX92" s="9"/>
-      <c r="AY92" s="9"/>
-      <c r="AZ92" s="9"/>
-      <c r="BA92" s="9"/>
-      <c r="BB92" s="9"/>
+      <c r="B92" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX92" s="13">
+        <v>1622222</v>
+      </c>
+      <c r="AY92" s="13">
+        <v>1621739</v>
+      </c>
+      <c r="AZ92" s="13">
+        <v>1621739</v>
+      </c>
+      <c r="BA92" s="13">
+        <v>1621277</v>
+      </c>
+      <c r="BB92" s="13">
+        <v>1595745</v>
+      </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B93" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW93" s="13">
-        <v>6347</v>
-      </c>
-      <c r="AX93" s="13">
-        <v>6351</v>
-      </c>
-      <c r="AY93" s="13">
-        <v>6352</v>
-      </c>
-      <c r="AZ93" s="13">
-        <v>6343</v>
-      </c>
-      <c r="BA93" s="13">
-        <v>6343</v>
-      </c>
-      <c r="BB93" s="13">
-        <v>6343</v>
+      <c r="B93" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX93" s="9">
+        <v>97872</v>
+      </c>
+      <c r="AY93" s="9">
+        <v>978737</v>
+      </c>
+      <c r="AZ93" s="9">
+        <v>97872</v>
+      </c>
+      <c r="BA93" s="9">
+        <v>96976</v>
+      </c>
+      <c r="BB93" s="9">
+        <v>316667</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B94" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="W94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="X94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV94" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW94" s="9">
-        <v>96939</v>
-      </c>
-      <c r="AX94" s="9">
-        <v>96875</v>
-      </c>
-      <c r="AY94" s="9">
-        <v>96863</v>
-      </c>
-      <c r="AZ94" s="9">
-        <v>97872</v>
-      </c>
-      <c r="BA94" s="9">
-        <v>978737</v>
-      </c>
-      <c r="BB94" s="9">
-        <v>97872</v>
-      </c>
-    </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B95" s="12" t="s">
+      <c r="B94" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="O95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW95" s="13">
-        <v>1591667</v>
-      </c>
-      <c r="AX95" s="13">
-        <v>1591935</v>
-      </c>
-      <c r="AY95" s="13">
-        <v>1591837</v>
-      </c>
-      <c r="AZ95" s="13">
-        <v>1622222</v>
-      </c>
-      <c r="BA95" s="13">
-        <v>1621739</v>
-      </c>
-      <c r="BB95" s="13">
-        <v>1621739</v>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX94" s="13">
+        <v>6343</v>
+      </c>
+      <c r="AY94" s="13">
+        <v>6343</v>
+      </c>
+      <c r="AZ94" s="13">
+        <v>6343</v>
+      </c>
+      <c r="BA94" s="13">
+        <v>6343</v>
+      </c>
+      <c r="BB94" s="13">
+        <v>6357</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/kimiatec/product/monthly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D443B-F945-4C6E-A5B4-134E01D37A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EF9AC-9264-48AD-8E1D-6A65BBD962F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 4 منتهی به 1398/04</t>
   </si>
   <si>
     <t>ماه 5 منتهی به 1398/05</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 5 منتهی به 1402/05</t>
+  </si>
+  <si>
+    <t>ماه 6 منتهی به 1402/06</t>
   </si>
   <si>
     <t>بهداشتی</t>
@@ -1586,11 +1586,11 @@
       <c r="AJ12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL12" s="9">
+      <c r="AK12" s="9">
         <v>1932134</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AM12" s="9" t="s">
         <v>57</v>
@@ -1673,131 +1673,131 @@
       <c r="L13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>57</v>
+      <c r="M13" s="13">
+        <v>2195795</v>
       </c>
       <c r="N13" s="13">
-        <v>2195795</v>
+        <v>3816697</v>
       </c>
       <c r="O13" s="13">
-        <v>3816697</v>
+        <v>823357</v>
       </c>
       <c r="P13" s="13">
-        <v>823357</v>
+        <v>3393806</v>
       </c>
       <c r="Q13" s="13">
-        <v>3393806</v>
+        <v>2798099</v>
       </c>
       <c r="R13" s="13">
-        <v>2798099</v>
+        <v>3097213</v>
       </c>
       <c r="S13" s="13">
-        <v>3097213</v>
+        <v>3220843</v>
       </c>
       <c r="T13" s="13">
-        <v>3220843</v>
+        <v>3366608</v>
       </c>
       <c r="U13" s="13">
-        <v>3366608</v>
+        <v>4403965</v>
       </c>
       <c r="V13" s="13">
-        <v>4403965</v>
+        <v>2907633</v>
       </c>
       <c r="W13" s="13">
-        <v>2907633</v>
+        <v>4566369</v>
       </c>
       <c r="X13" s="13">
-        <v>4566369</v>
+        <v>2705390</v>
       </c>
       <c r="Y13" s="13">
-        <v>2705390</v>
+        <v>1642770</v>
       </c>
       <c r="Z13" s="13">
-        <v>1642770</v>
+        <v>2447633</v>
       </c>
       <c r="AA13" s="13">
-        <v>2447633</v>
+        <v>2036103</v>
       </c>
       <c r="AB13" s="13">
-        <v>2036103</v>
+        <v>2979924</v>
       </c>
       <c r="AC13" s="13">
-        <v>2979924</v>
+        <v>3557736</v>
       </c>
       <c r="AD13" s="13">
-        <v>3557736</v>
+        <v>3443086</v>
       </c>
       <c r="AE13" s="13">
-        <v>3443086</v>
+        <v>2757778</v>
       </c>
       <c r="AF13" s="13">
-        <v>2757778</v>
+        <v>2537086</v>
       </c>
       <c r="AG13" s="13">
-        <v>2537086</v>
+        <v>2988597</v>
       </c>
       <c r="AH13" s="13">
-        <v>2988597</v>
+        <v>2540486</v>
       </c>
       <c r="AI13" s="13">
-        <v>2540486</v>
+        <v>3162952</v>
       </c>
       <c r="AJ13" s="13">
-        <v>3162952</v>
-      </c>
-      <c r="AK13" s="13">
         <v>2778131</v>
       </c>
-      <c r="AL13" s="13" t="s">
-        <v>57</v>
+      <c r="AK13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>3794614</v>
       </c>
       <c r="AM13" s="13">
-        <v>3794614</v>
+        <v>3971390</v>
       </c>
       <c r="AN13" s="13">
-        <v>3971390</v>
+        <v>3676123</v>
       </c>
       <c r="AO13" s="13">
-        <v>3676123</v>
+        <v>3596987</v>
       </c>
       <c r="AP13" s="13">
-        <v>3596987</v>
+        <v>3462625</v>
       </c>
       <c r="AQ13" s="13">
-        <v>3462625</v>
+        <v>3016636</v>
       </c>
       <c r="AR13" s="13">
-        <v>3016636</v>
+        <v>3415167</v>
       </c>
       <c r="AS13" s="13">
-        <v>3415167</v>
+        <v>3671469</v>
       </c>
       <c r="AT13" s="13">
-        <v>3671469</v>
+        <v>3698547</v>
       </c>
       <c r="AU13" s="13">
-        <v>3698547</v>
+        <v>4264337</v>
       </c>
       <c r="AV13" s="13">
-        <v>4264337</v>
+        <v>2522952</v>
       </c>
       <c r="AW13" s="13">
-        <v>2522952</v>
+        <v>1494064</v>
       </c>
       <c r="AX13" s="13">
-        <v>1494064</v>
+        <v>3925114</v>
       </c>
       <c r="AY13" s="13">
-        <v>3925114</v>
+        <v>3529599</v>
       </c>
       <c r="AZ13" s="13">
-        <v>3529599</v>
+        <v>2864699</v>
       </c>
       <c r="BA13" s="13">
-        <v>2864699</v>
+        <v>3821732</v>
       </c>
       <c r="BB13" s="13">
-        <v>3821732</v>
+        <v>1799392</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1904,11 +1904,11 @@
       <c r="AJ14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL14" s="9">
+      <c r="AK14" s="9">
         <v>442941</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AM14" s="9" t="s">
         <v>57</v>
@@ -1991,131 +1991,131 @@
       <c r="L15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>57</v>
+      <c r="M15" s="13">
+        <v>421040</v>
       </c>
       <c r="N15" s="13">
-        <v>421040</v>
+        <v>342775</v>
       </c>
       <c r="O15" s="13">
-        <v>342775</v>
+        <v>354951</v>
       </c>
       <c r="P15" s="13">
-        <v>354951</v>
+        <v>853232</v>
       </c>
       <c r="Q15" s="13">
-        <v>853232</v>
+        <v>845689</v>
       </c>
       <c r="R15" s="13">
-        <v>845689</v>
+        <v>477805</v>
       </c>
       <c r="S15" s="13">
-        <v>477805</v>
+        <v>1049837</v>
       </c>
       <c r="T15" s="13">
-        <v>1049837</v>
+        <v>874960</v>
       </c>
       <c r="U15" s="13">
-        <v>874960</v>
+        <v>839661</v>
       </c>
       <c r="V15" s="13">
-        <v>839661</v>
+        <v>786573</v>
       </c>
       <c r="W15" s="13">
-        <v>786573</v>
+        <v>1454086</v>
       </c>
       <c r="X15" s="13">
-        <v>1454086</v>
+        <v>355611</v>
       </c>
       <c r="Y15" s="13">
-        <v>355611</v>
+        <v>302700</v>
       </c>
       <c r="Z15" s="13">
-        <v>302700</v>
+        <v>576123</v>
       </c>
       <c r="AA15" s="13">
-        <v>576123</v>
+        <v>577501</v>
       </c>
       <c r="AB15" s="13">
-        <v>577501</v>
+        <v>812736</v>
       </c>
       <c r="AC15" s="13">
-        <v>812736</v>
+        <v>574197</v>
       </c>
       <c r="AD15" s="13">
-        <v>574197</v>
+        <v>679456</v>
       </c>
       <c r="AE15" s="13">
-        <v>679456</v>
+        <v>341164</v>
       </c>
       <c r="AF15" s="13">
-        <v>341164</v>
+        <v>717583</v>
       </c>
       <c r="AG15" s="13">
-        <v>717583</v>
+        <v>877199</v>
       </c>
       <c r="AH15" s="13">
-        <v>877199</v>
+        <v>864518</v>
       </c>
       <c r="AI15" s="13">
-        <v>864518</v>
+        <v>747504</v>
       </c>
       <c r="AJ15" s="13">
-        <v>747504</v>
-      </c>
-      <c r="AK15" s="13">
         <v>923051</v>
       </c>
-      <c r="AL15" s="13" t="s">
-        <v>57</v>
+      <c r="AK15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>477046</v>
       </c>
       <c r="AM15" s="13">
-        <v>477046</v>
+        <v>577460</v>
       </c>
       <c r="AN15" s="13">
-        <v>577460</v>
+        <v>1047589</v>
       </c>
       <c r="AO15" s="13">
-        <v>1047589</v>
+        <v>878119</v>
       </c>
       <c r="AP15" s="13">
-        <v>878119</v>
+        <v>580397</v>
       </c>
       <c r="AQ15" s="13">
-        <v>580397</v>
+        <v>601962</v>
       </c>
       <c r="AR15" s="13">
-        <v>601962</v>
+        <v>833950</v>
       </c>
       <c r="AS15" s="13">
-        <v>833950</v>
+        <v>1098866</v>
       </c>
       <c r="AT15" s="13">
-        <v>1098866</v>
+        <v>963219</v>
       </c>
       <c r="AU15" s="13">
-        <v>963219</v>
+        <v>794921</v>
       </c>
       <c r="AV15" s="13">
-        <v>794921</v>
+        <v>552265</v>
       </c>
       <c r="AW15" s="13">
-        <v>552265</v>
+        <v>389175</v>
       </c>
       <c r="AX15" s="13">
-        <v>389175</v>
+        <v>1033341</v>
       </c>
       <c r="AY15" s="13">
-        <v>1033341</v>
+        <v>1694706</v>
       </c>
       <c r="AZ15" s="13">
-        <v>1694706</v>
+        <v>237728</v>
       </c>
       <c r="BA15" s="13">
-        <v>237728</v>
+        <v>680920</v>
       </c>
       <c r="BB15" s="13">
-        <v>680920</v>
+        <v>681788</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2222,11 +2222,11 @@
       <c r="AJ16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL16" s="9">
+      <c r="AK16" s="9">
         <v>978365</v>
+      </c>
+      <c r="AL16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AM16" s="9" t="s">
         <v>57</v>
@@ -2309,131 +2309,131 @@
       <c r="L17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>57</v>
+      <c r="M17" s="13">
+        <v>574685</v>
       </c>
       <c r="N17" s="13">
-        <v>574685</v>
+        <v>1685115</v>
       </c>
       <c r="O17" s="13">
-        <v>1685115</v>
+        <v>1365965</v>
       </c>
       <c r="P17" s="13">
-        <v>1365965</v>
+        <v>1559672</v>
       </c>
       <c r="Q17" s="13">
-        <v>1559672</v>
+        <v>1233540</v>
       </c>
       <c r="R17" s="13">
-        <v>1233540</v>
+        <v>1364889</v>
       </c>
       <c r="S17" s="13">
-        <v>1364889</v>
+        <v>1274647</v>
       </c>
       <c r="T17" s="13">
-        <v>1274647</v>
+        <v>1651508</v>
       </c>
       <c r="U17" s="13">
-        <v>1651508</v>
+        <v>1873263</v>
       </c>
       <c r="V17" s="13">
-        <v>1873263</v>
+        <v>1308329</v>
       </c>
       <c r="W17" s="13">
-        <v>1308329</v>
+        <v>1875732</v>
       </c>
       <c r="X17" s="13">
-        <v>1875732</v>
+        <v>1077736</v>
       </c>
       <c r="Y17" s="13">
-        <v>1077736</v>
+        <v>107160</v>
       </c>
       <c r="Z17" s="13">
-        <v>107160</v>
+        <v>1464968</v>
       </c>
       <c r="AA17" s="13">
-        <v>1464968</v>
+        <v>2164824</v>
       </c>
       <c r="AB17" s="13">
-        <v>2164824</v>
+        <v>951533</v>
       </c>
       <c r="AC17" s="13">
-        <v>951533</v>
+        <v>604440</v>
       </c>
       <c r="AD17" s="13">
-        <v>604440</v>
+        <v>1062495</v>
       </c>
       <c r="AE17" s="13">
-        <v>1062495</v>
+        <v>1539501</v>
       </c>
       <c r="AF17" s="13">
-        <v>1539501</v>
+        <v>944733</v>
       </c>
       <c r="AG17" s="13">
-        <v>944733</v>
+        <v>1294565</v>
       </c>
       <c r="AH17" s="13">
-        <v>1294565</v>
+        <v>1034399</v>
       </c>
       <c r="AI17" s="13">
-        <v>1034399</v>
+        <v>1049813</v>
       </c>
       <c r="AJ17" s="13">
-        <v>1049813</v>
-      </c>
-      <c r="AK17" s="13">
         <v>425599</v>
       </c>
-      <c r="AL17" s="13" t="s">
-        <v>57</v>
+      <c r="AK17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL17" s="13">
+        <v>2088784</v>
       </c>
       <c r="AM17" s="13">
-        <v>2088784</v>
+        <v>2208362</v>
       </c>
       <c r="AN17" s="13">
-        <v>2208362</v>
+        <v>1484782</v>
       </c>
       <c r="AO17" s="13">
-        <v>1484782</v>
+        <v>1307987</v>
       </c>
       <c r="AP17" s="13">
-        <v>1307987</v>
+        <v>1881955</v>
       </c>
       <c r="AQ17" s="13">
-        <v>1881955</v>
+        <v>943499</v>
       </c>
       <c r="AR17" s="13">
-        <v>943499</v>
+        <v>1624282</v>
       </c>
       <c r="AS17" s="13">
-        <v>1624282</v>
+        <v>1789750</v>
       </c>
       <c r="AT17" s="13">
-        <v>1789750</v>
+        <v>1550341</v>
       </c>
       <c r="AU17" s="13">
-        <v>1550341</v>
+        <v>1845621</v>
       </c>
       <c r="AV17" s="13">
-        <v>1845621</v>
+        <v>1164185</v>
       </c>
       <c r="AW17" s="13">
-        <v>1164185</v>
+        <v>1227640</v>
       </c>
       <c r="AX17" s="13">
-        <v>1227640</v>
+        <v>1913672</v>
       </c>
       <c r="AY17" s="13">
-        <v>1913672</v>
+        <v>1631670</v>
       </c>
       <c r="AZ17" s="13">
-        <v>1631670</v>
+        <v>1765721</v>
       </c>
       <c r="BA17" s="13">
-        <v>1765721</v>
+        <v>1832821</v>
       </c>
       <c r="BB17" s="13">
-        <v>1832821</v>
+        <v>1570126</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2681,130 +2681,130 @@
         <v>0</v>
       </c>
       <c r="M20" s="19">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="N20" s="19">
-        <v>3191520</v>
+        <v>5844587</v>
       </c>
       <c r="O20" s="19">
-        <v>5844587</v>
+        <v>2544273</v>
       </c>
       <c r="P20" s="19">
-        <v>2544273</v>
+        <v>5806710</v>
       </c>
       <c r="Q20" s="19">
-        <v>5806710</v>
+        <v>4877328</v>
       </c>
       <c r="R20" s="19">
-        <v>4877328</v>
+        <v>4939907</v>
       </c>
       <c r="S20" s="19">
-        <v>4939907</v>
+        <v>5545327</v>
       </c>
       <c r="T20" s="19">
-        <v>5545327</v>
+        <v>5893076</v>
       </c>
       <c r="U20" s="19">
-        <v>5893076</v>
+        <v>7116889</v>
       </c>
       <c r="V20" s="19">
-        <v>7116889</v>
+        <v>5002535</v>
       </c>
       <c r="W20" s="19">
-        <v>5002535</v>
+        <v>7896187</v>
       </c>
       <c r="X20" s="19">
-        <v>7896187</v>
+        <v>4138737</v>
       </c>
       <c r="Y20" s="19">
-        <v>4138737</v>
+        <v>2052630</v>
       </c>
       <c r="Z20" s="19">
-        <v>2052630</v>
+        <v>4488724</v>
       </c>
       <c r="AA20" s="19">
-        <v>4488724</v>
+        <v>4778428</v>
       </c>
       <c r="AB20" s="19">
-        <v>4778428</v>
+        <v>4744193</v>
       </c>
       <c r="AC20" s="19">
-        <v>4744193</v>
+        <v>4736373</v>
       </c>
       <c r="AD20" s="19">
-        <v>4736373</v>
+        <v>5185037</v>
       </c>
       <c r="AE20" s="19">
-        <v>5185037</v>
+        <v>4638443</v>
       </c>
       <c r="AF20" s="19">
-        <v>4638443</v>
+        <v>4199402</v>
       </c>
       <c r="AG20" s="19">
-        <v>4199402</v>
+        <v>5160361</v>
       </c>
       <c r="AH20" s="19">
-        <v>5160361</v>
+        <v>4439403</v>
       </c>
       <c r="AI20" s="19">
-        <v>4439403</v>
+        <v>4960269</v>
       </c>
       <c r="AJ20" s="19">
-        <v>4960269</v>
+        <v>4126781</v>
       </c>
       <c r="AK20" s="19">
-        <v>4126781</v>
+        <v>3353440</v>
       </c>
       <c r="AL20" s="19">
-        <v>3353440</v>
+        <v>6360444</v>
       </c>
       <c r="AM20" s="19">
-        <v>6360444</v>
+        <v>6757212</v>
       </c>
       <c r="AN20" s="19">
-        <v>6757212</v>
+        <v>6208494</v>
       </c>
       <c r="AO20" s="19">
-        <v>6208494</v>
+        <v>5783093</v>
       </c>
       <c r="AP20" s="19">
-        <v>5783093</v>
+        <v>5924977</v>
       </c>
       <c r="AQ20" s="19">
-        <v>5924977</v>
+        <v>4562097</v>
       </c>
       <c r="AR20" s="19">
-        <v>4562097</v>
+        <v>5873399</v>
       </c>
       <c r="AS20" s="19">
-        <v>5873399</v>
+        <v>6560085</v>
       </c>
       <c r="AT20" s="19">
-        <v>6560085</v>
+        <v>6212107</v>
       </c>
       <c r="AU20" s="19">
-        <v>6212107</v>
+        <v>6904879</v>
       </c>
       <c r="AV20" s="19">
-        <v>6904879</v>
+        <v>4239402</v>
       </c>
       <c r="AW20" s="19">
-        <v>4239402</v>
+        <v>3110879</v>
       </c>
       <c r="AX20" s="19">
-        <v>3110879</v>
+        <v>6872127</v>
       </c>
       <c r="AY20" s="19">
-        <v>6872127</v>
+        <v>6855975</v>
       </c>
       <c r="AZ20" s="19">
-        <v>6855975</v>
+        <v>4868148</v>
       </c>
       <c r="BA20" s="19">
-        <v>4868148</v>
+        <v>6335473</v>
       </c>
       <c r="BB20" s="19">
-        <v>6335473</v>
+        <v>4051306</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3400,11 +3400,11 @@
       <c r="AJ28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK28" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL28" s="9">
+      <c r="AK28" s="9">
         <v>1993809</v>
+      </c>
+      <c r="AL28" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AM28" s="9" t="s">
         <v>57</v>
@@ -3487,131 +3487,131 @@
       <c r="L29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>57</v>
+      <c r="M29" s="13">
+        <v>1330241</v>
       </c>
       <c r="N29" s="13">
-        <v>1330241</v>
+        <v>2584186</v>
       </c>
       <c r="O29" s="13">
-        <v>2584186</v>
+        <v>3829816</v>
       </c>
       <c r="P29" s="13">
-        <v>3829816</v>
+        <v>4211906</v>
       </c>
       <c r="Q29" s="13">
-        <v>4211906</v>
+        <v>3148574</v>
       </c>
       <c r="R29" s="13">
-        <v>3148574</v>
+        <v>3065231</v>
       </c>
       <c r="S29" s="13">
-        <v>3065231</v>
+        <v>3805474</v>
       </c>
       <c r="T29" s="13">
-        <v>3805474</v>
+        <v>2848136</v>
       </c>
       <c r="U29" s="13">
-        <v>2848136</v>
+        <v>1621960</v>
       </c>
       <c r="V29" s="13">
-        <v>1621960</v>
+        <v>3068458</v>
       </c>
       <c r="W29" s="13">
-        <v>3068458</v>
+        <v>4130520</v>
       </c>
       <c r="X29" s="13">
-        <v>4130520</v>
+        <v>2458672</v>
       </c>
       <c r="Y29" s="13">
-        <v>2458672</v>
+        <v>1574769</v>
       </c>
       <c r="Z29" s="13">
-        <v>1574769</v>
+        <v>2571774</v>
       </c>
       <c r="AA29" s="13">
-        <v>2571774</v>
+        <v>2758197</v>
       </c>
       <c r="AB29" s="13">
-        <v>2758197</v>
+        <v>3199667</v>
       </c>
       <c r="AC29" s="13">
-        <v>3199667</v>
+        <v>3728428</v>
       </c>
       <c r="AD29" s="13">
-        <v>3728428</v>
+        <v>4117552</v>
       </c>
       <c r="AE29" s="13">
-        <v>4117552</v>
+        <v>1870160</v>
       </c>
       <c r="AF29" s="13">
-        <v>1870160</v>
+        <v>2530950</v>
       </c>
       <c r="AG29" s="13">
-        <v>2530950</v>
+        <v>2933640</v>
       </c>
       <c r="AH29" s="13">
-        <v>2933640</v>
+        <v>3038566</v>
       </c>
       <c r="AI29" s="13">
-        <v>3038566</v>
+        <v>3595991</v>
       </c>
       <c r="AJ29" s="13">
-        <v>3595991</v>
-      </c>
-      <c r="AK29" s="13">
         <v>3769468</v>
       </c>
-      <c r="AL29" s="13" t="s">
-        <v>57</v>
+      <c r="AK29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL29" s="13">
+        <v>3496200</v>
       </c>
       <c r="AM29" s="13">
-        <v>3496200</v>
+        <v>4257925</v>
       </c>
       <c r="AN29" s="13">
-        <v>4257925</v>
+        <v>2822733</v>
       </c>
       <c r="AO29" s="13">
-        <v>2822733</v>
+        <v>3094914</v>
       </c>
       <c r="AP29" s="13">
-        <v>3094914</v>
+        <v>2994929</v>
       </c>
       <c r="AQ29" s="13">
-        <v>2994929</v>
+        <v>2820154</v>
       </c>
       <c r="AR29" s="13">
-        <v>2820154</v>
+        <v>3358078</v>
       </c>
       <c r="AS29" s="13">
-        <v>3358078</v>
+        <v>3548516</v>
       </c>
       <c r="AT29" s="13">
-        <v>3548516</v>
+        <v>3162058</v>
       </c>
       <c r="AU29" s="13">
-        <v>3162058</v>
+        <v>3309390</v>
       </c>
       <c r="AV29" s="13">
-        <v>3309390</v>
+        <v>2749823</v>
       </c>
       <c r="AW29" s="13">
-        <v>2749823</v>
+        <v>1456757</v>
       </c>
       <c r="AX29" s="13">
-        <v>1456757</v>
+        <v>3711695</v>
       </c>
       <c r="AY29" s="13">
-        <v>3711695</v>
+        <v>4275118</v>
       </c>
       <c r="AZ29" s="13">
-        <v>4275118</v>
+        <v>2791486</v>
       </c>
       <c r="BA29" s="13">
-        <v>2791486</v>
+        <v>3540978</v>
       </c>
       <c r="BB29" s="13">
-        <v>3540978</v>
+        <v>2845118</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3718,11 +3718,11 @@
       <c r="AJ30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL30" s="9">
+      <c r="AK30" s="9">
         <v>664112</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AM30" s="9" t="s">
         <v>57</v>
@@ -3805,131 +3805,131 @@
       <c r="L31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="13" t="s">
-        <v>57</v>
+      <c r="M31" s="13">
+        <v>130340</v>
       </c>
       <c r="N31" s="13">
-        <v>130340</v>
+        <v>327797</v>
       </c>
       <c r="O31" s="13">
-        <v>327797</v>
+        <v>908037</v>
       </c>
       <c r="P31" s="13">
-        <v>908037</v>
+        <v>708411</v>
       </c>
       <c r="Q31" s="13">
-        <v>708411</v>
+        <v>546822</v>
       </c>
       <c r="R31" s="13">
-        <v>546822</v>
+        <v>717857</v>
       </c>
       <c r="S31" s="13">
-        <v>717857</v>
+        <v>677650</v>
       </c>
       <c r="T31" s="13">
-        <v>677650</v>
+        <v>595352</v>
       </c>
       <c r="U31" s="13">
-        <v>595352</v>
+        <v>325369</v>
       </c>
       <c r="V31" s="13">
-        <v>325369</v>
+        <v>1098298</v>
       </c>
       <c r="W31" s="13">
-        <v>1098298</v>
+        <v>1565769</v>
       </c>
       <c r="X31" s="13">
-        <v>1565769</v>
+        <v>561855</v>
       </c>
       <c r="Y31" s="13">
-        <v>561855</v>
+        <v>256651</v>
       </c>
       <c r="Z31" s="13">
-        <v>256651</v>
+        <v>852995</v>
       </c>
       <c r="AA31" s="13">
-        <v>852995</v>
+        <v>864028</v>
       </c>
       <c r="AB31" s="13">
-        <v>864028</v>
+        <v>728914</v>
       </c>
       <c r="AC31" s="13">
-        <v>728914</v>
+        <v>518898</v>
       </c>
       <c r="AD31" s="13">
-        <v>518898</v>
+        <v>671376</v>
       </c>
       <c r="AE31" s="13">
-        <v>671376</v>
+        <v>1301462</v>
       </c>
       <c r="AF31" s="13">
-        <v>1301462</v>
+        <v>783221</v>
       </c>
       <c r="AG31" s="13">
-        <v>783221</v>
+        <v>851136</v>
       </c>
       <c r="AH31" s="13">
-        <v>851136</v>
+        <v>561149</v>
       </c>
       <c r="AI31" s="13">
-        <v>561149</v>
+        <v>1226699</v>
       </c>
       <c r="AJ31" s="13">
-        <v>1226699</v>
-      </c>
-      <c r="AK31" s="13">
         <v>574133</v>
       </c>
-      <c r="AL31" s="13" t="s">
-        <v>57</v>
+      <c r="AK31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL31" s="13">
+        <v>1140687</v>
       </c>
       <c r="AM31" s="13">
-        <v>1140687</v>
+        <v>1258883</v>
       </c>
       <c r="AN31" s="13">
-        <v>1258883</v>
+        <v>1355248</v>
       </c>
       <c r="AO31" s="13">
-        <v>1355248</v>
+        <v>1149468</v>
       </c>
       <c r="AP31" s="13">
-        <v>1149468</v>
+        <v>1408978</v>
       </c>
       <c r="AQ31" s="13">
-        <v>1408978</v>
+        <v>903103</v>
       </c>
       <c r="AR31" s="13">
-        <v>903103</v>
+        <v>1772778</v>
       </c>
       <c r="AS31" s="13">
-        <v>1772778</v>
+        <v>1511659</v>
       </c>
       <c r="AT31" s="13">
-        <v>1511659</v>
+        <v>1226078</v>
       </c>
       <c r="AU31" s="13">
-        <v>1226078</v>
+        <v>1103063</v>
       </c>
       <c r="AV31" s="13">
-        <v>1103063</v>
+        <v>897149</v>
       </c>
       <c r="AW31" s="13">
-        <v>897149</v>
+        <v>483239</v>
       </c>
       <c r="AX31" s="13">
-        <v>483239</v>
+        <v>1068402</v>
       </c>
       <c r="AY31" s="13">
-        <v>1068402</v>
+        <v>1182909</v>
       </c>
       <c r="AZ31" s="13">
-        <v>1182909</v>
+        <v>638468</v>
       </c>
       <c r="BA31" s="13">
-        <v>638468</v>
+        <v>603993</v>
       </c>
       <c r="BB31" s="13">
-        <v>603993</v>
+        <v>1126425</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4036,11 +4036,11 @@
       <c r="AJ32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL32" s="9">
+      <c r="AK32" s="9">
         <v>859438</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AM32" s="9" t="s">
         <v>57</v>
@@ -4123,131 +4123,131 @@
       <c r="L33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M33" s="13" t="s">
-        <v>57</v>
+      <c r="M33" s="13">
+        <v>729015</v>
       </c>
       <c r="N33" s="13">
-        <v>729015</v>
+        <v>1772967</v>
       </c>
       <c r="O33" s="13">
-        <v>1772967</v>
+        <v>1468600</v>
       </c>
       <c r="P33" s="13">
-        <v>1468600</v>
+        <v>1377560</v>
       </c>
       <c r="Q33" s="13">
-        <v>1377560</v>
+        <v>1211798</v>
       </c>
       <c r="R33" s="13">
-        <v>1211798</v>
+        <v>1241898</v>
       </c>
       <c r="S33" s="13">
-        <v>1241898</v>
+        <v>1527172</v>
       </c>
       <c r="T33" s="13">
-        <v>1527172</v>
+        <v>1335243</v>
       </c>
       <c r="U33" s="13">
-        <v>1335243</v>
+        <v>846121</v>
       </c>
       <c r="V33" s="13">
-        <v>846121</v>
+        <v>1375326</v>
       </c>
       <c r="W33" s="13">
-        <v>1375326</v>
+        <v>1681267</v>
       </c>
       <c r="X33" s="13">
-        <v>1681267</v>
+        <v>845585</v>
       </c>
       <c r="Y33" s="13">
-        <v>845585</v>
+        <v>801408</v>
       </c>
       <c r="Z33" s="13">
-        <v>801408</v>
+        <v>1375779</v>
       </c>
       <c r="AA33" s="13">
-        <v>1375779</v>
+        <v>1326288</v>
       </c>
       <c r="AB33" s="13">
-        <v>1326288</v>
+        <v>909929</v>
       </c>
       <c r="AC33" s="13">
-        <v>909929</v>
+        <v>959354</v>
       </c>
       <c r="AD33" s="13">
-        <v>959354</v>
+        <v>784045</v>
       </c>
       <c r="AE33" s="13">
-        <v>784045</v>
+        <v>1502793</v>
       </c>
       <c r="AF33" s="13">
-        <v>1502793</v>
+        <v>1307930</v>
       </c>
       <c r="AG33" s="13">
-        <v>1307930</v>
+        <v>1158543</v>
       </c>
       <c r="AH33" s="13">
-        <v>1158543</v>
+        <v>915143</v>
       </c>
       <c r="AI33" s="13">
-        <v>915143</v>
+        <v>1478014</v>
       </c>
       <c r="AJ33" s="13">
-        <v>1478014</v>
-      </c>
-      <c r="AK33" s="13">
         <v>1133675</v>
       </c>
-      <c r="AL33" s="13" t="s">
-        <v>57</v>
+      <c r="AK33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>1373302</v>
       </c>
       <c r="AM33" s="13">
-        <v>1373302</v>
+        <v>1615123</v>
       </c>
       <c r="AN33" s="13">
-        <v>1615123</v>
+        <v>924157</v>
       </c>
       <c r="AO33" s="13">
-        <v>924157</v>
+        <v>1104375</v>
       </c>
       <c r="AP33" s="13">
-        <v>1104375</v>
+        <v>1251541</v>
       </c>
       <c r="AQ33" s="13">
-        <v>1251541</v>
+        <v>1098955</v>
       </c>
       <c r="AR33" s="13">
-        <v>1098955</v>
+        <v>1481508</v>
       </c>
       <c r="AS33" s="13">
-        <v>1481508</v>
+        <v>1570886</v>
       </c>
       <c r="AT33" s="13">
-        <v>1570886</v>
+        <v>1100051</v>
       </c>
       <c r="AU33" s="13">
-        <v>1100051</v>
+        <v>1802340</v>
       </c>
       <c r="AV33" s="13">
-        <v>1802340</v>
+        <v>1583379</v>
       </c>
       <c r="AW33" s="13">
-        <v>1583379</v>
+        <v>1070652</v>
       </c>
       <c r="AX33" s="13">
-        <v>1070652</v>
+        <v>1857416</v>
       </c>
       <c r="AY33" s="13">
-        <v>1857416</v>
+        <v>1695143</v>
       </c>
       <c r="AZ33" s="13">
-        <v>1695143</v>
+        <v>2026061</v>
       </c>
       <c r="BA33" s="13">
-        <v>2026061</v>
+        <v>1374626</v>
       </c>
       <c r="BB33" s="13">
-        <v>1374626</v>
+        <v>1743127</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4709,130 +4709,130 @@
         <v>0</v>
       </c>
       <c r="M38" s="19">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="N38" s="19">
-        <v>2189596</v>
+        <v>4684950</v>
       </c>
       <c r="O38" s="19">
-        <v>4684950</v>
+        <v>6206453</v>
       </c>
       <c r="P38" s="19">
-        <v>6206453</v>
+        <v>6297877</v>
       </c>
       <c r="Q38" s="19">
-        <v>6297877</v>
+        <v>4907194</v>
       </c>
       <c r="R38" s="19">
-        <v>4907194</v>
+        <v>5024986</v>
       </c>
       <c r="S38" s="19">
-        <v>5024986</v>
+        <v>6010296</v>
       </c>
       <c r="T38" s="19">
-        <v>6010296</v>
+        <v>4778731</v>
       </c>
       <c r="U38" s="19">
-        <v>4778731</v>
+        <v>2793450</v>
       </c>
       <c r="V38" s="19">
-        <v>2793450</v>
+        <v>5542082</v>
       </c>
       <c r="W38" s="19">
-        <v>5542082</v>
+        <v>7377556</v>
       </c>
       <c r="X38" s="19">
-        <v>7377556</v>
+        <v>3866112</v>
       </c>
       <c r="Y38" s="19">
-        <v>3866112</v>
+        <v>2632828</v>
       </c>
       <c r="Z38" s="19">
-        <v>2632828</v>
+        <v>4800548</v>
       </c>
       <c r="AA38" s="19">
-        <v>4800548</v>
+        <v>4948513</v>
       </c>
       <c r="AB38" s="19">
-        <v>4948513</v>
+        <v>4838510</v>
       </c>
       <c r="AC38" s="19">
-        <v>4838510</v>
+        <v>5206680</v>
       </c>
       <c r="AD38" s="19">
-        <v>5206680</v>
+        <v>5572973</v>
       </c>
       <c r="AE38" s="19">
-        <v>5572973</v>
+        <v>4674415</v>
       </c>
       <c r="AF38" s="19">
-        <v>4674415</v>
+        <v>4622101</v>
       </c>
       <c r="AG38" s="19">
-        <v>4622101</v>
+        <v>4943319</v>
       </c>
       <c r="AH38" s="19">
-        <v>4943319</v>
+        <v>4514858</v>
       </c>
       <c r="AI38" s="19">
-        <v>4514858</v>
+        <v>6300704</v>
       </c>
       <c r="AJ38" s="19">
-        <v>6300704</v>
+        <v>5477276</v>
       </c>
       <c r="AK38" s="19">
-        <v>5477276</v>
+        <v>3517359</v>
       </c>
       <c r="AL38" s="19">
-        <v>3517359</v>
+        <v>6010189</v>
       </c>
       <c r="AM38" s="19">
-        <v>6010189</v>
+        <v>7131931</v>
       </c>
       <c r="AN38" s="19">
-        <v>7131931</v>
+        <v>5102138</v>
       </c>
       <c r="AO38" s="19">
-        <v>5102138</v>
+        <v>5348757</v>
       </c>
       <c r="AP38" s="19">
-        <v>5348757</v>
+        <v>5655448</v>
       </c>
       <c r="AQ38" s="19">
-        <v>5655448</v>
+        <v>4822212</v>
       </c>
       <c r="AR38" s="19">
-        <v>4822212</v>
+        <v>6612364</v>
       </c>
       <c r="AS38" s="19">
-        <v>6612364</v>
+        <v>6631061</v>
       </c>
       <c r="AT38" s="19">
-        <v>6631061</v>
+        <v>5488187</v>
       </c>
       <c r="AU38" s="19">
-        <v>5488187</v>
+        <v>6214793</v>
       </c>
       <c r="AV38" s="19">
-        <v>6214793</v>
+        <v>5230351</v>
       </c>
       <c r="AW38" s="19">
-        <v>5230351</v>
+        <v>3010648</v>
       </c>
       <c r="AX38" s="19">
-        <v>3010648</v>
+        <v>6637513</v>
       </c>
       <c r="AY38" s="19">
-        <v>6637513</v>
+        <v>7153170</v>
       </c>
       <c r="AZ38" s="19">
-        <v>7153170</v>
+        <v>5456015</v>
       </c>
       <c r="BA38" s="19">
-        <v>5456015</v>
+        <v>5519597</v>
       </c>
       <c r="BB38" s="19">
-        <v>5519597</v>
+        <v>5714670</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5356,131 +5356,131 @@
       <c r="L46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>57</v>
+      <c r="M46" s="9">
+        <v>165894</v>
       </c>
       <c r="N46" s="9">
-        <v>165894</v>
+        <v>396429</v>
       </c>
       <c r="O46" s="9">
-        <v>396429</v>
+        <v>400735</v>
       </c>
       <c r="P46" s="9">
-        <v>400735</v>
+        <v>598388</v>
       </c>
       <c r="Q46" s="9">
-        <v>598388</v>
+        <v>516993</v>
       </c>
       <c r="R46" s="9">
-        <v>516993</v>
+        <v>561187</v>
       </c>
       <c r="S46" s="9">
-        <v>561187</v>
+        <v>597900</v>
       </c>
       <c r="T46" s="9">
-        <v>597900</v>
+        <v>607544</v>
       </c>
       <c r="U46" s="9">
-        <v>607544</v>
+        <v>516404</v>
       </c>
       <c r="V46" s="9">
-        <v>516404</v>
+        <v>622172</v>
       </c>
       <c r="W46" s="9">
-        <v>622172</v>
+        <v>913362</v>
       </c>
       <c r="X46" s="9">
-        <v>913362</v>
+        <v>757337</v>
       </c>
       <c r="Y46" s="9">
-        <v>757337</v>
+        <v>347918</v>
       </c>
       <c r="Z46" s="9">
-        <v>347918</v>
+        <v>598798</v>
       </c>
       <c r="AA46" s="9">
-        <v>598798</v>
+        <v>620732</v>
       </c>
       <c r="AB46" s="9">
-        <v>620732</v>
+        <v>769792</v>
       </c>
       <c r="AC46" s="9">
-        <v>769792</v>
+        <v>796392</v>
       </c>
       <c r="AD46" s="9">
-        <v>796392</v>
+        <v>981847</v>
       </c>
       <c r="AE46" s="9">
-        <v>981847</v>
+        <v>520867</v>
       </c>
       <c r="AF46" s="9">
-        <v>520867</v>
+        <v>731418</v>
       </c>
       <c r="AG46" s="9">
-        <v>731418</v>
+        <v>705183</v>
       </c>
       <c r="AH46" s="9">
-        <v>705183</v>
+        <v>778548</v>
       </c>
       <c r="AI46" s="9">
-        <v>778548</v>
+        <v>978172</v>
       </c>
       <c r="AJ46" s="9">
-        <v>978172</v>
+        <v>925671</v>
       </c>
       <c r="AK46" s="9">
-        <v>925671</v>
+        <v>492842</v>
       </c>
       <c r="AL46" s="9">
-        <v>492842</v>
+        <v>975476</v>
       </c>
       <c r="AM46" s="9">
-        <v>975476</v>
+        <v>1264826</v>
       </c>
       <c r="AN46" s="9">
-        <v>1264826</v>
+        <v>935268</v>
       </c>
       <c r="AO46" s="9">
-        <v>935268</v>
+        <v>1030803</v>
       </c>
       <c r="AP46" s="9">
-        <v>1030803</v>
+        <v>1182779</v>
       </c>
       <c r="AQ46" s="9">
-        <v>1182779</v>
+        <v>915304</v>
       </c>
       <c r="AR46" s="9">
-        <v>915304</v>
+        <v>1230799</v>
       </c>
       <c r="AS46" s="9">
-        <v>1230799</v>
+        <v>1295845</v>
       </c>
       <c r="AT46" s="9">
-        <v>1295845</v>
+        <v>1290144</v>
       </c>
       <c r="AU46" s="9">
-        <v>1290144</v>
+        <v>1248645</v>
       </c>
       <c r="AV46" s="9">
-        <v>1248645</v>
+        <v>1067639</v>
       </c>
       <c r="AW46" s="9">
-        <v>1067639</v>
+        <v>579998</v>
       </c>
       <c r="AX46" s="9">
-        <v>579998</v>
+        <v>1531365</v>
       </c>
       <c r="AY46" s="9">
-        <v>1531365</v>
+        <v>1747480</v>
       </c>
       <c r="AZ46" s="9">
-        <v>1747480</v>
+        <v>1342891</v>
       </c>
       <c r="BA46" s="9">
-        <v>1342891</v>
+        <v>1547355</v>
       </c>
       <c r="BB46" s="9">
-        <v>1547355</v>
+        <v>1893344</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5515,131 +5515,131 @@
       <c r="L47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M47" s="13" t="s">
-        <v>57</v>
+      <c r="M47" s="13">
+        <v>27600</v>
       </c>
       <c r="N47" s="13">
-        <v>27600</v>
+        <v>139621</v>
       </c>
       <c r="O47" s="13">
-        <v>139621</v>
+        <v>151990</v>
       </c>
       <c r="P47" s="13">
-        <v>151990</v>
+        <v>167780</v>
       </c>
       <c r="Q47" s="13">
-        <v>167780</v>
+        <v>177389</v>
       </c>
       <c r="R47" s="13">
-        <v>177389</v>
+        <v>229379</v>
       </c>
       <c r="S47" s="13">
-        <v>229379</v>
+        <v>218938</v>
       </c>
       <c r="T47" s="13">
-        <v>218938</v>
+        <v>225318</v>
       </c>
       <c r="U47" s="13">
-        <v>225318</v>
+        <v>141207</v>
       </c>
       <c r="V47" s="13">
-        <v>141207</v>
+        <v>308374</v>
       </c>
       <c r="W47" s="13">
-        <v>308374</v>
+        <v>458590</v>
       </c>
       <c r="X47" s="13">
-        <v>458590</v>
+        <v>254408</v>
       </c>
       <c r="Y47" s="13">
-        <v>254408</v>
+        <v>102359</v>
       </c>
       <c r="Z47" s="13">
-        <v>102359</v>
+        <v>350389</v>
       </c>
       <c r="AA47" s="13">
-        <v>350389</v>
+        <v>287159</v>
       </c>
       <c r="AB47" s="13">
-        <v>287159</v>
+        <v>353658</v>
       </c>
       <c r="AC47" s="13">
-        <v>353658</v>
+        <v>194091</v>
       </c>
       <c r="AD47" s="13">
-        <v>194091</v>
+        <v>234213</v>
       </c>
       <c r="AE47" s="13">
-        <v>234213</v>
+        <v>439739</v>
       </c>
       <c r="AF47" s="13">
-        <v>439739</v>
+        <v>459552</v>
       </c>
       <c r="AG47" s="13">
-        <v>459552</v>
+        <v>429007</v>
       </c>
       <c r="AH47" s="13">
-        <v>429007</v>
+        <v>387230</v>
       </c>
       <c r="AI47" s="13">
-        <v>387230</v>
+        <v>624899</v>
       </c>
       <c r="AJ47" s="13">
-        <v>624899</v>
+        <v>380655</v>
       </c>
       <c r="AK47" s="13">
-        <v>380655</v>
+        <v>296890</v>
       </c>
       <c r="AL47" s="13">
-        <v>296890</v>
+        <v>677102</v>
       </c>
       <c r="AM47" s="13">
-        <v>677102</v>
+        <v>717616</v>
       </c>
       <c r="AN47" s="13">
-        <v>717616</v>
+        <v>769765</v>
       </c>
       <c r="AO47" s="13">
-        <v>769765</v>
+        <v>616077</v>
       </c>
       <c r="AP47" s="13">
-        <v>616077</v>
+        <v>995123</v>
       </c>
       <c r="AQ47" s="13">
-        <v>995123</v>
+        <v>499633</v>
       </c>
       <c r="AR47" s="13">
-        <v>499633</v>
+        <v>1068222</v>
       </c>
       <c r="AS47" s="13">
-        <v>1068222</v>
+        <v>986053</v>
       </c>
       <c r="AT47" s="13">
-        <v>986053</v>
+        <v>869999</v>
       </c>
       <c r="AU47" s="13">
-        <v>869999</v>
+        <v>751267</v>
       </c>
       <c r="AV47" s="13">
-        <v>751267</v>
+        <v>626799</v>
       </c>
       <c r="AW47" s="13">
-        <v>626799</v>
+        <v>389232</v>
       </c>
       <c r="AX47" s="13">
-        <v>389232</v>
+        <v>962709</v>
       </c>
       <c r="AY47" s="13">
-        <v>962709</v>
+        <v>620888</v>
       </c>
       <c r="AZ47" s="13">
-        <v>620888</v>
+        <v>626831</v>
       </c>
       <c r="BA47" s="13">
-        <v>626831</v>
+        <v>581086</v>
       </c>
       <c r="BB47" s="13">
-        <v>581086</v>
+        <v>1179453</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5674,131 +5674,131 @@
       <c r="L48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M48" s="9" t="s">
-        <v>57</v>
+      <c r="M48" s="9">
+        <v>107593</v>
       </c>
       <c r="N48" s="9">
-        <v>107593</v>
+        <v>266101</v>
       </c>
       <c r="O48" s="9">
-        <v>266101</v>
+        <v>318588</v>
       </c>
       <c r="P48" s="9">
-        <v>318588</v>
+        <v>315653</v>
       </c>
       <c r="Q48" s="9">
-        <v>315653</v>
+        <v>290496</v>
       </c>
       <c r="R48" s="9">
-        <v>290496</v>
+        <v>267224</v>
       </c>
       <c r="S48" s="9">
-        <v>267224</v>
+        <v>295970</v>
       </c>
       <c r="T48" s="9">
-        <v>295970</v>
+        <v>314325</v>
       </c>
       <c r="U48" s="9">
-        <v>314325</v>
+        <v>214295</v>
       </c>
       <c r="V48" s="9">
-        <v>214295</v>
+        <v>314762</v>
       </c>
       <c r="W48" s="9">
-        <v>314762</v>
+        <v>439526</v>
       </c>
       <c r="X48" s="9">
-        <v>439526</v>
+        <v>326607</v>
       </c>
       <c r="Y48" s="9">
-        <v>326607</v>
+        <v>238938</v>
       </c>
       <c r="Z48" s="9">
-        <v>238938</v>
+        <v>447320</v>
       </c>
       <c r="AA48" s="9">
-        <v>447320</v>
+        <v>396231</v>
       </c>
       <c r="AB48" s="9">
-        <v>396231</v>
+        <v>362200</v>
       </c>
       <c r="AC48" s="9">
-        <v>362200</v>
+        <v>294448</v>
       </c>
       <c r="AD48" s="9">
-        <v>294448</v>
+        <v>218682</v>
       </c>
       <c r="AE48" s="9">
-        <v>218682</v>
+        <v>409790</v>
       </c>
       <c r="AF48" s="9">
-        <v>409790</v>
+        <v>398617</v>
       </c>
       <c r="AG48" s="9">
-        <v>398617</v>
+        <v>334050</v>
       </c>
       <c r="AH48" s="9">
-        <v>334050</v>
+        <v>308293</v>
       </c>
       <c r="AI48" s="9">
-        <v>308293</v>
+        <v>531290</v>
       </c>
       <c r="AJ48" s="9">
-        <v>531290</v>
+        <v>271961</v>
       </c>
       <c r="AK48" s="9">
-        <v>271961</v>
+        <v>241505</v>
       </c>
       <c r="AL48" s="9">
-        <v>241505</v>
+        <v>438589</v>
       </c>
       <c r="AM48" s="9">
-        <v>438589</v>
+        <v>514809</v>
       </c>
       <c r="AN48" s="9">
-        <v>514809</v>
+        <v>331326</v>
       </c>
       <c r="AO48" s="9">
-        <v>331326</v>
+        <v>359198</v>
       </c>
       <c r="AP48" s="9">
-        <v>359198</v>
+        <v>423673</v>
       </c>
       <c r="AQ48" s="9">
-        <v>423673</v>
+        <v>375908</v>
       </c>
       <c r="AR48" s="9">
-        <v>375908</v>
+        <v>450323</v>
       </c>
       <c r="AS48" s="9">
-        <v>450323</v>
+        <v>498286</v>
       </c>
       <c r="AT48" s="9">
-        <v>498286</v>
+        <v>473084</v>
       </c>
       <c r="AU48" s="9">
-        <v>473084</v>
+        <v>715275</v>
       </c>
       <c r="AV48" s="9">
-        <v>715275</v>
+        <v>633835</v>
       </c>
       <c r="AW48" s="9">
-        <v>633835</v>
+        <v>506450</v>
       </c>
       <c r="AX48" s="9">
-        <v>506450</v>
+        <v>953314</v>
       </c>
       <c r="AY48" s="9">
-        <v>953314</v>
+        <v>1387890</v>
       </c>
       <c r="AZ48" s="9">
-        <v>1387890</v>
+        <v>1196498</v>
       </c>
       <c r="BA48" s="9">
-        <v>1196498</v>
+        <v>848807</v>
       </c>
       <c r="BB48" s="9">
-        <v>848807</v>
+        <v>1121618</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6318,8 +6318,8 @@
       <c r="L54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M54" s="9" t="s">
-        <v>57</v>
+      <c r="M54" s="9">
+        <v>0</v>
       </c>
       <c r="N54" s="9">
         <v>0</v>
@@ -6633,130 +6633,130 @@
         <v>0</v>
       </c>
       <c r="M56" s="17">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="N56" s="17">
-        <v>301087</v>
+        <v>802151</v>
       </c>
       <c r="O56" s="17">
-        <v>802151</v>
+        <v>871313</v>
       </c>
       <c r="P56" s="17">
-        <v>871313</v>
+        <v>1081821</v>
       </c>
       <c r="Q56" s="17">
-        <v>1081821</v>
+        <v>984878</v>
       </c>
       <c r="R56" s="17">
-        <v>984878</v>
+        <v>1057790</v>
       </c>
       <c r="S56" s="17">
-        <v>1057790</v>
+        <v>1112808</v>
       </c>
       <c r="T56" s="17">
-        <v>1112808</v>
+        <v>1147187</v>
       </c>
       <c r="U56" s="17">
-        <v>1147187</v>
+        <v>871906</v>
       </c>
       <c r="V56" s="17">
-        <v>871906</v>
+        <v>1245308</v>
       </c>
       <c r="W56" s="17">
-        <v>1245308</v>
+        <v>1811478</v>
       </c>
       <c r="X56" s="17">
-        <v>1811478</v>
+        <v>1338352</v>
       </c>
       <c r="Y56" s="17">
-        <v>1338352</v>
+        <v>689215</v>
       </c>
       <c r="Z56" s="17">
-        <v>689215</v>
+        <v>1396507</v>
       </c>
       <c r="AA56" s="17">
-        <v>1396507</v>
+        <v>1304122</v>
       </c>
       <c r="AB56" s="17">
-        <v>1304122</v>
+        <v>1485650</v>
       </c>
       <c r="AC56" s="17">
-        <v>1485650</v>
+        <v>1284931</v>
       </c>
       <c r="AD56" s="17">
-        <v>1284931</v>
+        <v>1434742</v>
       </c>
       <c r="AE56" s="17">
-        <v>1434742</v>
+        <v>1370396</v>
       </c>
       <c r="AF56" s="17">
-        <v>1370396</v>
+        <v>1589587</v>
       </c>
       <c r="AG56" s="17">
-        <v>1589587</v>
+        <v>1468240</v>
       </c>
       <c r="AH56" s="17">
-        <v>1468240</v>
+        <v>1474071</v>
       </c>
       <c r="AI56" s="17">
-        <v>1474071</v>
+        <v>2134361</v>
       </c>
       <c r="AJ56" s="17">
-        <v>2134361</v>
+        <v>1578287</v>
       </c>
       <c r="AK56" s="17">
-        <v>1578287</v>
+        <v>1031237</v>
       </c>
       <c r="AL56" s="17">
-        <v>1031237</v>
+        <v>2091167</v>
       </c>
       <c r="AM56" s="17">
-        <v>2091167</v>
+        <v>2497251</v>
       </c>
       <c r="AN56" s="17">
-        <v>2497251</v>
+        <v>2036359</v>
       </c>
       <c r="AO56" s="17">
-        <v>2036359</v>
+        <v>2006078</v>
       </c>
       <c r="AP56" s="17">
-        <v>2006078</v>
+        <v>2601575</v>
       </c>
       <c r="AQ56" s="17">
-        <v>2601575</v>
+        <v>1790845</v>
       </c>
       <c r="AR56" s="17">
-        <v>1790845</v>
+        <v>2749344</v>
       </c>
       <c r="AS56" s="17">
-        <v>2749344</v>
+        <v>2780184</v>
       </c>
       <c r="AT56" s="17">
-        <v>2780184</v>
+        <v>2633227</v>
       </c>
       <c r="AU56" s="17">
-        <v>2633227</v>
+        <v>2715187</v>
       </c>
       <c r="AV56" s="17">
-        <v>2715187</v>
+        <v>2328273</v>
       </c>
       <c r="AW56" s="17">
-        <v>2328273</v>
+        <v>1475680</v>
       </c>
       <c r="AX56" s="17">
-        <v>1475680</v>
+        <v>3447388</v>
       </c>
       <c r="AY56" s="17">
-        <v>3447388</v>
+        <v>3756258</v>
       </c>
       <c r="AZ56" s="17">
-        <v>3756258</v>
+        <v>3166220</v>
       </c>
       <c r="BA56" s="17">
-        <v>3166220</v>
+        <v>2977248</v>
       </c>
       <c r="BB56" s="17">
-        <v>2977248</v>
+        <v>4194415</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7280,131 +7280,131 @@
       <c r="L64" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M64" s="9" t="s">
-        <v>57</v>
+      <c r="M64" s="9">
+        <v>124710</v>
       </c>
       <c r="N64" s="9">
-        <v>124710</v>
+        <v>153406</v>
       </c>
       <c r="O64" s="9">
-        <v>153406</v>
+        <v>104636</v>
       </c>
       <c r="P64" s="9">
-        <v>104636</v>
+        <v>142071</v>
       </c>
       <c r="Q64" s="9">
-        <v>142071</v>
+        <v>164199</v>
       </c>
       <c r="R64" s="9">
-        <v>164199</v>
+        <v>183081</v>
       </c>
       <c r="S64" s="9">
-        <v>183081</v>
+        <v>157116</v>
       </c>
       <c r="T64" s="9">
-        <v>157116</v>
+        <v>213313</v>
       </c>
       <c r="U64" s="9">
-        <v>213313</v>
+        <v>318383</v>
       </c>
       <c r="V64" s="9">
-        <v>318383</v>
+        <v>202764</v>
       </c>
       <c r="W64" s="9">
-        <v>202764</v>
+        <v>221125</v>
       </c>
       <c r="X64" s="9">
-        <v>221125</v>
+        <v>308027</v>
       </c>
       <c r="Y64" s="9">
-        <v>308027</v>
+        <v>220933</v>
       </c>
       <c r="Z64" s="9">
-        <v>220933</v>
+        <v>232835</v>
       </c>
       <c r="AA64" s="9">
-        <v>232835</v>
+        <v>225050</v>
       </c>
       <c r="AB64" s="9">
-        <v>225050</v>
+        <v>240585</v>
       </c>
       <c r="AC64" s="9">
-        <v>240585</v>
+        <v>213600</v>
       </c>
       <c r="AD64" s="9">
-        <v>213600</v>
+        <v>238454</v>
       </c>
       <c r="AE64" s="9">
-        <v>238454</v>
+        <v>278515</v>
       </c>
       <c r="AF64" s="9">
-        <v>278515</v>
+        <v>288990</v>
       </c>
       <c r="AG64" s="9">
-        <v>288990</v>
+        <v>240378</v>
       </c>
       <c r="AH64" s="9">
-        <v>240378</v>
+        <v>256222</v>
       </c>
       <c r="AI64" s="9">
-        <v>256222</v>
+        <v>272017</v>
       </c>
       <c r="AJ64" s="9">
-        <v>272017</v>
+        <v>245571</v>
       </c>
       <c r="AK64" s="9">
-        <v>245571</v>
+        <v>247186</v>
       </c>
       <c r="AL64" s="9">
-        <v>247186</v>
+        <v>279010</v>
       </c>
       <c r="AM64" s="9">
-        <v>279010</v>
+        <v>297052</v>
       </c>
       <c r="AN64" s="9">
-        <v>297052</v>
+        <v>331334</v>
       </c>
       <c r="AO64" s="9">
-        <v>331334</v>
+        <v>333064</v>
       </c>
       <c r="AP64" s="9">
-        <v>333064</v>
+        <v>394927</v>
       </c>
       <c r="AQ64" s="9">
-        <v>394927</v>
+        <v>324558</v>
       </c>
       <c r="AR64" s="9">
-        <v>324558</v>
+        <v>366519</v>
       </c>
       <c r="AS64" s="9">
-        <v>366519</v>
+        <v>365179</v>
       </c>
       <c r="AT64" s="9">
-        <v>365179</v>
+        <v>408008</v>
       </c>
       <c r="AU64" s="9">
-        <v>408008</v>
+        <v>377304</v>
       </c>
       <c r="AV64" s="9">
-        <v>377304</v>
+        <v>388257</v>
       </c>
       <c r="AW64" s="9">
-        <v>388257</v>
+        <v>398143</v>
       </c>
       <c r="AX64" s="9">
-        <v>398143</v>
+        <v>412578</v>
       </c>
       <c r="AY64" s="9">
-        <v>412578</v>
+        <v>408756</v>
       </c>
       <c r="AZ64" s="9">
-        <v>408756</v>
+        <v>481067</v>
       </c>
       <c r="BA64" s="9">
-        <v>481067</v>
+        <v>436985</v>
       </c>
       <c r="BB64" s="9">
-        <v>436985</v>
+        <v>665471</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7439,131 +7439,131 @@
       <c r="L65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M65" s="13" t="s">
-        <v>57</v>
+      <c r="M65" s="13">
+        <v>211754</v>
       </c>
       <c r="N65" s="13">
-        <v>211754</v>
+        <v>425937</v>
       </c>
       <c r="O65" s="13">
-        <v>425937</v>
+        <v>167383</v>
       </c>
       <c r="P65" s="13">
-        <v>167383</v>
+        <v>236840</v>
       </c>
       <c r="Q65" s="13">
-        <v>236840</v>
+        <v>324400</v>
       </c>
       <c r="R65" s="13">
-        <v>324400</v>
+        <v>319533</v>
       </c>
       <c r="S65" s="13">
-        <v>319533</v>
+        <v>323084</v>
       </c>
       <c r="T65" s="13">
-        <v>323084</v>
+        <v>378462</v>
       </c>
       <c r="U65" s="13">
-        <v>378462</v>
+        <v>433990</v>
       </c>
       <c r="V65" s="13">
-        <v>433990</v>
+        <v>280774</v>
       </c>
       <c r="W65" s="13">
-        <v>280774</v>
+        <v>292885</v>
       </c>
       <c r="X65" s="13">
-        <v>292885</v>
+        <v>452800</v>
       </c>
       <c r="Y65" s="13">
-        <v>452800</v>
+        <v>398826</v>
       </c>
       <c r="Z65" s="13">
-        <v>398826</v>
+        <v>410775</v>
       </c>
       <c r="AA65" s="13">
-        <v>410775</v>
+        <v>332349</v>
       </c>
       <c r="AB65" s="13">
-        <v>332349</v>
+        <v>485185</v>
       </c>
       <c r="AC65" s="13">
-        <v>485185</v>
+        <v>374045</v>
       </c>
       <c r="AD65" s="13">
-        <v>374045</v>
+        <v>348855</v>
       </c>
       <c r="AE65" s="13">
-        <v>348855</v>
+        <v>337881</v>
       </c>
       <c r="AF65" s="13">
-        <v>337881</v>
+        <v>586746</v>
       </c>
       <c r="AG65" s="13">
-        <v>586746</v>
+        <v>504040</v>
       </c>
       <c r="AH65" s="13">
-        <v>504040</v>
+        <v>690066</v>
       </c>
       <c r="AI65" s="13">
-        <v>690066</v>
+        <v>509415</v>
       </c>
       <c r="AJ65" s="13">
-        <v>509415</v>
+        <v>663008</v>
       </c>
       <c r="AK65" s="13">
-        <v>663008</v>
+        <v>447048</v>
       </c>
       <c r="AL65" s="13">
-        <v>447048</v>
+        <v>593591</v>
       </c>
       <c r="AM65" s="13">
-        <v>593591</v>
+        <v>570042</v>
       </c>
       <c r="AN65" s="13">
-        <v>570042</v>
+        <v>567988</v>
       </c>
       <c r="AO65" s="13">
-        <v>567988</v>
+        <v>535967</v>
       </c>
       <c r="AP65" s="13">
-        <v>535967</v>
+        <v>706273</v>
       </c>
       <c r="AQ65" s="13">
-        <v>706273</v>
+        <v>553240</v>
       </c>
       <c r="AR65" s="13">
-        <v>553240</v>
+        <v>602570</v>
       </c>
       <c r="AS65" s="13">
-        <v>602570</v>
+        <v>652299</v>
       </c>
       <c r="AT65" s="13">
-        <v>652299</v>
+        <v>709579</v>
       </c>
       <c r="AU65" s="13">
-        <v>709579</v>
+        <v>681074</v>
       </c>
       <c r="AV65" s="13">
-        <v>681074</v>
+        <v>698657</v>
       </c>
       <c r="AW65" s="13">
-        <v>698657</v>
+        <v>805465</v>
       </c>
       <c r="AX65" s="13">
-        <v>805465</v>
+        <v>901074</v>
       </c>
       <c r="AY65" s="13">
-        <v>901074</v>
+        <v>524882</v>
       </c>
       <c r="AZ65" s="13">
-        <v>524882</v>
+        <v>981774</v>
       </c>
       <c r="BA65" s="13">
-        <v>981774</v>
+        <v>962074</v>
       </c>
       <c r="BB65" s="13">
-        <v>962074</v>
+        <v>1047076</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7598,131 +7598,131 @@
       <c r="L66" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M66" s="9" t="s">
-        <v>57</v>
+      <c r="M66" s="9">
+        <v>147587</v>
       </c>
       <c r="N66" s="9">
-        <v>147587</v>
+        <v>150088</v>
       </c>
       <c r="O66" s="9">
-        <v>150088</v>
+        <v>216933</v>
       </c>
       <c r="P66" s="9">
-        <v>216933</v>
+        <v>229139</v>
       </c>
       <c r="Q66" s="9">
-        <v>229139</v>
+        <v>239723</v>
       </c>
       <c r="R66" s="9">
-        <v>239723</v>
+        <v>215174</v>
       </c>
       <c r="S66" s="9">
-        <v>215174</v>
+        <v>193803</v>
       </c>
       <c r="T66" s="9">
-        <v>193803</v>
+        <v>235407</v>
       </c>
       <c r="U66" s="9">
-        <v>235407</v>
+        <v>253268</v>
       </c>
       <c r="V66" s="9">
-        <v>253268</v>
+        <v>228864</v>
       </c>
       <c r="W66" s="9">
-        <v>228864</v>
+        <v>261425</v>
       </c>
       <c r="X66" s="9">
-        <v>261425</v>
+        <v>386250</v>
       </c>
       <c r="Y66" s="9">
-        <v>386250</v>
+        <v>298148</v>
       </c>
       <c r="Z66" s="9">
-        <v>298148</v>
+        <v>325139</v>
       </c>
       <c r="AA66" s="9">
-        <v>325139</v>
+        <v>298752</v>
       </c>
       <c r="AB66" s="9">
-        <v>298752</v>
+        <v>398053</v>
       </c>
       <c r="AC66" s="9">
-        <v>398053</v>
+        <v>306923</v>
       </c>
       <c r="AD66" s="9">
-        <v>306923</v>
+        <v>278915</v>
       </c>
       <c r="AE66" s="9">
-        <v>278915</v>
+        <v>272686</v>
       </c>
       <c r="AF66" s="9">
-        <v>272686</v>
+        <v>304769</v>
       </c>
       <c r="AG66" s="9">
-        <v>304769</v>
+        <v>288336</v>
       </c>
       <c r="AH66" s="9">
-        <v>288336</v>
+        <v>336880</v>
       </c>
       <c r="AI66" s="9">
-        <v>336880</v>
+        <v>359462</v>
       </c>
       <c r="AJ66" s="9">
-        <v>359462</v>
+        <v>239893</v>
       </c>
       <c r="AK66" s="9">
-        <v>239893</v>
+        <v>281003</v>
       </c>
       <c r="AL66" s="9">
-        <v>281003</v>
+        <v>319368</v>
       </c>
       <c r="AM66" s="9">
-        <v>319368</v>
+        <v>318743</v>
       </c>
       <c r="AN66" s="9">
-        <v>318743</v>
+        <v>358517</v>
       </c>
       <c r="AO66" s="9">
-        <v>358517</v>
+        <v>325250</v>
       </c>
       <c r="AP66" s="9">
-        <v>325250</v>
+        <v>338521</v>
       </c>
       <c r="AQ66" s="9">
-        <v>338521</v>
+        <v>342060</v>
       </c>
       <c r="AR66" s="9">
-        <v>342060</v>
+        <v>303963</v>
       </c>
       <c r="AS66" s="9">
-        <v>303963</v>
+        <v>317201</v>
       </c>
       <c r="AT66" s="9">
-        <v>317201</v>
+        <v>430056</v>
       </c>
       <c r="AU66" s="9">
-        <v>430056</v>
+        <v>396859</v>
       </c>
       <c r="AV66" s="9">
-        <v>396859</v>
+        <v>400305</v>
       </c>
       <c r="AW66" s="9">
-        <v>400305</v>
+        <v>473030</v>
       </c>
       <c r="AX66" s="9">
-        <v>473030</v>
+        <v>513247</v>
       </c>
       <c r="AY66" s="9">
-        <v>513247</v>
+        <v>818745</v>
       </c>
       <c r="AZ66" s="9">
-        <v>818745</v>
+        <v>590554</v>
       </c>
       <c r="BA66" s="9">
-        <v>590554</v>
+        <v>617482</v>
       </c>
       <c r="BB66" s="9">
-        <v>617482</v>
+        <v>643452</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8301,19 +8301,19 @@
         <v>57</v>
       </c>
       <c r="AX73" s="13">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="AY73" s="13">
         <v>746</v>
       </c>
       <c r="AZ73" s="13">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="BA73" s="13">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="BB73" s="13">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -8460,19 +8460,19 @@
         <v>57</v>
       </c>
       <c r="AX74" s="9">
+        <v>4649</v>
+      </c>
+      <c r="AY74" s="9">
         <v>460</v>
       </c>
-      <c r="AY74" s="9">
-        <v>4649</v>
-      </c>
       <c r="AZ74" s="9">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="BA74" s="9">
-        <v>465</v>
+        <v>1520</v>
       </c>
       <c r="BB74" s="9">
-        <v>1520</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -8628,7 +8628,7 @@
         <v>444</v>
       </c>
       <c r="BA75" s="13">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BB75" s="13">
         <v>445</v>
@@ -8776,19 +8776,19 @@
         <v>0</v>
       </c>
       <c r="AX76" s="17">
-        <v>1634</v>
+        <v>5839</v>
       </c>
       <c r="AY76" s="17">
-        <v>5839</v>
+        <v>1650</v>
       </c>
       <c r="AZ76" s="17">
-        <v>1650</v>
+        <v>1671</v>
       </c>
       <c r="BA76" s="17">
-        <v>1671</v>
+        <v>2715</v>
       </c>
       <c r="BB76" s="17">
-        <v>2715</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9367,19 +9367,19 @@
         <v>57</v>
       </c>
       <c r="AX83" s="13">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AY83" s="13">
         <v>460</v>
       </c>
       <c r="AZ83" s="13">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="BA83" s="13">
         <v>470</v>
       </c>
       <c r="BB83" s="13">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -9526,19 +9526,19 @@
         <v>57</v>
       </c>
       <c r="AX84" s="9">
+        <v>4750</v>
+      </c>
+      <c r="AY84" s="9">
         <v>4700</v>
       </c>
-      <c r="AY84" s="9">
+      <c r="AZ84" s="9">
+        <v>4795</v>
+      </c>
+      <c r="BA84" s="9">
+        <v>4800</v>
+      </c>
+      <c r="BB84" s="9">
         <v>4750</v>
-      </c>
-      <c r="AZ84" s="9">
-        <v>4700</v>
-      </c>
-      <c r="BA84" s="9">
-        <v>4795</v>
-      </c>
-      <c r="BB84" s="9">
-        <v>4800</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -10276,19 +10276,19 @@
         <v>57</v>
       </c>
       <c r="AX92" s="13">
-        <v>1622222</v>
+        <v>1621739</v>
       </c>
       <c r="AY92" s="13">
         <v>1621739</v>
       </c>
       <c r="AZ92" s="13">
-        <v>1621739</v>
+        <v>1621277</v>
       </c>
       <c r="BA92" s="13">
-        <v>1621277</v>
+        <v>1595745</v>
       </c>
       <c r="BB92" s="13">
-        <v>1595745</v>
+        <v>1597826</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -10435,19 +10435,19 @@
         <v>57</v>
       </c>
       <c r="AX93" s="9">
+        <v>978737</v>
+      </c>
+      <c r="AY93" s="9">
         <v>97872</v>
       </c>
-      <c r="AY93" s="9">
-        <v>978737</v>
-      </c>
       <c r="AZ93" s="9">
-        <v>97872</v>
+        <v>96976</v>
       </c>
       <c r="BA93" s="9">
-        <v>96976</v>
+        <v>316667</v>
       </c>
       <c r="BB93" s="9">
-        <v>316667</v>
+        <v>313684</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -10603,7 +10603,7 @@
         <v>6343</v>
       </c>
       <c r="BA94" s="13">
-        <v>6343</v>
+        <v>6357</v>
       </c>
       <c r="BB94" s="13">
         <v>6357</v>

--- a/database/industries/shoyande/kimiatec/product/monthly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249EF9AC-9264-48AD-8E1D-6A65BBD962F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A299B6-3076-4851-994D-364667A7BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="86">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 5 منتهی به 1398/05</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1398/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1398/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1398/08</t>
@@ -185,6 +176,15 @@
   </si>
   <si>
     <t>ماه 6 منتهی به 1402/06</t>
+  </si>
+  <si>
+    <t>ماه 7 منتهی به 1402/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1402/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1402/09</t>
   </si>
   <si>
     <t>بهداشتی</t>
@@ -1577,8 +1577,8 @@
       <c r="AG12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH12" s="9" t="s">
-        <v>57</v>
+      <c r="AH12" s="9">
+        <v>1932134</v>
       </c>
       <c r="AI12" s="9" t="s">
         <v>57</v>
@@ -1586,8 +1586,8 @@
       <c r="AJ12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK12" s="9">
-        <v>1932134</v>
+      <c r="AK12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AL12" s="9" t="s">
         <v>57</v>
@@ -1664,140 +1664,140 @@
       <c r="I13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>57</v>
+      <c r="J13" s="13">
+        <v>2195795</v>
+      </c>
+      <c r="K13" s="13">
+        <v>3816697</v>
+      </c>
+      <c r="L13" s="13">
+        <v>823357</v>
       </c>
       <c r="M13" s="13">
-        <v>2195795</v>
+        <v>3393806</v>
       </c>
       <c r="N13" s="13">
-        <v>3816697</v>
+        <v>2798099</v>
       </c>
       <c r="O13" s="13">
-        <v>823357</v>
+        <v>3097213</v>
       </c>
       <c r="P13" s="13">
-        <v>3393806</v>
+        <v>3220843</v>
       </c>
       <c r="Q13" s="13">
-        <v>2798099</v>
+        <v>3366608</v>
       </c>
       <c r="R13" s="13">
-        <v>3097213</v>
+        <v>4403965</v>
       </c>
       <c r="S13" s="13">
-        <v>3220843</v>
+        <v>2907633</v>
       </c>
       <c r="T13" s="13">
-        <v>3366608</v>
+        <v>4566369</v>
       </c>
       <c r="U13" s="13">
-        <v>4403965</v>
+        <v>2705390</v>
       </c>
       <c r="V13" s="13">
-        <v>2907633</v>
+        <v>1642770</v>
       </c>
       <c r="W13" s="13">
-        <v>4566369</v>
+        <v>2447633</v>
       </c>
       <c r="X13" s="13">
-        <v>2705390</v>
+        <v>2036103</v>
       </c>
       <c r="Y13" s="13">
-        <v>1642770</v>
+        <v>2979924</v>
       </c>
       <c r="Z13" s="13">
-        <v>2447633</v>
+        <v>3557736</v>
       </c>
       <c r="AA13" s="13">
-        <v>2036103</v>
+        <v>3443086</v>
       </c>
       <c r="AB13" s="13">
-        <v>2979924</v>
+        <v>2757778</v>
       </c>
       <c r="AC13" s="13">
-        <v>3557736</v>
+        <v>2537086</v>
       </c>
       <c r="AD13" s="13">
-        <v>3443086</v>
+        <v>2988597</v>
       </c>
       <c r="AE13" s="13">
-        <v>2757778</v>
+        <v>2540486</v>
       </c>
       <c r="AF13" s="13">
-        <v>2537086</v>
+        <v>3162952</v>
       </c>
       <c r="AG13" s="13">
-        <v>2988597</v>
-      </c>
-      <c r="AH13" s="13">
-        <v>2540486</v>
+        <v>2778131</v>
+      </c>
+      <c r="AH13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI13" s="13">
-        <v>3162952</v>
+        <v>3794614</v>
       </c>
       <c r="AJ13" s="13">
-        <v>2778131</v>
-      </c>
-      <c r="AK13" s="13" t="s">
-        <v>57</v>
+        <v>3971390</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>3676123</v>
       </c>
       <c r="AL13" s="13">
-        <v>3794614</v>
+        <v>3596987</v>
       </c>
       <c r="AM13" s="13">
-        <v>3971390</v>
+        <v>3462625</v>
       </c>
       <c r="AN13" s="13">
-        <v>3676123</v>
+        <v>3016636</v>
       </c>
       <c r="AO13" s="13">
-        <v>3596987</v>
+        <v>3415167</v>
       </c>
       <c r="AP13" s="13">
-        <v>3462625</v>
+        <v>3671469</v>
       </c>
       <c r="AQ13" s="13">
-        <v>3016636</v>
+        <v>3698547</v>
       </c>
       <c r="AR13" s="13">
-        <v>3415167</v>
+        <v>4264337</v>
       </c>
       <c r="AS13" s="13">
-        <v>3671469</v>
+        <v>2522952</v>
       </c>
       <c r="AT13" s="13">
-        <v>3698547</v>
+        <v>1494064</v>
       </c>
       <c r="AU13" s="13">
-        <v>4264337</v>
+        <v>3925114</v>
       </c>
       <c r="AV13" s="13">
-        <v>2522952</v>
+        <v>3529599</v>
       </c>
       <c r="AW13" s="13">
-        <v>1494064</v>
+        <v>2864699</v>
       </c>
       <c r="AX13" s="13">
-        <v>3925114</v>
+        <v>3821732</v>
       </c>
       <c r="AY13" s="13">
-        <v>3529599</v>
+        <v>1799392</v>
       </c>
       <c r="AZ13" s="13">
-        <v>2864699</v>
+        <v>4768364</v>
       </c>
       <c r="BA13" s="13">
-        <v>3821732</v>
+        <v>4029928</v>
       </c>
       <c r="BB13" s="13">
-        <v>1799392</v>
+        <v>3709588</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1895,8 +1895,8 @@
       <c r="AG14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH14" s="9" t="s">
-        <v>57</v>
+      <c r="AH14" s="9">
+        <v>442941</v>
       </c>
       <c r="AI14" s="9" t="s">
         <v>57</v>
@@ -1904,8 +1904,8 @@
       <c r="AJ14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK14" s="9">
-        <v>442941</v>
+      <c r="AK14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AL14" s="9" t="s">
         <v>57</v>
@@ -1982,140 +1982,140 @@
       <c r="I15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>57</v>
+      <c r="J15" s="13">
+        <v>421040</v>
+      </c>
+      <c r="K15" s="13">
+        <v>342775</v>
+      </c>
+      <c r="L15" s="13">
+        <v>354951</v>
       </c>
       <c r="M15" s="13">
-        <v>421040</v>
+        <v>853232</v>
       </c>
       <c r="N15" s="13">
-        <v>342775</v>
+        <v>845689</v>
       </c>
       <c r="O15" s="13">
-        <v>354951</v>
+        <v>477805</v>
       </c>
       <c r="P15" s="13">
-        <v>853232</v>
+        <v>1049837</v>
       </c>
       <c r="Q15" s="13">
-        <v>845689</v>
+        <v>874960</v>
       </c>
       <c r="R15" s="13">
-        <v>477805</v>
+        <v>839661</v>
       </c>
       <c r="S15" s="13">
-        <v>1049837</v>
+        <v>786573</v>
       </c>
       <c r="T15" s="13">
-        <v>874960</v>
+        <v>1454086</v>
       </c>
       <c r="U15" s="13">
-        <v>839661</v>
+        <v>355611</v>
       </c>
       <c r="V15" s="13">
-        <v>786573</v>
+        <v>302700</v>
       </c>
       <c r="W15" s="13">
-        <v>1454086</v>
+        <v>576123</v>
       </c>
       <c r="X15" s="13">
-        <v>355611</v>
+        <v>577501</v>
       </c>
       <c r="Y15" s="13">
-        <v>302700</v>
+        <v>812736</v>
       </c>
       <c r="Z15" s="13">
-        <v>576123</v>
+        <v>574197</v>
       </c>
       <c r="AA15" s="13">
-        <v>577501</v>
+        <v>679456</v>
       </c>
       <c r="AB15" s="13">
-        <v>812736</v>
+        <v>341164</v>
       </c>
       <c r="AC15" s="13">
-        <v>574197</v>
+        <v>717583</v>
       </c>
       <c r="AD15" s="13">
-        <v>679456</v>
+        <v>877199</v>
       </c>
       <c r="AE15" s="13">
-        <v>341164</v>
+        <v>864518</v>
       </c>
       <c r="AF15" s="13">
-        <v>717583</v>
+        <v>747504</v>
       </c>
       <c r="AG15" s="13">
-        <v>877199</v>
-      </c>
-      <c r="AH15" s="13">
-        <v>864518</v>
+        <v>923051</v>
+      </c>
+      <c r="AH15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI15" s="13">
-        <v>747504</v>
+        <v>477046</v>
       </c>
       <c r="AJ15" s="13">
-        <v>923051</v>
-      </c>
-      <c r="AK15" s="13" t="s">
-        <v>57</v>
+        <v>577460</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>1047589</v>
       </c>
       <c r="AL15" s="13">
-        <v>477046</v>
+        <v>878119</v>
       </c>
       <c r="AM15" s="13">
-        <v>577460</v>
+        <v>580397</v>
       </c>
       <c r="AN15" s="13">
-        <v>1047589</v>
+        <v>601962</v>
       </c>
       <c r="AO15" s="13">
-        <v>878119</v>
+        <v>833950</v>
       </c>
       <c r="AP15" s="13">
-        <v>580397</v>
+        <v>1098866</v>
       </c>
       <c r="AQ15" s="13">
-        <v>601962</v>
+        <v>963219</v>
       </c>
       <c r="AR15" s="13">
-        <v>833950</v>
+        <v>794921</v>
       </c>
       <c r="AS15" s="13">
-        <v>1098866</v>
+        <v>552265</v>
       </c>
       <c r="AT15" s="13">
-        <v>963219</v>
+        <v>389175</v>
       </c>
       <c r="AU15" s="13">
-        <v>794921</v>
+        <v>1033341</v>
       </c>
       <c r="AV15" s="13">
-        <v>552265</v>
+        <v>1694706</v>
       </c>
       <c r="AW15" s="13">
-        <v>389175</v>
+        <v>237728</v>
       </c>
       <c r="AX15" s="13">
-        <v>1033341</v>
+        <v>680920</v>
       </c>
       <c r="AY15" s="13">
-        <v>1694706</v>
+        <v>681788</v>
       </c>
       <c r="AZ15" s="13">
-        <v>237728</v>
+        <v>221201</v>
       </c>
       <c r="BA15" s="13">
-        <v>680920</v>
+        <v>217928</v>
       </c>
       <c r="BB15" s="13">
-        <v>681788</v>
+        <v>298524</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2213,8 +2213,8 @@
       <c r="AG16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH16" s="9" t="s">
-        <v>57</v>
+      <c r="AH16" s="9">
+        <v>978365</v>
       </c>
       <c r="AI16" s="9" t="s">
         <v>57</v>
@@ -2222,8 +2222,8 @@
       <c r="AJ16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" s="9">
-        <v>978365</v>
+      <c r="AK16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AL16" s="9" t="s">
         <v>57</v>
@@ -2300,140 +2300,140 @@
       <c r="I17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>57</v>
+      <c r="J17" s="13">
+        <v>574685</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1685115</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1365965</v>
       </c>
       <c r="M17" s="13">
-        <v>574685</v>
+        <v>1559672</v>
       </c>
       <c r="N17" s="13">
-        <v>1685115</v>
+        <v>1233540</v>
       </c>
       <c r="O17" s="13">
-        <v>1365965</v>
+        <v>1364889</v>
       </c>
       <c r="P17" s="13">
-        <v>1559672</v>
+        <v>1274647</v>
       </c>
       <c r="Q17" s="13">
-        <v>1233540</v>
+        <v>1651508</v>
       </c>
       <c r="R17" s="13">
-        <v>1364889</v>
+        <v>1873263</v>
       </c>
       <c r="S17" s="13">
-        <v>1274647</v>
+        <v>1308329</v>
       </c>
       <c r="T17" s="13">
-        <v>1651508</v>
+        <v>1875732</v>
       </c>
       <c r="U17" s="13">
-        <v>1873263</v>
+        <v>1077736</v>
       </c>
       <c r="V17" s="13">
-        <v>1308329</v>
+        <v>107160</v>
       </c>
       <c r="W17" s="13">
-        <v>1875732</v>
+        <v>1464968</v>
       </c>
       <c r="X17" s="13">
-        <v>1077736</v>
+        <v>2164824</v>
       </c>
       <c r="Y17" s="13">
-        <v>107160</v>
+        <v>951533</v>
       </c>
       <c r="Z17" s="13">
-        <v>1464968</v>
+        <v>604440</v>
       </c>
       <c r="AA17" s="13">
-        <v>2164824</v>
+        <v>1062495</v>
       </c>
       <c r="AB17" s="13">
-        <v>951533</v>
+        <v>1539501</v>
       </c>
       <c r="AC17" s="13">
-        <v>604440</v>
+        <v>944733</v>
       </c>
       <c r="AD17" s="13">
-        <v>1062495</v>
+        <v>1294565</v>
       </c>
       <c r="AE17" s="13">
-        <v>1539501</v>
+        <v>1034399</v>
       </c>
       <c r="AF17" s="13">
-        <v>944733</v>
+        <v>1049813</v>
       </c>
       <c r="AG17" s="13">
-        <v>1294565</v>
-      </c>
-      <c r="AH17" s="13">
-        <v>1034399</v>
+        <v>425599</v>
+      </c>
+      <c r="AH17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI17" s="13">
-        <v>1049813</v>
+        <v>2088784</v>
       </c>
       <c r="AJ17" s="13">
-        <v>425599</v>
-      </c>
-      <c r="AK17" s="13" t="s">
-        <v>57</v>
+        <v>2208362</v>
+      </c>
+      <c r="AK17" s="13">
+        <v>1484782</v>
       </c>
       <c r="AL17" s="13">
-        <v>2088784</v>
+        <v>1307987</v>
       </c>
       <c r="AM17" s="13">
-        <v>2208362</v>
+        <v>1881955</v>
       </c>
       <c r="AN17" s="13">
-        <v>1484782</v>
+        <v>943499</v>
       </c>
       <c r="AO17" s="13">
-        <v>1307987</v>
+        <v>1624282</v>
       </c>
       <c r="AP17" s="13">
-        <v>1881955</v>
+        <v>1789750</v>
       </c>
       <c r="AQ17" s="13">
-        <v>943499</v>
+        <v>1550341</v>
       </c>
       <c r="AR17" s="13">
-        <v>1624282</v>
+        <v>1845621</v>
       </c>
       <c r="AS17" s="13">
-        <v>1789750</v>
+        <v>1164185</v>
       </c>
       <c r="AT17" s="13">
-        <v>1550341</v>
+        <v>1227640</v>
       </c>
       <c r="AU17" s="13">
-        <v>1845621</v>
+        <v>1913672</v>
       </c>
       <c r="AV17" s="13">
-        <v>1164185</v>
+        <v>1631670</v>
       </c>
       <c r="AW17" s="13">
-        <v>1227640</v>
+        <v>1765721</v>
       </c>
       <c r="AX17" s="13">
-        <v>1913672</v>
+        <v>1832821</v>
       </c>
       <c r="AY17" s="13">
-        <v>1631670</v>
+        <v>1570126</v>
       </c>
       <c r="AZ17" s="13">
-        <v>1765721</v>
+        <v>994396</v>
       </c>
       <c r="BA17" s="13">
-        <v>1832821</v>
+        <v>1727055</v>
       </c>
       <c r="BB17" s="13">
-        <v>1570126</v>
+        <v>1575899</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2672,139 +2672,139 @@
         <v>0</v>
       </c>
       <c r="J20" s="19">
-        <v>0</v>
+        <v>3191520</v>
       </c>
       <c r="K20" s="19">
-        <v>0</v>
+        <v>5844587</v>
       </c>
       <c r="L20" s="19">
-        <v>0</v>
+        <v>2544273</v>
       </c>
       <c r="M20" s="19">
-        <v>3191520</v>
+        <v>5806710</v>
       </c>
       <c r="N20" s="19">
-        <v>5844587</v>
+        <v>4877328</v>
       </c>
       <c r="O20" s="19">
-        <v>2544273</v>
+        <v>4939907</v>
       </c>
       <c r="P20" s="19">
-        <v>5806710</v>
+        <v>5545327</v>
       </c>
       <c r="Q20" s="19">
-        <v>4877328</v>
+        <v>5893076</v>
       </c>
       <c r="R20" s="19">
-        <v>4939907</v>
+        <v>7116889</v>
       </c>
       <c r="S20" s="19">
-        <v>5545327</v>
+        <v>5002535</v>
       </c>
       <c r="T20" s="19">
-        <v>5893076</v>
+        <v>7896187</v>
       </c>
       <c r="U20" s="19">
-        <v>7116889</v>
+        <v>4138737</v>
       </c>
       <c r="V20" s="19">
-        <v>5002535</v>
+        <v>2052630</v>
       </c>
       <c r="W20" s="19">
-        <v>7896187</v>
+        <v>4488724</v>
       </c>
       <c r="X20" s="19">
-        <v>4138737</v>
+        <v>4778428</v>
       </c>
       <c r="Y20" s="19">
-        <v>2052630</v>
+        <v>4744193</v>
       </c>
       <c r="Z20" s="19">
-        <v>4488724</v>
+        <v>4736373</v>
       </c>
       <c r="AA20" s="19">
-        <v>4778428</v>
+        <v>5185037</v>
       </c>
       <c r="AB20" s="19">
-        <v>4744193</v>
+        <v>4638443</v>
       </c>
       <c r="AC20" s="19">
-        <v>4736373</v>
+        <v>4199402</v>
       </c>
       <c r="AD20" s="19">
-        <v>5185037</v>
+        <v>5160361</v>
       </c>
       <c r="AE20" s="19">
-        <v>4638443</v>
+        <v>4439403</v>
       </c>
       <c r="AF20" s="19">
-        <v>4199402</v>
+        <v>4960269</v>
       </c>
       <c r="AG20" s="19">
-        <v>5160361</v>
+        <v>4126781</v>
       </c>
       <c r="AH20" s="19">
-        <v>4439403</v>
+        <v>3353440</v>
       </c>
       <c r="AI20" s="19">
-        <v>4960269</v>
+        <v>6360444</v>
       </c>
       <c r="AJ20" s="19">
-        <v>4126781</v>
+        <v>6757212</v>
       </c>
       <c r="AK20" s="19">
-        <v>3353440</v>
+        <v>6208494</v>
       </c>
       <c r="AL20" s="19">
-        <v>6360444</v>
+        <v>5783093</v>
       </c>
       <c r="AM20" s="19">
-        <v>6757212</v>
+        <v>5924977</v>
       </c>
       <c r="AN20" s="19">
-        <v>6208494</v>
+        <v>4562097</v>
       </c>
       <c r="AO20" s="19">
-        <v>5783093</v>
+        <v>5873399</v>
       </c>
       <c r="AP20" s="19">
-        <v>5924977</v>
+        <v>6560085</v>
       </c>
       <c r="AQ20" s="19">
-        <v>4562097</v>
+        <v>6212107</v>
       </c>
       <c r="AR20" s="19">
-        <v>5873399</v>
+        <v>6904879</v>
       </c>
       <c r="AS20" s="19">
-        <v>6560085</v>
+        <v>4239402</v>
       </c>
       <c r="AT20" s="19">
-        <v>6212107</v>
+        <v>3110879</v>
       </c>
       <c r="AU20" s="19">
-        <v>6904879</v>
+        <v>6872127</v>
       </c>
       <c r="AV20" s="19">
-        <v>4239402</v>
+        <v>6855975</v>
       </c>
       <c r="AW20" s="19">
-        <v>3110879</v>
+        <v>4868148</v>
       </c>
       <c r="AX20" s="19">
-        <v>6872127</v>
+        <v>6335473</v>
       </c>
       <c r="AY20" s="19">
-        <v>6855975</v>
+        <v>4051306</v>
       </c>
       <c r="AZ20" s="19">
-        <v>4868148</v>
+        <v>5983961</v>
       </c>
       <c r="BA20" s="19">
-        <v>6335473</v>
+        <v>5974911</v>
       </c>
       <c r="BB20" s="19">
-        <v>4051306</v>
+        <v>5584011</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3391,8 +3391,8 @@
       <c r="AG28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH28" s="9" t="s">
-        <v>57</v>
+      <c r="AH28" s="9">
+        <v>1993809</v>
       </c>
       <c r="AI28" s="9" t="s">
         <v>57</v>
@@ -3400,8 +3400,8 @@
       <c r="AJ28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK28" s="9">
-        <v>1993809</v>
+      <c r="AK28" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AL28" s="9" t="s">
         <v>57</v>
@@ -3478,140 +3478,140 @@
       <c r="I29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>57</v>
+      <c r="J29" s="13">
+        <v>1330241</v>
+      </c>
+      <c r="K29" s="13">
+        <v>2584186</v>
+      </c>
+      <c r="L29" s="13">
+        <v>3829816</v>
       </c>
       <c r="M29" s="13">
-        <v>1330241</v>
+        <v>4211906</v>
       </c>
       <c r="N29" s="13">
-        <v>2584186</v>
+        <v>3148574</v>
       </c>
       <c r="O29" s="13">
-        <v>3829816</v>
+        <v>3065231</v>
       </c>
       <c r="P29" s="13">
-        <v>4211906</v>
+        <v>3805474</v>
       </c>
       <c r="Q29" s="13">
-        <v>3148574</v>
+        <v>2848136</v>
       </c>
       <c r="R29" s="13">
-        <v>3065231</v>
+        <v>1621960</v>
       </c>
       <c r="S29" s="13">
-        <v>3805474</v>
+        <v>3068458</v>
       </c>
       <c r="T29" s="13">
-        <v>2848136</v>
+        <v>4130520</v>
       </c>
       <c r="U29" s="13">
-        <v>1621960</v>
+        <v>2458672</v>
       </c>
       <c r="V29" s="13">
-        <v>3068458</v>
+        <v>1574769</v>
       </c>
       <c r="W29" s="13">
-        <v>4130520</v>
+        <v>2571774</v>
       </c>
       <c r="X29" s="13">
-        <v>2458672</v>
+        <v>2758197</v>
       </c>
       <c r="Y29" s="13">
-        <v>1574769</v>
+        <v>3199667</v>
       </c>
       <c r="Z29" s="13">
-        <v>2571774</v>
+        <v>3728428</v>
       </c>
       <c r="AA29" s="13">
-        <v>2758197</v>
+        <v>4117552</v>
       </c>
       <c r="AB29" s="13">
-        <v>3199667</v>
+        <v>1870160</v>
       </c>
       <c r="AC29" s="13">
-        <v>3728428</v>
+        <v>2530950</v>
       </c>
       <c r="AD29" s="13">
-        <v>4117552</v>
+        <v>2933640</v>
       </c>
       <c r="AE29" s="13">
-        <v>1870160</v>
+        <v>3038566</v>
       </c>
       <c r="AF29" s="13">
-        <v>2530950</v>
+        <v>3595991</v>
       </c>
       <c r="AG29" s="13">
-        <v>2933640</v>
-      </c>
-      <c r="AH29" s="13">
-        <v>3038566</v>
+        <v>3769468</v>
+      </c>
+      <c r="AH29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI29" s="13">
-        <v>3595991</v>
+        <v>3496200</v>
       </c>
       <c r="AJ29" s="13">
-        <v>3769468</v>
-      </c>
-      <c r="AK29" s="13" t="s">
-        <v>57</v>
+        <v>4257925</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>2822733</v>
       </c>
       <c r="AL29" s="13">
-        <v>3496200</v>
+        <v>3094914</v>
       </c>
       <c r="AM29" s="13">
-        <v>4257925</v>
+        <v>2994929</v>
       </c>
       <c r="AN29" s="13">
-        <v>2822733</v>
+        <v>2820154</v>
       </c>
       <c r="AO29" s="13">
-        <v>3094914</v>
+        <v>3358078</v>
       </c>
       <c r="AP29" s="13">
-        <v>2994929</v>
+        <v>3548516</v>
       </c>
       <c r="AQ29" s="13">
-        <v>2820154</v>
+        <v>3162058</v>
       </c>
       <c r="AR29" s="13">
-        <v>3358078</v>
+        <v>3309390</v>
       </c>
       <c r="AS29" s="13">
-        <v>3548516</v>
+        <v>2749823</v>
       </c>
       <c r="AT29" s="13">
-        <v>3162058</v>
+        <v>1456757</v>
       </c>
       <c r="AU29" s="13">
-        <v>3309390</v>
+        <v>3711695</v>
       </c>
       <c r="AV29" s="13">
-        <v>2749823</v>
+        <v>4275118</v>
       </c>
       <c r="AW29" s="13">
-        <v>1456757</v>
+        <v>2791486</v>
       </c>
       <c r="AX29" s="13">
-        <v>3711695</v>
+        <v>3540978</v>
       </c>
       <c r="AY29" s="13">
-        <v>4275118</v>
+        <v>2845118</v>
       </c>
       <c r="AZ29" s="13">
-        <v>2791486</v>
+        <v>3307453</v>
       </c>
       <c r="BA29" s="13">
-        <v>3540978</v>
+        <v>3197166</v>
       </c>
       <c r="BB29" s="13">
-        <v>2845118</v>
+        <v>3726100</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3709,8 +3709,8 @@
       <c r="AG30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH30" s="9" t="s">
-        <v>57</v>
+      <c r="AH30" s="9">
+        <v>664112</v>
       </c>
       <c r="AI30" s="9" t="s">
         <v>57</v>
@@ -3718,8 +3718,8 @@
       <c r="AJ30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK30" s="9">
-        <v>664112</v>
+      <c r="AK30" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AL30" s="9" t="s">
         <v>57</v>
@@ -3796,140 +3796,140 @@
       <c r="I31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>57</v>
+      <c r="J31" s="13">
+        <v>130340</v>
+      </c>
+      <c r="K31" s="13">
+        <v>327797</v>
+      </c>
+      <c r="L31" s="13">
+        <v>908037</v>
       </c>
       <c r="M31" s="13">
-        <v>130340</v>
+        <v>708411</v>
       </c>
       <c r="N31" s="13">
-        <v>327797</v>
+        <v>546822</v>
       </c>
       <c r="O31" s="13">
-        <v>908037</v>
+        <v>717857</v>
       </c>
       <c r="P31" s="13">
-        <v>708411</v>
+        <v>677650</v>
       </c>
       <c r="Q31" s="13">
-        <v>546822</v>
+        <v>595352</v>
       </c>
       <c r="R31" s="13">
-        <v>717857</v>
+        <v>325369</v>
       </c>
       <c r="S31" s="13">
-        <v>677650</v>
+        <v>1098298</v>
       </c>
       <c r="T31" s="13">
-        <v>595352</v>
+        <v>1565769</v>
       </c>
       <c r="U31" s="13">
-        <v>325369</v>
+        <v>561855</v>
       </c>
       <c r="V31" s="13">
-        <v>1098298</v>
+        <v>256651</v>
       </c>
       <c r="W31" s="13">
-        <v>1565769</v>
+        <v>852995</v>
       </c>
       <c r="X31" s="13">
-        <v>561855</v>
+        <v>864028</v>
       </c>
       <c r="Y31" s="13">
-        <v>256651</v>
+        <v>728914</v>
       </c>
       <c r="Z31" s="13">
-        <v>852995</v>
+        <v>518898</v>
       </c>
       <c r="AA31" s="13">
-        <v>864028</v>
+        <v>671376</v>
       </c>
       <c r="AB31" s="13">
-        <v>728914</v>
+        <v>1301462</v>
       </c>
       <c r="AC31" s="13">
-        <v>518898</v>
+        <v>783221</v>
       </c>
       <c r="AD31" s="13">
-        <v>671376</v>
+        <v>851136</v>
       </c>
       <c r="AE31" s="13">
-        <v>1301462</v>
+        <v>561149</v>
       </c>
       <c r="AF31" s="13">
-        <v>783221</v>
+        <v>1226699</v>
       </c>
       <c r="AG31" s="13">
-        <v>851136</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>561149</v>
+        <v>574133</v>
+      </c>
+      <c r="AH31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI31" s="13">
-        <v>1226699</v>
+        <v>1140687</v>
       </c>
       <c r="AJ31" s="13">
-        <v>574133</v>
-      </c>
-      <c r="AK31" s="13" t="s">
-        <v>57</v>
+        <v>1258883</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>1355248</v>
       </c>
       <c r="AL31" s="13">
-        <v>1140687</v>
+        <v>1149468</v>
       </c>
       <c r="AM31" s="13">
-        <v>1258883</v>
+        <v>1408978</v>
       </c>
       <c r="AN31" s="13">
-        <v>1355248</v>
+        <v>903103</v>
       </c>
       <c r="AO31" s="13">
-        <v>1149468</v>
+        <v>1772778</v>
       </c>
       <c r="AP31" s="13">
-        <v>1408978</v>
+        <v>1511659</v>
       </c>
       <c r="AQ31" s="13">
-        <v>903103</v>
+        <v>1226078</v>
       </c>
       <c r="AR31" s="13">
-        <v>1772778</v>
+        <v>1103063</v>
       </c>
       <c r="AS31" s="13">
-        <v>1511659</v>
+        <v>897149</v>
       </c>
       <c r="AT31" s="13">
-        <v>1226078</v>
+        <v>483239</v>
       </c>
       <c r="AU31" s="13">
-        <v>1103063</v>
+        <v>1068402</v>
       </c>
       <c r="AV31" s="13">
-        <v>897149</v>
+        <v>1182909</v>
       </c>
       <c r="AW31" s="13">
-        <v>483239</v>
+        <v>638468</v>
       </c>
       <c r="AX31" s="13">
-        <v>1068402</v>
+        <v>603993</v>
       </c>
       <c r="AY31" s="13">
-        <v>1182909</v>
+        <v>1126425</v>
       </c>
       <c r="AZ31" s="13">
-        <v>638468</v>
+        <v>796566</v>
       </c>
       <c r="BA31" s="13">
-        <v>603993</v>
+        <v>1511740</v>
       </c>
       <c r="BB31" s="13">
-        <v>1126425</v>
+        <v>903578</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4027,8 +4027,8 @@
       <c r="AG32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AH32" s="9" t="s">
-        <v>57</v>
+      <c r="AH32" s="9">
+        <v>859438</v>
       </c>
       <c r="AI32" s="9" t="s">
         <v>57</v>
@@ -4036,8 +4036,8 @@
       <c r="AJ32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AK32" s="9">
-        <v>859438</v>
+      <c r="AK32" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="AL32" s="9" t="s">
         <v>57</v>
@@ -4114,140 +4114,140 @@
       <c r="I33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>57</v>
+      <c r="J33" s="13">
+        <v>729015</v>
+      </c>
+      <c r="K33" s="13">
+        <v>1772967</v>
+      </c>
+      <c r="L33" s="13">
+        <v>1468600</v>
       </c>
       <c r="M33" s="13">
-        <v>729015</v>
+        <v>1377560</v>
       </c>
       <c r="N33" s="13">
-        <v>1772967</v>
+        <v>1211798</v>
       </c>
       <c r="O33" s="13">
-        <v>1468600</v>
+        <v>1241898</v>
       </c>
       <c r="P33" s="13">
-        <v>1377560</v>
+        <v>1527172</v>
       </c>
       <c r="Q33" s="13">
-        <v>1211798</v>
+        <v>1335243</v>
       </c>
       <c r="R33" s="13">
-        <v>1241898</v>
+        <v>846121</v>
       </c>
       <c r="S33" s="13">
-        <v>1527172</v>
+        <v>1375326</v>
       </c>
       <c r="T33" s="13">
-        <v>1335243</v>
+        <v>1681267</v>
       </c>
       <c r="U33" s="13">
-        <v>846121</v>
+        <v>845585</v>
       </c>
       <c r="V33" s="13">
-        <v>1375326</v>
+        <v>801408</v>
       </c>
       <c r="W33" s="13">
-        <v>1681267</v>
+        <v>1375779</v>
       </c>
       <c r="X33" s="13">
-        <v>845585</v>
+        <v>1326288</v>
       </c>
       <c r="Y33" s="13">
-        <v>801408</v>
+        <v>909929</v>
       </c>
       <c r="Z33" s="13">
-        <v>1375779</v>
+        <v>959354</v>
       </c>
       <c r="AA33" s="13">
-        <v>1326288</v>
+        <v>784045</v>
       </c>
       <c r="AB33" s="13">
-        <v>909929</v>
+        <v>1502793</v>
       </c>
       <c r="AC33" s="13">
-        <v>959354</v>
+        <v>1307930</v>
       </c>
       <c r="AD33" s="13">
-        <v>784045</v>
+        <v>1158543</v>
       </c>
       <c r="AE33" s="13">
-        <v>1502793</v>
+        <v>915143</v>
       </c>
       <c r="AF33" s="13">
-        <v>1307930</v>
+        <v>1478014</v>
       </c>
       <c r="AG33" s="13">
-        <v>1158543</v>
-      </c>
-      <c r="AH33" s="13">
-        <v>915143</v>
+        <v>1133675</v>
+      </c>
+      <c r="AH33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI33" s="13">
-        <v>1478014</v>
+        <v>1373302</v>
       </c>
       <c r="AJ33" s="13">
-        <v>1133675</v>
-      </c>
-      <c r="AK33" s="13" t="s">
-        <v>57</v>
+        <v>1615123</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>924157</v>
       </c>
       <c r="AL33" s="13">
-        <v>1373302</v>
+        <v>1104375</v>
       </c>
       <c r="AM33" s="13">
-        <v>1615123</v>
+        <v>1251541</v>
       </c>
       <c r="AN33" s="13">
-        <v>924157</v>
+        <v>1098955</v>
       </c>
       <c r="AO33" s="13">
-        <v>1104375</v>
+        <v>1481508</v>
       </c>
       <c r="AP33" s="13">
-        <v>1251541</v>
+        <v>1570886</v>
       </c>
       <c r="AQ33" s="13">
-        <v>1098955</v>
+        <v>1100051</v>
       </c>
       <c r="AR33" s="13">
-        <v>1481508</v>
+        <v>1802340</v>
       </c>
       <c r="AS33" s="13">
-        <v>1570886</v>
+        <v>1583379</v>
       </c>
       <c r="AT33" s="13">
-        <v>1100051</v>
+        <v>1070652</v>
       </c>
       <c r="AU33" s="13">
-        <v>1802340</v>
+        <v>1857416</v>
       </c>
       <c r="AV33" s="13">
-        <v>1583379</v>
+        <v>1695143</v>
       </c>
       <c r="AW33" s="13">
-        <v>1070652</v>
+        <v>2026061</v>
       </c>
       <c r="AX33" s="13">
-        <v>1857416</v>
+        <v>1374626</v>
       </c>
       <c r="AY33" s="13">
-        <v>1695143</v>
+        <v>1743127</v>
       </c>
       <c r="AZ33" s="13">
-        <v>2026061</v>
+        <v>830736</v>
       </c>
       <c r="BA33" s="13">
-        <v>1374626</v>
+        <v>1931456</v>
       </c>
       <c r="BB33" s="13">
-        <v>1743127</v>
+        <v>1638025</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4700,139 +4700,139 @@
         <v>0</v>
       </c>
       <c r="J38" s="19">
-        <v>0</v>
+        <v>2189596</v>
       </c>
       <c r="K38" s="19">
-        <v>0</v>
+        <v>4684950</v>
       </c>
       <c r="L38" s="19">
-        <v>0</v>
+        <v>6206453</v>
       </c>
       <c r="M38" s="19">
-        <v>2189596</v>
+        <v>6297877</v>
       </c>
       <c r="N38" s="19">
-        <v>4684950</v>
+        <v>4907194</v>
       </c>
       <c r="O38" s="19">
-        <v>6206453</v>
+        <v>5024986</v>
       </c>
       <c r="P38" s="19">
-        <v>6297877</v>
+        <v>6010296</v>
       </c>
       <c r="Q38" s="19">
-        <v>4907194</v>
+        <v>4778731</v>
       </c>
       <c r="R38" s="19">
-        <v>5024986</v>
+        <v>2793450</v>
       </c>
       <c r="S38" s="19">
-        <v>6010296</v>
+        <v>5542082</v>
       </c>
       <c r="T38" s="19">
-        <v>4778731</v>
+        <v>7377556</v>
       </c>
       <c r="U38" s="19">
-        <v>2793450</v>
+        <v>3866112</v>
       </c>
       <c r="V38" s="19">
-        <v>5542082</v>
+        <v>2632828</v>
       </c>
       <c r="W38" s="19">
-        <v>7377556</v>
+        <v>4800548</v>
       </c>
       <c r="X38" s="19">
-        <v>3866112</v>
+        <v>4948513</v>
       </c>
       <c r="Y38" s="19">
-        <v>2632828</v>
+        <v>4838510</v>
       </c>
       <c r="Z38" s="19">
-        <v>4800548</v>
+        <v>5206680</v>
       </c>
       <c r="AA38" s="19">
-        <v>4948513</v>
+        <v>5572973</v>
       </c>
       <c r="AB38" s="19">
-        <v>4838510</v>
+        <v>4674415</v>
       </c>
       <c r="AC38" s="19">
-        <v>5206680</v>
+        <v>4622101</v>
       </c>
       <c r="AD38" s="19">
-        <v>5572973</v>
+        <v>4943319</v>
       </c>
       <c r="AE38" s="19">
-        <v>4674415</v>
+        <v>4514858</v>
       </c>
       <c r="AF38" s="19">
-        <v>4622101</v>
+        <v>6300704</v>
       </c>
       <c r="AG38" s="19">
-        <v>4943319</v>
+        <v>5477276</v>
       </c>
       <c r="AH38" s="19">
-        <v>4514858</v>
+        <v>3517359</v>
       </c>
       <c r="AI38" s="19">
-        <v>6300704</v>
+        <v>6010189</v>
       </c>
       <c r="AJ38" s="19">
-        <v>5477276</v>
+        <v>7131931</v>
       </c>
       <c r="AK38" s="19">
-        <v>3517359</v>
+        <v>5102138</v>
       </c>
       <c r="AL38" s="19">
-        <v>6010189</v>
+        <v>5348757</v>
       </c>
       <c r="AM38" s="19">
-        <v>7131931</v>
+        <v>5655448</v>
       </c>
       <c r="AN38" s="19">
-        <v>5102138</v>
+        <v>4822212</v>
       </c>
       <c r="AO38" s="19">
-        <v>5348757</v>
+        <v>6612364</v>
       </c>
       <c r="AP38" s="19">
-        <v>5655448</v>
+        <v>6631061</v>
       </c>
       <c r="AQ38" s="19">
-        <v>4822212</v>
+        <v>5488187</v>
       </c>
       <c r="AR38" s="19">
-        <v>6612364</v>
+        <v>6214793</v>
       </c>
       <c r="AS38" s="19">
-        <v>6631061</v>
+        <v>5230351</v>
       </c>
       <c r="AT38" s="19">
-        <v>5488187</v>
+        <v>3010648</v>
       </c>
       <c r="AU38" s="19">
-        <v>6214793</v>
+        <v>6637513</v>
       </c>
       <c r="AV38" s="19">
-        <v>5230351</v>
+        <v>7153170</v>
       </c>
       <c r="AW38" s="19">
-        <v>3010648</v>
+        <v>5456015</v>
       </c>
       <c r="AX38" s="19">
-        <v>6637513</v>
+        <v>5519597</v>
       </c>
       <c r="AY38" s="19">
-        <v>7153170</v>
+        <v>5714670</v>
       </c>
       <c r="AZ38" s="19">
-        <v>5456015</v>
+        <v>4934755</v>
       </c>
       <c r="BA38" s="19">
-        <v>5519597</v>
+        <v>6640362</v>
       </c>
       <c r="BB38" s="19">
-        <v>5714670</v>
+        <v>6267703</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5347,140 +5347,140 @@
       <c r="I46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>57</v>
+      <c r="J46" s="9">
+        <v>165894</v>
+      </c>
+      <c r="K46" s="9">
+        <v>396429</v>
+      </c>
+      <c r="L46" s="9">
+        <v>400735</v>
       </c>
       <c r="M46" s="9">
-        <v>165894</v>
+        <v>598388</v>
       </c>
       <c r="N46" s="9">
-        <v>396429</v>
+        <v>516993</v>
       </c>
       <c r="O46" s="9">
-        <v>400735</v>
+        <v>561187</v>
       </c>
       <c r="P46" s="9">
-        <v>598388</v>
+        <v>597900</v>
       </c>
       <c r="Q46" s="9">
-        <v>516993</v>
+        <v>607544</v>
       </c>
       <c r="R46" s="9">
-        <v>561187</v>
+        <v>516404</v>
       </c>
       <c r="S46" s="9">
-        <v>597900</v>
+        <v>622172</v>
       </c>
       <c r="T46" s="9">
-        <v>607544</v>
+        <v>913362</v>
       </c>
       <c r="U46" s="9">
-        <v>516404</v>
+        <v>757337</v>
       </c>
       <c r="V46" s="9">
-        <v>622172</v>
+        <v>347918</v>
       </c>
       <c r="W46" s="9">
-        <v>913362</v>
+        <v>598798</v>
       </c>
       <c r="X46" s="9">
-        <v>757337</v>
+        <v>620732</v>
       </c>
       <c r="Y46" s="9">
-        <v>347918</v>
+        <v>769792</v>
       </c>
       <c r="Z46" s="9">
-        <v>598798</v>
+        <v>796392</v>
       </c>
       <c r="AA46" s="9">
-        <v>620732</v>
+        <v>981847</v>
       </c>
       <c r="AB46" s="9">
-        <v>769792</v>
+        <v>520867</v>
       </c>
       <c r="AC46" s="9">
-        <v>796392</v>
+        <v>731418</v>
       </c>
       <c r="AD46" s="9">
-        <v>981847</v>
+        <v>705183</v>
       </c>
       <c r="AE46" s="9">
-        <v>520867</v>
+        <v>778548</v>
       </c>
       <c r="AF46" s="9">
-        <v>731418</v>
+        <v>978172</v>
       </c>
       <c r="AG46" s="9">
-        <v>705183</v>
+        <v>925671</v>
       </c>
       <c r="AH46" s="9">
-        <v>778548</v>
+        <v>492842</v>
       </c>
       <c r="AI46" s="9">
-        <v>978172</v>
+        <v>975476</v>
       </c>
       <c r="AJ46" s="9">
-        <v>925671</v>
+        <v>1264826</v>
       </c>
       <c r="AK46" s="9">
-        <v>492842</v>
+        <v>935268</v>
       </c>
       <c r="AL46" s="9">
-        <v>975476</v>
+        <v>1030803</v>
       </c>
       <c r="AM46" s="9">
-        <v>1264826</v>
+        <v>1182779</v>
       </c>
       <c r="AN46" s="9">
-        <v>935268</v>
+        <v>915304</v>
       </c>
       <c r="AO46" s="9">
-        <v>1030803</v>
+        <v>1230799</v>
       </c>
       <c r="AP46" s="9">
-        <v>1182779</v>
+        <v>1295845</v>
       </c>
       <c r="AQ46" s="9">
-        <v>915304</v>
+        <v>1290144</v>
       </c>
       <c r="AR46" s="9">
-        <v>1230799</v>
+        <v>1248645</v>
       </c>
       <c r="AS46" s="9">
-        <v>1295845</v>
+        <v>1067639</v>
       </c>
       <c r="AT46" s="9">
-        <v>1290144</v>
+        <v>579998</v>
       </c>
       <c r="AU46" s="9">
-        <v>1248645</v>
+        <v>1531365</v>
       </c>
       <c r="AV46" s="9">
-        <v>1067639</v>
+        <v>1747480</v>
       </c>
       <c r="AW46" s="9">
-        <v>579998</v>
+        <v>1342891</v>
       </c>
       <c r="AX46" s="9">
-        <v>1531365</v>
+        <v>1547355</v>
       </c>
       <c r="AY46" s="9">
-        <v>1747480</v>
+        <v>1893344</v>
       </c>
       <c r="AZ46" s="9">
-        <v>1342891</v>
+        <v>1919893</v>
       </c>
       <c r="BA46" s="9">
-        <v>1547355</v>
+        <v>1497092</v>
       </c>
       <c r="BB46" s="9">
-        <v>1893344</v>
+        <v>2122563</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5506,140 +5506,140 @@
       <c r="I47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>57</v>
+      <c r="J47" s="13">
+        <v>27600</v>
+      </c>
+      <c r="K47" s="13">
+        <v>139621</v>
+      </c>
+      <c r="L47" s="13">
+        <v>151990</v>
       </c>
       <c r="M47" s="13">
-        <v>27600</v>
+        <v>167780</v>
       </c>
       <c r="N47" s="13">
-        <v>139621</v>
+        <v>177389</v>
       </c>
       <c r="O47" s="13">
-        <v>151990</v>
+        <v>229379</v>
       </c>
       <c r="P47" s="13">
-        <v>167780</v>
+        <v>218938</v>
       </c>
       <c r="Q47" s="13">
-        <v>177389</v>
+        <v>225318</v>
       </c>
       <c r="R47" s="13">
-        <v>229379</v>
+        <v>141207</v>
       </c>
       <c r="S47" s="13">
-        <v>218938</v>
+        <v>308374</v>
       </c>
       <c r="T47" s="13">
-        <v>225318</v>
+        <v>458590</v>
       </c>
       <c r="U47" s="13">
-        <v>141207</v>
+        <v>254408</v>
       </c>
       <c r="V47" s="13">
-        <v>308374</v>
+        <v>102359</v>
       </c>
       <c r="W47" s="13">
-        <v>458590</v>
+        <v>350389</v>
       </c>
       <c r="X47" s="13">
-        <v>254408</v>
+        <v>287159</v>
       </c>
       <c r="Y47" s="13">
-        <v>102359</v>
+        <v>353658</v>
       </c>
       <c r="Z47" s="13">
-        <v>350389</v>
+        <v>194091</v>
       </c>
       <c r="AA47" s="13">
-        <v>287159</v>
+        <v>234213</v>
       </c>
       <c r="AB47" s="13">
-        <v>353658</v>
+        <v>439739</v>
       </c>
       <c r="AC47" s="13">
-        <v>194091</v>
+        <v>459552</v>
       </c>
       <c r="AD47" s="13">
-        <v>234213</v>
+        <v>429007</v>
       </c>
       <c r="AE47" s="13">
-        <v>439739</v>
+        <v>387230</v>
       </c>
       <c r="AF47" s="13">
-        <v>459552</v>
+        <v>624899</v>
       </c>
       <c r="AG47" s="13">
-        <v>429007</v>
+        <v>380655</v>
       </c>
       <c r="AH47" s="13">
-        <v>387230</v>
+        <v>296890</v>
       </c>
       <c r="AI47" s="13">
-        <v>624899</v>
+        <v>677102</v>
       </c>
       <c r="AJ47" s="13">
-        <v>380655</v>
+        <v>717616</v>
       </c>
       <c r="AK47" s="13">
-        <v>296890</v>
+        <v>769765</v>
       </c>
       <c r="AL47" s="13">
-        <v>677102</v>
+        <v>616077</v>
       </c>
       <c r="AM47" s="13">
-        <v>717616</v>
+        <v>995123</v>
       </c>
       <c r="AN47" s="13">
-        <v>769765</v>
+        <v>499633</v>
       </c>
       <c r="AO47" s="13">
-        <v>616077</v>
+        <v>1068222</v>
       </c>
       <c r="AP47" s="13">
-        <v>995123</v>
+        <v>986053</v>
       </c>
       <c r="AQ47" s="13">
-        <v>499633</v>
+        <v>869999</v>
       </c>
       <c r="AR47" s="13">
-        <v>1068222</v>
+        <v>751267</v>
       </c>
       <c r="AS47" s="13">
-        <v>986053</v>
+        <v>626799</v>
       </c>
       <c r="AT47" s="13">
-        <v>869999</v>
+        <v>389232</v>
       </c>
       <c r="AU47" s="13">
-        <v>751267</v>
+        <v>962709</v>
       </c>
       <c r="AV47" s="13">
-        <v>626799</v>
+        <v>620888</v>
       </c>
       <c r="AW47" s="13">
-        <v>389232</v>
+        <v>626831</v>
       </c>
       <c r="AX47" s="13">
-        <v>962709</v>
+        <v>581086</v>
       </c>
       <c r="AY47" s="13">
-        <v>620888</v>
+        <v>1179453</v>
       </c>
       <c r="AZ47" s="13">
-        <v>626831</v>
+        <v>701701</v>
       </c>
       <c r="BA47" s="13">
-        <v>581086</v>
+        <v>1358433</v>
       </c>
       <c r="BB47" s="13">
-        <v>1179453</v>
+        <v>973785</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5665,140 +5665,140 @@
       <c r="I48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>57</v>
+      <c r="J48" s="9">
+        <v>107593</v>
+      </c>
+      <c r="K48" s="9">
+        <v>266101</v>
+      </c>
+      <c r="L48" s="9">
+        <v>318588</v>
       </c>
       <c r="M48" s="9">
-        <v>107593</v>
+        <v>315653</v>
       </c>
       <c r="N48" s="9">
-        <v>266101</v>
+        <v>290496</v>
       </c>
       <c r="O48" s="9">
-        <v>318588</v>
+        <v>267224</v>
       </c>
       <c r="P48" s="9">
-        <v>315653</v>
+        <v>295970</v>
       </c>
       <c r="Q48" s="9">
-        <v>290496</v>
+        <v>314325</v>
       </c>
       <c r="R48" s="9">
-        <v>267224</v>
+        <v>214295</v>
       </c>
       <c r="S48" s="9">
-        <v>295970</v>
+        <v>314762</v>
       </c>
       <c r="T48" s="9">
-        <v>314325</v>
+        <v>439526</v>
       </c>
       <c r="U48" s="9">
-        <v>214295</v>
+        <v>326607</v>
       </c>
       <c r="V48" s="9">
-        <v>314762</v>
+        <v>238938</v>
       </c>
       <c r="W48" s="9">
-        <v>439526</v>
+        <v>447320</v>
       </c>
       <c r="X48" s="9">
-        <v>326607</v>
+        <v>396231</v>
       </c>
       <c r="Y48" s="9">
-        <v>238938</v>
+        <v>362200</v>
       </c>
       <c r="Z48" s="9">
-        <v>447320</v>
+        <v>294448</v>
       </c>
       <c r="AA48" s="9">
-        <v>396231</v>
+        <v>218682</v>
       </c>
       <c r="AB48" s="9">
-        <v>362200</v>
+        <v>409790</v>
       </c>
       <c r="AC48" s="9">
-        <v>294448</v>
+        <v>398617</v>
       </c>
       <c r="AD48" s="9">
-        <v>218682</v>
+        <v>334050</v>
       </c>
       <c r="AE48" s="9">
-        <v>409790</v>
+        <v>308293</v>
       </c>
       <c r="AF48" s="9">
-        <v>398617</v>
+        <v>531290</v>
       </c>
       <c r="AG48" s="9">
-        <v>334050</v>
+        <v>271961</v>
       </c>
       <c r="AH48" s="9">
-        <v>308293</v>
+        <v>241505</v>
       </c>
       <c r="AI48" s="9">
-        <v>531290</v>
+        <v>438589</v>
       </c>
       <c r="AJ48" s="9">
-        <v>271961</v>
+        <v>514809</v>
       </c>
       <c r="AK48" s="9">
-        <v>241505</v>
+        <v>331326</v>
       </c>
       <c r="AL48" s="9">
-        <v>438589</v>
+        <v>359198</v>
       </c>
       <c r="AM48" s="9">
-        <v>514809</v>
+        <v>423673</v>
       </c>
       <c r="AN48" s="9">
-        <v>331326</v>
+        <v>375908</v>
       </c>
       <c r="AO48" s="9">
-        <v>359198</v>
+        <v>450323</v>
       </c>
       <c r="AP48" s="9">
-        <v>423673</v>
+        <v>498286</v>
       </c>
       <c r="AQ48" s="9">
-        <v>375908</v>
+        <v>473084</v>
       </c>
       <c r="AR48" s="9">
-        <v>450323</v>
+        <v>715275</v>
       </c>
       <c r="AS48" s="9">
-        <v>498286</v>
+        <v>633835</v>
       </c>
       <c r="AT48" s="9">
-        <v>473084</v>
+        <v>506450</v>
       </c>
       <c r="AU48" s="9">
-        <v>715275</v>
+        <v>953314</v>
       </c>
       <c r="AV48" s="9">
-        <v>633835</v>
+        <v>1387890</v>
       </c>
       <c r="AW48" s="9">
-        <v>506450</v>
+        <v>1196498</v>
       </c>
       <c r="AX48" s="9">
-        <v>953314</v>
+        <v>848807</v>
       </c>
       <c r="AY48" s="9">
-        <v>1387890</v>
+        <v>1156067</v>
       </c>
       <c r="AZ48" s="9">
-        <v>1196498</v>
+        <v>455218</v>
       </c>
       <c r="BA48" s="9">
-        <v>848807</v>
+        <v>1071311</v>
       </c>
       <c r="BB48" s="9">
-        <v>1121618</v>
+        <v>1061625</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6309,14 +6309,14 @@
       <c r="I54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>57</v>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
       </c>
       <c r="M54" s="9">
         <v>0</v>
@@ -6624,139 +6624,139 @@
         <v>0</v>
       </c>
       <c r="J56" s="17">
-        <v>0</v>
+        <v>301087</v>
       </c>
       <c r="K56" s="17">
-        <v>0</v>
+        <v>802151</v>
       </c>
       <c r="L56" s="17">
-        <v>0</v>
+        <v>871313</v>
       </c>
       <c r="M56" s="17">
-        <v>301087</v>
+        <v>1081821</v>
       </c>
       <c r="N56" s="17">
-        <v>802151</v>
+        <v>984878</v>
       </c>
       <c r="O56" s="17">
-        <v>871313</v>
+        <v>1057790</v>
       </c>
       <c r="P56" s="17">
-        <v>1081821</v>
+        <v>1112808</v>
       </c>
       <c r="Q56" s="17">
-        <v>984878</v>
+        <v>1147187</v>
       </c>
       <c r="R56" s="17">
-        <v>1057790</v>
+        <v>871906</v>
       </c>
       <c r="S56" s="17">
-        <v>1112808</v>
+        <v>1245308</v>
       </c>
       <c r="T56" s="17">
-        <v>1147187</v>
+        <v>1811478</v>
       </c>
       <c r="U56" s="17">
-        <v>871906</v>
+        <v>1338352</v>
       </c>
       <c r="V56" s="17">
-        <v>1245308</v>
+        <v>689215</v>
       </c>
       <c r="W56" s="17">
-        <v>1811478</v>
+        <v>1396507</v>
       </c>
       <c r="X56" s="17">
-        <v>1338352</v>
+        <v>1304122</v>
       </c>
       <c r="Y56" s="17">
-        <v>689215</v>
+        <v>1485650</v>
       </c>
       <c r="Z56" s="17">
-        <v>1396507</v>
+        <v>1284931</v>
       </c>
       <c r="AA56" s="17">
-        <v>1304122</v>
+        <v>1434742</v>
       </c>
       <c r="AB56" s="17">
-        <v>1485650</v>
+        <v>1370396</v>
       </c>
       <c r="AC56" s="17">
-        <v>1284931</v>
+        <v>1589587</v>
       </c>
       <c r="AD56" s="17">
-        <v>1434742</v>
+        <v>1468240</v>
       </c>
       <c r="AE56" s="17">
-        <v>1370396</v>
+        <v>1474071</v>
       </c>
       <c r="AF56" s="17">
-        <v>1589587</v>
+        <v>2134361</v>
       </c>
       <c r="AG56" s="17">
-        <v>1468240</v>
+        <v>1578287</v>
       </c>
       <c r="AH56" s="17">
-        <v>1474071</v>
+        <v>1031237</v>
       </c>
       <c r="AI56" s="17">
-        <v>2134361</v>
+        <v>2091167</v>
       </c>
       <c r="AJ56" s="17">
-        <v>1578287</v>
+        <v>2497251</v>
       </c>
       <c r="AK56" s="17">
-        <v>1031237</v>
+        <v>2036359</v>
       </c>
       <c r="AL56" s="17">
-        <v>2091167</v>
+        <v>2006078</v>
       </c>
       <c r="AM56" s="17">
-        <v>2497251</v>
+        <v>2601575</v>
       </c>
       <c r="AN56" s="17">
-        <v>2036359</v>
+        <v>1790845</v>
       </c>
       <c r="AO56" s="17">
-        <v>2006078</v>
+        <v>2749344</v>
       </c>
       <c r="AP56" s="17">
-        <v>2601575</v>
+        <v>2780184</v>
       </c>
       <c r="AQ56" s="17">
-        <v>1790845</v>
+        <v>2633227</v>
       </c>
       <c r="AR56" s="17">
-        <v>2749344</v>
+        <v>2715187</v>
       </c>
       <c r="AS56" s="17">
-        <v>2780184</v>
+        <v>2328273</v>
       </c>
       <c r="AT56" s="17">
-        <v>2633227</v>
+        <v>1475680</v>
       </c>
       <c r="AU56" s="17">
-        <v>2715187</v>
+        <v>3447388</v>
       </c>
       <c r="AV56" s="17">
-        <v>2328273</v>
+        <v>3756258</v>
       </c>
       <c r="AW56" s="17">
-        <v>1475680</v>
+        <v>3166220</v>
       </c>
       <c r="AX56" s="17">
-        <v>3447388</v>
+        <v>2977248</v>
       </c>
       <c r="AY56" s="17">
-        <v>3756258</v>
+        <v>4228864</v>
       </c>
       <c r="AZ56" s="17">
-        <v>3166220</v>
+        <v>3076812</v>
       </c>
       <c r="BA56" s="17">
-        <v>2977248</v>
+        <v>3926836</v>
       </c>
       <c r="BB56" s="17">
-        <v>4194415</v>
+        <v>4157973</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7271,140 +7271,140 @@
       <c r="I64" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>57</v>
+      <c r="J64" s="9">
+        <v>124710</v>
+      </c>
+      <c r="K64" s="9">
+        <v>153406</v>
+      </c>
+      <c r="L64" s="9">
+        <v>104636</v>
       </c>
       <c r="M64" s="9">
-        <v>124710</v>
+        <v>142071</v>
       </c>
       <c r="N64" s="9">
-        <v>153406</v>
+        <v>164199</v>
       </c>
       <c r="O64" s="9">
-        <v>104636</v>
+        <v>183081</v>
       </c>
       <c r="P64" s="9">
-        <v>142071</v>
+        <v>157116</v>
       </c>
       <c r="Q64" s="9">
-        <v>164199</v>
+        <v>213313</v>
       </c>
       <c r="R64" s="9">
-        <v>183081</v>
+        <v>318383</v>
       </c>
       <c r="S64" s="9">
-        <v>157116</v>
+        <v>202764</v>
       </c>
       <c r="T64" s="9">
-        <v>213313</v>
+        <v>221125</v>
       </c>
       <c r="U64" s="9">
-        <v>318383</v>
+        <v>308027</v>
       </c>
       <c r="V64" s="9">
-        <v>202764</v>
+        <v>220933</v>
       </c>
       <c r="W64" s="9">
-        <v>221125</v>
+        <v>232835</v>
       </c>
       <c r="X64" s="9">
-        <v>308027</v>
+        <v>225050</v>
       </c>
       <c r="Y64" s="9">
-        <v>220933</v>
+        <v>240585</v>
       </c>
       <c r="Z64" s="9">
-        <v>232835</v>
+        <v>213600</v>
       </c>
       <c r="AA64" s="9">
-        <v>225050</v>
+        <v>238454</v>
       </c>
       <c r="AB64" s="9">
-        <v>240585</v>
+        <v>278515</v>
       </c>
       <c r="AC64" s="9">
-        <v>213600</v>
+        <v>288990</v>
       </c>
       <c r="AD64" s="9">
-        <v>238454</v>
+        <v>240378</v>
       </c>
       <c r="AE64" s="9">
-        <v>278515</v>
+        <v>256222</v>
       </c>
       <c r="AF64" s="9">
-        <v>288990</v>
+        <v>272017</v>
       </c>
       <c r="AG64" s="9">
-        <v>240378</v>
+        <v>245571</v>
       </c>
       <c r="AH64" s="9">
-        <v>256222</v>
+        <v>247186</v>
       </c>
       <c r="AI64" s="9">
-        <v>272017</v>
+        <v>279010</v>
       </c>
       <c r="AJ64" s="9">
-        <v>245571</v>
+        <v>297052</v>
       </c>
       <c r="AK64" s="9">
-        <v>247186</v>
+        <v>331334</v>
       </c>
       <c r="AL64" s="9">
-        <v>279010</v>
+        <v>333064</v>
       </c>
       <c r="AM64" s="9">
-        <v>297052</v>
+        <v>394927</v>
       </c>
       <c r="AN64" s="9">
-        <v>331334</v>
+        <v>324558</v>
       </c>
       <c r="AO64" s="9">
-        <v>333064</v>
+        <v>366519</v>
       </c>
       <c r="AP64" s="9">
-        <v>394927</v>
+        <v>365179</v>
       </c>
       <c r="AQ64" s="9">
-        <v>324558</v>
+        <v>408008</v>
       </c>
       <c r="AR64" s="9">
-        <v>366519</v>
+        <v>377304</v>
       </c>
       <c r="AS64" s="9">
-        <v>365179</v>
+        <v>388257</v>
       </c>
       <c r="AT64" s="9">
-        <v>408008</v>
+        <v>398143</v>
       </c>
       <c r="AU64" s="9">
-        <v>377304</v>
+        <v>412578</v>
       </c>
       <c r="AV64" s="9">
-        <v>388257</v>
+        <v>408756</v>
       </c>
       <c r="AW64" s="9">
-        <v>398143</v>
+        <v>481067</v>
       </c>
       <c r="AX64" s="9">
-        <v>412578</v>
+        <v>436985</v>
       </c>
       <c r="AY64" s="9">
-        <v>408756</v>
+        <v>665471</v>
       </c>
       <c r="AZ64" s="9">
-        <v>481067</v>
+        <v>580475</v>
       </c>
       <c r="BA64" s="9">
-        <v>436985</v>
+        <v>468256</v>
       </c>
       <c r="BB64" s="9">
-        <v>665471</v>
+        <v>569647</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -7430,140 +7430,140 @@
       <c r="I65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L65" s="13" t="s">
-        <v>57</v>
+      <c r="J65" s="13">
+        <v>211754</v>
+      </c>
+      <c r="K65" s="13">
+        <v>425937</v>
+      </c>
+      <c r="L65" s="13">
+        <v>167383</v>
       </c>
       <c r="M65" s="13">
-        <v>211754</v>
+        <v>236840</v>
       </c>
       <c r="N65" s="13">
-        <v>425937</v>
+        <v>324400</v>
       </c>
       <c r="O65" s="13">
-        <v>167383</v>
+        <v>319533</v>
       </c>
       <c r="P65" s="13">
-        <v>236840</v>
+        <v>323084</v>
       </c>
       <c r="Q65" s="13">
-        <v>324400</v>
+        <v>378462</v>
       </c>
       <c r="R65" s="13">
-        <v>319533</v>
+        <v>433990</v>
       </c>
       <c r="S65" s="13">
-        <v>323084</v>
+        <v>280774</v>
       </c>
       <c r="T65" s="13">
-        <v>378462</v>
+        <v>292885</v>
       </c>
       <c r="U65" s="13">
-        <v>433990</v>
+        <v>452800</v>
       </c>
       <c r="V65" s="13">
-        <v>280774</v>
+        <v>398826</v>
       </c>
       <c r="W65" s="13">
-        <v>292885</v>
+        <v>410775</v>
       </c>
       <c r="X65" s="13">
-        <v>452800</v>
+        <v>332349</v>
       </c>
       <c r="Y65" s="13">
-        <v>398826</v>
+        <v>485185</v>
       </c>
       <c r="Z65" s="13">
-        <v>410775</v>
+        <v>374045</v>
       </c>
       <c r="AA65" s="13">
-        <v>332349</v>
+        <v>348855</v>
       </c>
       <c r="AB65" s="13">
-        <v>485185</v>
+        <v>337881</v>
       </c>
       <c r="AC65" s="13">
-        <v>374045</v>
+        <v>586746</v>
       </c>
       <c r="AD65" s="13">
-        <v>348855</v>
+        <v>504040</v>
       </c>
       <c r="AE65" s="13">
-        <v>337881</v>
+        <v>690066</v>
       </c>
       <c r="AF65" s="13">
-        <v>586746</v>
+        <v>509415</v>
       </c>
       <c r="AG65" s="13">
-        <v>504040</v>
+        <v>663008</v>
       </c>
       <c r="AH65" s="13">
-        <v>690066</v>
+        <v>447048</v>
       </c>
       <c r="AI65" s="13">
-        <v>509415</v>
+        <v>593591</v>
       </c>
       <c r="AJ65" s="13">
-        <v>663008</v>
+        <v>570042</v>
       </c>
       <c r="AK65" s="13">
-        <v>447048</v>
+        <v>567988</v>
       </c>
       <c r="AL65" s="13">
-        <v>593591</v>
+        <v>535967</v>
       </c>
       <c r="AM65" s="13">
-        <v>570042</v>
+        <v>706273</v>
       </c>
       <c r="AN65" s="13">
-        <v>567988</v>
+        <v>553240</v>
       </c>
       <c r="AO65" s="13">
-        <v>535967</v>
+        <v>602570</v>
       </c>
       <c r="AP65" s="13">
-        <v>706273</v>
+        <v>652299</v>
       </c>
       <c r="AQ65" s="13">
-        <v>553240</v>
+        <v>709579</v>
       </c>
       <c r="AR65" s="13">
-        <v>602570</v>
+        <v>681074</v>
       </c>
       <c r="AS65" s="13">
-        <v>652299</v>
+        <v>698657</v>
       </c>
       <c r="AT65" s="13">
-        <v>709579</v>
+        <v>805465</v>
       </c>
       <c r="AU65" s="13">
-        <v>681074</v>
+        <v>901074</v>
       </c>
       <c r="AV65" s="13">
-        <v>698657</v>
+        <v>524882</v>
       </c>
       <c r="AW65" s="13">
-        <v>805465</v>
+        <v>981774</v>
       </c>
       <c r="AX65" s="13">
-        <v>901074</v>
+        <v>962074</v>
       </c>
       <c r="AY65" s="13">
-        <v>524882</v>
+        <v>1047076</v>
       </c>
       <c r="AZ65" s="13">
-        <v>981774</v>
+        <v>880908</v>
       </c>
       <c r="BA65" s="13">
-        <v>962074</v>
+        <v>898589</v>
       </c>
       <c r="BB65" s="13">
-        <v>1047076</v>
+        <v>1077699</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -7589,140 +7589,140 @@
       <c r="I66" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>57</v>
+      <c r="J66" s="9">
+        <v>147587</v>
+      </c>
+      <c r="K66" s="9">
+        <v>150088</v>
+      </c>
+      <c r="L66" s="9">
+        <v>216933</v>
       </c>
       <c r="M66" s="9">
-        <v>147587</v>
+        <v>229139</v>
       </c>
       <c r="N66" s="9">
-        <v>150088</v>
+        <v>239723</v>
       </c>
       <c r="O66" s="9">
-        <v>216933</v>
+        <v>215174</v>
       </c>
       <c r="P66" s="9">
-        <v>229139</v>
+        <v>193803</v>
       </c>
       <c r="Q66" s="9">
-        <v>239723</v>
+        <v>235407</v>
       </c>
       <c r="R66" s="9">
-        <v>215174</v>
+        <v>253268</v>
       </c>
       <c r="S66" s="9">
-        <v>193803</v>
+        <v>228864</v>
       </c>
       <c r="T66" s="9">
-        <v>235407</v>
+        <v>261425</v>
       </c>
       <c r="U66" s="9">
-        <v>253268</v>
+        <v>386250</v>
       </c>
       <c r="V66" s="9">
-        <v>228864</v>
+        <v>298148</v>
       </c>
       <c r="W66" s="9">
-        <v>261425</v>
+        <v>325139</v>
       </c>
       <c r="X66" s="9">
-        <v>386250</v>
+        <v>298752</v>
       </c>
       <c r="Y66" s="9">
-        <v>298148</v>
+        <v>398053</v>
       </c>
       <c r="Z66" s="9">
-        <v>325139</v>
+        <v>306923</v>
       </c>
       <c r="AA66" s="9">
-        <v>298752</v>
+        <v>278915</v>
       </c>
       <c r="AB66" s="9">
-        <v>398053</v>
+        <v>272686</v>
       </c>
       <c r="AC66" s="9">
-        <v>306923</v>
+        <v>304769</v>
       </c>
       <c r="AD66" s="9">
-        <v>278915</v>
+        <v>288336</v>
       </c>
       <c r="AE66" s="9">
-        <v>272686</v>
+        <v>336880</v>
       </c>
       <c r="AF66" s="9">
-        <v>304769</v>
+        <v>359462</v>
       </c>
       <c r="AG66" s="9">
-        <v>288336</v>
+        <v>239893</v>
       </c>
       <c r="AH66" s="9">
-        <v>336880</v>
+        <v>281003</v>
       </c>
       <c r="AI66" s="9">
-        <v>359462</v>
+        <v>319368</v>
       </c>
       <c r="AJ66" s="9">
-        <v>239893</v>
+        <v>318743</v>
       </c>
       <c r="AK66" s="9">
-        <v>281003</v>
+        <v>358517</v>
       </c>
       <c r="AL66" s="9">
-        <v>319368</v>
+        <v>325250</v>
       </c>
       <c r="AM66" s="9">
-        <v>318743</v>
+        <v>338521</v>
       </c>
       <c r="AN66" s="9">
-        <v>358517</v>
+        <v>342060</v>
       </c>
       <c r="AO66" s="9">
-        <v>325250</v>
+        <v>303963</v>
       </c>
       <c r="AP66" s="9">
-        <v>338521</v>
+        <v>317201</v>
       </c>
       <c r="AQ66" s="9">
-        <v>342060</v>
+        <v>430056</v>
       </c>
       <c r="AR66" s="9">
-        <v>303963</v>
+        <v>396859</v>
       </c>
       <c r="AS66" s="9">
-        <v>317201</v>
+        <v>400305</v>
       </c>
       <c r="AT66" s="9">
-        <v>430056</v>
+        <v>473030</v>
       </c>
       <c r="AU66" s="9">
-        <v>396859</v>
+        <v>513247</v>
       </c>
       <c r="AV66" s="9">
-        <v>400305</v>
+        <v>818745</v>
       </c>
       <c r="AW66" s="9">
-        <v>473030</v>
+        <v>590554</v>
       </c>
       <c r="AX66" s="9">
-        <v>513247</v>
+        <v>617482</v>
       </c>
       <c r="AY66" s="9">
-        <v>818745</v>
+        <v>663214</v>
       </c>
       <c r="AZ66" s="9">
-        <v>590554</v>
+        <v>547970</v>
       </c>
       <c r="BA66" s="9">
-        <v>617482</v>
+        <v>554665</v>
       </c>
       <c r="BB66" s="9">
-        <v>643452</v>
+        <v>648113</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8301,19 +8301,19 @@
         <v>57</v>
       </c>
       <c r="AX73" s="13">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="AY73" s="13">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="AZ73" s="13">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="BA73" s="13">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="BB73" s="13">
-        <v>735</v>
+        <v>783</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -8460,19 +8460,19 @@
         <v>57</v>
       </c>
       <c r="AX74" s="9">
-        <v>4649</v>
+        <v>1520</v>
       </c>
       <c r="AY74" s="9">
-        <v>460</v>
+        <v>1490</v>
       </c>
       <c r="AZ74" s="9">
-        <v>465</v>
+        <v>1474</v>
       </c>
       <c r="BA74" s="9">
-        <v>1520</v>
+        <v>1474</v>
       </c>
       <c r="BB74" s="9">
-        <v>1490</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -8619,19 +8619,19 @@
         <v>57</v>
       </c>
       <c r="AX75" s="13">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AY75" s="13">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AZ75" s="13">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="BA75" s="13">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="BB75" s="13">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -8776,19 +8776,19 @@
         <v>0</v>
       </c>
       <c r="AX76" s="17">
-        <v>5839</v>
+        <v>2715</v>
       </c>
       <c r="AY76" s="17">
-        <v>1650</v>
+        <v>2670</v>
       </c>
       <c r="AZ76" s="17">
-        <v>1671</v>
+        <v>2684</v>
       </c>
       <c r="BA76" s="17">
-        <v>2715</v>
+        <v>2693</v>
       </c>
       <c r="BB76" s="17">
-        <v>2670</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9367,19 +9367,19 @@
         <v>57</v>
       </c>
       <c r="AX83" s="13">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AY83" s="13">
         <v>460</v>
       </c>
       <c r="AZ83" s="13">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="BA83" s="13">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="BB83" s="13">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -9526,19 +9526,19 @@
         <v>57</v>
       </c>
       <c r="AX84" s="9">
+        <v>4800</v>
+      </c>
+      <c r="AY84" s="9">
         <v>4750</v>
       </c>
-      <c r="AY84" s="9">
+      <c r="AZ84" s="9">
         <v>4700</v>
       </c>
-      <c r="AZ84" s="9">
-        <v>4795</v>
-      </c>
       <c r="BA84" s="9">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="BB84" s="9">
-        <v>4750</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -9691,13 +9691,13 @@
         <v>70000</v>
       </c>
       <c r="AZ85" s="13">
-        <v>70000</v>
+        <v>71000</v>
       </c>
       <c r="BA85" s="13">
-        <v>70000</v>
+        <v>71300</v>
       </c>
       <c r="BB85" s="13">
-        <v>70000</v>
+        <v>71400</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -10276,19 +10276,19 @@
         <v>57</v>
       </c>
       <c r="AX92" s="13">
-        <v>1621739</v>
+        <v>1595745</v>
       </c>
       <c r="AY92" s="13">
-        <v>1621739</v>
+        <v>1597826</v>
       </c>
       <c r="AZ92" s="13">
-        <v>1621277</v>
+        <v>1597895</v>
       </c>
       <c r="BA92" s="13">
-        <v>1595745</v>
+        <v>1597917</v>
       </c>
       <c r="BB92" s="13">
-        <v>1597826</v>
+        <v>1597959</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -10435,19 +10435,19 @@
         <v>57</v>
       </c>
       <c r="AX93" s="9">
-        <v>978737</v>
+        <v>316667</v>
       </c>
       <c r="AY93" s="9">
-        <v>97872</v>
+        <v>313684</v>
       </c>
       <c r="AZ93" s="9">
-        <v>96976</v>
+        <v>313617</v>
       </c>
       <c r="BA93" s="9">
-        <v>316667</v>
+        <v>313617</v>
       </c>
       <c r="BB93" s="9">
-        <v>313684</v>
+        <v>313617</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -10594,19 +10594,19 @@
         <v>57</v>
       </c>
       <c r="AX94" s="13">
-        <v>6343</v>
+        <v>6357</v>
       </c>
       <c r="AY94" s="13">
-        <v>6343</v>
+        <v>6357</v>
       </c>
       <c r="AZ94" s="13">
-        <v>6343</v>
+        <v>6352</v>
       </c>
       <c r="BA94" s="13">
-        <v>6357</v>
+        <v>6339</v>
       </c>
       <c r="BB94" s="13">
-        <v>6357</v>
+        <v>6345</v>
       </c>
     </row>
   </sheetData>
